--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test4/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.656</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.477</v>
+        <v>14.943</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-4340203720.459</v>
+        <v>-0.159</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1759640.004</v>
+        <v>28.754</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.998</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.214</v>
+        <v>5.218</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-2630971.285995363</v>
+        <v>25.09581985938447</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-2813265.790082932</v>
+        <v>25.08953578021865</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-684908.833697298</v>
+        <v>25.11954634643609</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-3591691.933616113</v>
+        <v>25.07166699590606</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-1250320.461346388</v>
+        <v>25.10899830196163</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-664584.5880590938</v>
+        <v>25.11207622603028</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-3399096.587969842</v>
+        <v>25.08411470996122</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1064962.560648982</v>
+        <v>25.1358374211382</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1124107.060845717</v>
+        <v>25.13719014603499</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-1642065.961492585</v>
+        <v>25.0868042931783</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-1318830.021250244</v>
+        <v>25.10305017598849</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-1267107.542923198</v>
+        <v>25.11073076449467</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-485721.7050860667</v>
+        <v>25.12355646412753</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-837081.9399758891</v>
+        <v>25.09426968590605</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>863404.0367930875</v>
+        <v>25.14248342909082</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-1436790.746240892</v>
+        <v>25.09520537892534</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-299881.9787200225</v>
+        <v>25.12873383563189</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>912197.5718893351</v>
+        <v>25.16249535854718</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1674800.055232144</v>
+        <v>25.06399706991184</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-1080282.523483814</v>
+        <v>25.09290999600823</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-818544.1146078573</v>
+        <v>25.100980104035</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-2297002.351225312</v>
+        <v>25.05177615911909</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-749731.0951000506</v>
+        <v>25.11476230078789</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-1093512.030397074</v>
+        <v>25.10611664646908</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-562092.2220543117</v>
+        <v>25.11559569826589</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-426801.4422909294</v>
+        <v>25.12186352498383</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-3098724.970976002</v>
+        <v>25.0652277938529</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>404526.276494213</v>
+        <v>25.14008460320403</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>552578.4654926176</v>
+        <v>25.13810267796491</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-2843417.846959661</v>
+        <v>25.07371622245919</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1550379.510080557</v>
+        <v>25.16430110577354</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1389611.236763448</v>
+        <v>25.15471492394149</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1123108.169078637</v>
+        <v>25.17041702516553</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1394717.851672368</v>
+        <v>25.18522891814333</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1514702.309225508</v>
+        <v>25.18839676437308</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>467852.7543813037</v>
+        <v>25.13536757069429</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1220569.012268161</v>
+        <v>25.16730809469536</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1465824.760156804</v>
+        <v>25.18643421947634</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-618875.549733269</v>
+        <v>25.11155044448201</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>526208.3950134946</v>
+        <v>25.17250417070654</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>831786.4902167388</v>
+        <v>25.18708520859398</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-1438041.167578655</v>
+        <v>25.07108784810742</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>609566.8499019032</v>
+        <v>25.16144783915306</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1132204.826823581</v>
+        <v>25.19662756165423</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2031012.254771936</v>
+        <v>25.22543872380304</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-3270074.875626934</v>
+        <v>25.08276534558529</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-1448470.705009294</v>
+        <v>25.1066693417254</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-733975.1980009816</v>
+        <v>25.11709833566824</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-3504445.198914337</v>
+        <v>25.06479146149937</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>243015.8214068175</v>
+        <v>25.14048126695888</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>464624.0114926718</v>
+        <v>25.14111815217242</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-3076740.356617659</v>
+        <v>25.07647935399266</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2004612.073810312</v>
+        <v>25.16824984720762</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2384658.854606408</v>
+        <v>25.16947573163641</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1704915.24011607</v>
+        <v>25.17963644961965</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1853633.630539632</v>
+        <v>25.18840790220363</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2530131.814454159</v>
+        <v>25.20707122614569</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-1098200.187642345</v>
+        <v>25.10373619037217</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>393864.30297855</v>
+        <v>25.14061135257141</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>979537.3043970487</v>
+        <v>25.16087301684064</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-1462428.114376671</v>
+        <v>25.08730875177616</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>294786.2479953499</v>
+        <v>25.15207225060285</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>767211.6826613792</v>
+        <v>25.17606215300304</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-1492644.722762466</v>
+        <v>25.06044610729366</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>67918.64911173789</v>
+        <v>25.14047734414216</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1061753.619545951</v>
+        <v>25.19140890947774</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-1924081.378199927</v>
+        <v>25.06020168258193</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1505880.303226873</v>
+        <v>25.20617503740781</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>-5027052.783558488</v>
+        <v>25.0802142760569</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-3539652.39129417</v>
+        <v>25.097781637183</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-1658922.279631605</v>
+        <v>25.1203711865476</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-4739235.058620906</v>
+        <v>25.07332956510048</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>54859.59125401899</v>
+        <v>25.1363012272427</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1236491.900634717</v>
+        <v>25.14835236630279</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-5098720.347335376</v>
+        <v>25.07748846834965</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>2512271.658133164</v>
+        <v>25.16167672315466</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>2927627.101146969</v>
+        <v>25.16673325051262</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1784591.023151033</v>
+        <v>25.15119365388183</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1987750.418920504</v>
+        <v>25.1616835387604</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>2876946.905710186</v>
+        <v>25.17411440862239</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-1761882.723022966</v>
+        <v>25.1015738272652</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-307052.0986112955</v>
+        <v>25.13186812351635</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1622293.094982284</v>
+        <v>25.16855421752664</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>-2443403.81867865</v>
+        <v>25.08481839970286</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-111651.3310184019</v>
+        <v>25.13639320505217</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>842922.3486699584</v>
+        <v>25.17175163669502</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>-2077233.146307431</v>
+        <v>25.07508557744654</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>13240.91389830054</v>
+        <v>25.13654215585142</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1540585.307700935</v>
+        <v>25.18312778415021</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>-3026146.621419685</v>
+        <v>25.06443762194133</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1409753.340284812</v>
+        <v>25.17334076699523</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>-267863.7408912427</v>
+        <v>25.14732508024543</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>-416401.7482491769</v>
+        <v>25.11569571751962</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>930793.9206961064</v>
+        <v>25.19497789178099</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1244357.233590605</v>
+        <v>25.21589666853965</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>-1271613.758833611</v>
+        <v>25.0533665977423</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-704071.5971370342</v>
+        <v>25.10860442574904</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>-173560.6579716421</v>
+        <v>25.13767885176131</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>-1247770.4615829</v>
+        <v>25.08316738723227</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-578605.5879028591</v>
+        <v>25.11113152045133</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>478799.4329276955</v>
+        <v>25.1563351269384</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>-1368038.122232627</v>
+        <v>25.04295018887548</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-1004577.285529062</v>
+        <v>25.07093705930309</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>-687311.167552782</v>
+        <v>25.09632425762377</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-1861972.802940588</v>
+        <v>25.03222417205628</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-690183.579389355</v>
+        <v>25.11012600392878</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>437324.2576682101</v>
+        <v>25.17379140590833</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>-321057.7395796606</v>
+        <v>25.11731202492386</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>996888.5380810754</v>
+        <v>25.218232634061</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1359162.572782947</v>
+        <v>25.25604544062224</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>-1105526.062665692</v>
+        <v>25.02505981094887</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-459959.1668716112</v>
+        <v>25.10249040759751</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-3466.453196822506</v>
+        <v>25.15674136346878</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2756939.825667501</v>
+        <v>25.26787667659342</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1510354.212216741</v>
+        <v>25.25104780461406</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2159609.093333443</v>
+        <v>25.31273028820312</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2353785.403038269</v>
+        <v>25.33479094241457</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>-374840.5106262121</v>
+        <v>25.11028256583425</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1816584.054466448</v>
+        <v>25.29820624420601</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1962327.885304192</v>
+        <v>25.30767740491355</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-193503.768750049</v>
+        <v>25.12398657511578</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>808022.5348881634</v>
+        <v>25.19043482300774</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1242578.574116659</v>
+        <v>25.21371171391245</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-1096380.700319849</v>
+        <v>25.06656741118124</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>860587.5907018872</v>
+        <v>25.19546696285819</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1319213.549651659</v>
+        <v>25.22808700901633</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-1400432.816525653</v>
+        <v>25.06282867504768</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>2349244.259034859</v>
+        <v>25.27541575222286</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>3009736.30590282</v>
+        <v>25.31524777887083</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1970980.67809624</v>
+        <v>25.36715802757179</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>2484819.67362301</v>
+        <v>25.42220889935128</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2767680.107489425</v>
+        <v>25.44225378288762</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>-29841.11656739861</v>
+        <v>25.1382797458124</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>2210613.509361444</v>
+        <v>25.38048763959931</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>2276537.60128237</v>
+        <v>25.39412059147934</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>3255365.806887871</v>
+        <v>25.27628562192888</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>839133.4269586682</v>
+        <v>25.20961682051555</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1371688.590560983</v>
+        <v>25.25277976945634</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2343274.210023641</v>
+        <v>25.32016208115589</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>-913354.6605981524</v>
+        <v>25.07515829395657</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1431077.593040233</v>
+        <v>25.26257150526113</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>-933165.6289292776</v>
+        <v>25.08947162224312</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>456505.0546051436</v>
+        <v>25.16873399832641</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1198192.20554182</v>
+        <v>25.20655396215713</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>-1169692.844654713</v>
+        <v>25.04918277471099</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>653226.8693988582</v>
+        <v>25.17924074608823</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1327774.804594468</v>
+        <v>25.2254736487631</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>-1479679.375645755</v>
+        <v>25.04728683136995</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>2118567.799445243</v>
+        <v>25.25989493658995</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>3454731.91080662</v>
+        <v>25.32813711543773</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1839609.890206286</v>
+        <v>25.33622439190016</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>2315210.180301623</v>
+        <v>25.38264326646071</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>2965482.346249337</v>
+        <v>25.44209195639265</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-545428.4796503027</v>
+        <v>25.08304616765475</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1776909.265779178</v>
+        <v>25.33775577924103</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>2235431.666358662</v>
+        <v>25.37928411944789</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>3644441.167206869</v>
+        <v>25.23854603235347</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>-148303.5982445744</v>
+        <v>25.14053070150979</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>460757.4007578073</v>
+        <v>25.17833967611045</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1675479.310317618</v>
+        <v>25.22877020715391</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>-1514321.772854249</v>
+        <v>25.07793904435706</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1503033.049230617</v>
+        <v>25.22201463997636</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>2193435.31871906</v>
+        <v>25.25436018778062</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>-1612700.119727548</v>
+        <v>25.08870619189466</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>473187.4450430699</v>
+        <v>25.16015416721644</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1931119.323742257</v>
+        <v>25.20753309736361</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>-1600179.289710304</v>
+        <v>25.07462982720379</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>757175.7442870166</v>
+        <v>25.17004488394183</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>2177879.493799508</v>
+        <v>25.22268019198868</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>-2372779.261216556</v>
+        <v>25.05529179455322</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>2363623.807654798</v>
+        <v>25.21922746175227</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>4648082.08763837</v>
+        <v>25.29347483282351</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1934047.557475623</v>
+        <v>25.25791693900909</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>2731556.225048014</v>
+        <v>25.31535804328032</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>4082788.453363251</v>
+        <v>25.38316319455986</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>-926802.5525254431</v>
+        <v>25.08163957203886</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2281583.298111067</v>
+        <v>25.29763340950889</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>3268076.909761477</v>
+        <v>25.35295721727634</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>-837124.6118576715</v>
+        <v>25.09698670977981</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-21773.65522626658</v>
+        <v>25.16128334549725</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>1791023.480120604</v>
+        <v>25.20700522911728</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-1990463.701033918</v>
+        <v>25.05147195576615</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>755849.5849712214</v>
+        <v>25.19003788526241</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1394924.286620978</v>
+        <v>25.21202739537492</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-1820326.393580791</v>
+        <v>25.07830744445351</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>4106458.383765142</v>
+        <v>25.29562656802138</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>4453225.089940496</v>
+        <v>25.31118644048118</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>183255.2501128142</v>
+        <v>25.20409130521078</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>399230.5316161129</v>
+        <v>25.23740839253088</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>482694.5051874749</v>
+        <v>25.25240656929144</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-413788.9780689662</v>
+        <v>25.11433789581018</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>164569.1501710072</v>
+        <v>25.15367832591836</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>1982781.336970818</v>
+        <v>25.26398678618944</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-528221.0994821381</v>
+        <v>25.09464582563976</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>589974.6985571131</v>
+        <v>25.16762755436167</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>703646.1270738624</v>
+        <v>25.18573779585757</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-1212820.80489569</v>
+        <v>25.00127270819073</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-442487.7679710105</v>
+        <v>25.11445995392176</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-192142.1041513616</v>
+        <v>25.10932840649421</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-1160013.485308035</v>
+        <v>25.0162701412183</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>542364.5243880932</v>
+        <v>25.20252508346513</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>644781.5127894458</v>
+        <v>25.13952865251586</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>1992559.547868241</v>
+        <v>25.23054916296883</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>1951391.132911985</v>
+        <v>25.23789972860014</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-1694157.599647735</v>
+        <v>25.07088542028153</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>1833744.413203377</v>
+        <v>25.26922105572787</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1859839.099482854</v>
+        <v>25.26761096226972</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>-1562374.469937763</v>
+        <v>25.09005889869187</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>4180780.149849952</v>
+        <v>25.36681396757036</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>3849928.125469255</v>
+        <v>25.35395306817864</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>2089772.7255124</v>
+        <v>25.37041721023948</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>2585764.765721667</v>
+        <v>25.40123337827199</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>2507533.245944213</v>
+        <v>25.39111220485734</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>379054.6293004777</v>
+        <v>25.15433323086211</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>1971895.906096662</v>
+        <v>25.28790236848702</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>2290466.413965252</v>
+        <v>25.34031508815197</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>22793.67203020793</v>
+        <v>25.13177422982947</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>864843.0464609702</v>
+        <v>25.24165541799715</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>839040.314521288</v>
+        <v>25.22633979082618</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>-1062927.584359349</v>
+        <v>25.01673528764303</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>446786.222569082</v>
+        <v>25.22039413290154</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>600697.9058555153</v>
+        <v>25.22088631228128</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>-1002488.090510979</v>
+        <v>25.03949401753965</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>1704345.542538357</v>
+        <v>25.35063558329508</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-1785682.521855085</v>
+        <v>25.08742253470277</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>426588.8375100042</v>
+        <v>25.19090174396135</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>1080544.003010553</v>
+        <v>25.20381291923286</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-1880559.461351728</v>
+        <v>25.05808349615626</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>1885838.402984058</v>
+        <v>25.25299618776178</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>1847564.178512059</v>
+        <v>25.25298061984835</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>-1868321.278076361</v>
+        <v>25.07775823584088</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>4083212.404245905</v>
+        <v>25.34687192774986</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>3980662.28939298</v>
+        <v>25.34540446848017</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>3243313.129414666</v>
+        <v>25.38201760063247</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>3806560.262464594</v>
+        <v>25.40917747444896</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>3305891.666861237</v>
+        <v>25.40845126611793</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>-1299726.531684947</v>
+        <v>25.09190330193958</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>556098.1201096578</v>
+        <v>25.23349705809899</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>1206361.706570705</v>
+        <v>25.28370091223388</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-492301.8749115157</v>
+        <v>25.08744065182262</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>793708.2613011458</v>
+        <v>25.19986962311842</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>787132.7678217932</v>
+        <v>25.19802892880146</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-1103997.965359052</v>
+        <v>25.00397070205815</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>470153.0009118832</v>
+        <v>25.1937136907402</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>680793.1448592816</v>
+        <v>25.21167042382498</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-1039715.144763447</v>
+        <v>25.02623157383502</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>1703513.495432907</v>
+        <v>25.31423728648975</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-2620171.132317388</v>
+        <v>25.07713684026606</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-49600.23798861002</v>
+        <v>25.16155409904077</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>1735302.825622497</v>
+        <v>25.19590731041998</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-2484359.430758351</v>
+        <v>25.07188596319377</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>2740579.241921709</v>
+        <v>25.23323035791345</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>3414825.59127458</v>
+        <v>25.25951499082394</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-2684004.543852285</v>
+        <v>25.07927603805635</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>6163007.599159913</v>
+        <v>25.31657985763923</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>6173023.068184483</v>
+        <v>25.32847983027498</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>3993031.692290486</v>
+        <v>25.31527600860192</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>4582590.734325573</v>
+        <v>25.3480718199923</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>4752042.012970483</v>
+        <v>25.3565674872228</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>-1698037.202811655</v>
+        <v>25.08561097001399</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>834724.0958540399</v>
+        <v>25.20688233813555</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>2165739.275653336</v>
+        <v>25.28786338218638</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>-1119696.255793515</v>
+        <v>25.07799734250378</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>925745.0392515162</v>
+        <v>25.17036363020628</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>1185828.388267233</v>
+        <v>25.19340428426522</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>-1534382.20087525</v>
+        <v>25.03284337559263</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>551659.3438378016</v>
+        <v>25.18333869984567</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>1079265.11025323</v>
+        <v>25.21808040512001</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-1514151.183008496</v>
+        <v>25.03796537694118</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>2038792.451950773</v>
+        <v>25.2647254659216</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>526676.1720464726</v>
+        <v>25.22215544566231</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>155567.0779452371</v>
+        <v>25.1777235807395</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>680942.5575544757</v>
+        <v>25.26123754365564</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>935448.1864335212</v>
+        <v>25.28075839587195</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-490288.3091822021</v>
+        <v>25.05294331461746</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>160916.0222735122</v>
+        <v>25.17391365923</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>476925.0959209421</v>
+        <v>25.22562740439218</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-640701.5456038376</v>
+        <v>25.08623463255052</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>226033.1444165141</v>
+        <v>25.16331765489041</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>656606.0118121465</v>
+        <v>25.20400525932851</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-964089.139437233</v>
+        <v>24.98748055931629</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-478359.0351406283</v>
+        <v>25.11276357122467</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>11641.9808596756</v>
+        <v>25.1321231345131</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-890367.9579499278</v>
+        <v>25.01111080930576</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>493606.8922250555</v>
+        <v>25.23207096824554</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>1586944.213582196</v>
+        <v>25.30637793459104</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>267063.2580735142</v>
+        <v>25.22332911278455</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>916885.0713680696</v>
+        <v>25.31018425055699</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>1133663.744017697</v>
+        <v>25.35828999245485</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-454575.9517619927</v>
+        <v>25.03772234962711</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>173120.3134614831</v>
+        <v>25.1829652693088</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>640511.5836796334</v>
+        <v>25.27927722046324</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>2007957.024076082</v>
+        <v>25.36372824679935</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>1237209.435856675</v>
+        <v>25.37514882814937</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>1502526.912390038</v>
+        <v>25.43692012351161</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>1547798.185714933</v>
+        <v>25.42926937156984</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-3782.843790023505</v>
+        <v>25.11603156883389</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>1311844.685837337</v>
+        <v>25.41804331675817</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>1331662.278948641</v>
+        <v>25.41003959590722</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>75260.68416489083</v>
+        <v>25.12986286088784</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>769164.7753867634</v>
+        <v>25.2560376882735</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>759369.2460289694</v>
+        <v>25.24779508871969</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-862193.7646067208</v>
+        <v>25.00139298335045</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>664457.3172872821</v>
+        <v>25.26511921106806</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>626728.3770203138</v>
+        <v>25.25577498310111</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-885357.4527673637</v>
+        <v>25.02785640829836</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>1668523.8316704</v>
+        <v>25.42049578049988</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>1727606.046982386</v>
+        <v>25.42928912881037</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>1284188.744129109</v>
+        <v>25.52156499719939</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>1417225.517356265</v>
+        <v>25.55323450948405</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>1418193.362687518</v>
+        <v>25.55041019827352</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>45327.42662776963</v>
+        <v>25.14859352946576</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>1283335.453827549</v>
+        <v>25.51822656280133</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>1337738.531632109</v>
+        <v>25.51559816966178</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>2008175.500670517</v>
+        <v>25.36033312580341</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>1175156.357259077</v>
+        <v>25.34377345833771</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>1527366.42216697</v>
+        <v>25.39241686182129</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>1550251.866807693</v>
+        <v>25.42501044015876</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-392357.9766285947</v>
+        <v>25.06120774755433</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>1274563.253039397</v>
+        <v>25.37237326285094</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>1290279.032989827</v>
+        <v>25.38008893732921</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-471825.4211901656</v>
+        <v>25.07078722153733</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>589664.5588552639</v>
+        <v>25.21162575939484</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>634360.4390942866</v>
+        <v>25.21967010792274</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-909540.5514748299</v>
+        <v>24.97844706592069</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>718358.1888653934</v>
+        <v>25.24396850667425</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>612307.8275941911</v>
+        <v>25.24642689645432</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-871515.7169034194</v>
+        <v>25.00177878868258</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>1780983.399907459</v>
+        <v>25.38901330216733</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>1846102.960791268</v>
+        <v>25.42654234138868</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>1445674.755813632</v>
+        <v>25.5036206811734</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>1595587.852181636</v>
+        <v>25.53366041776936</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>1613125.95458032</v>
+        <v>25.56423893938643</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-434832.4371184974</v>
+        <v>25.0660685154224</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>1342991.219754554</v>
+        <v>25.46878139492085</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>1395494.637530081</v>
+        <v>25.49055899386586</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>2983528.178311572</v>
+        <v>25.32066219319425</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>627849.5430237484</v>
+        <v>25.23656689207841</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>1211627.499696316</v>
+        <v>25.29159915850363</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>1572777.795553002</v>
+        <v>25.32247006486601</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-745827.5074961141</v>
+        <v>25.06362144638054</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>1697639.546659904</v>
+        <v>25.31346200695802</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>1962559.998565625</v>
+        <v>25.35688383096775</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>-1023644.661466261</v>
+        <v>25.05953361653313</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>841379.3176759994</v>
+        <v>25.18915421100002</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>1092457.731257709</v>
+        <v>25.22269933910956</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-1273667.943640141</v>
+        <v>25.01580701554312</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>834049.9843230287</v>
+        <v>25.22588049197513</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>1130297.818360511</v>
+        <v>25.2592488591342</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-1349275.715654522</v>
+        <v>25.01501671632541</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>2208961.814248979</v>
+        <v>25.3300380081641</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>2652969.368490348</v>
+        <v>25.394051236481</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>1678088.030482959</v>
+        <v>25.39647813964263</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>2000546.676643886</v>
+        <v>25.44678996166879</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>2248116.931967502</v>
+        <v>25.50053030309355</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>-718939.9072898509</v>
+        <v>25.05103802119041</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>1764628.046979323</v>
+        <v>25.40379191999525</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>2015276.232998983</v>
+        <v>25.4708373742765</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-1889306.098690479</v>
+        <v>25.10222540964046</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>-1775037.482497092</v>
+        <v>25.09529449811784</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-755379.9984216021</v>
+        <v>25.12254415694452</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-2807446.88993252</v>
+        <v>25.06384907697623</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-1666809.023324059</v>
+        <v>25.09597008876042</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-1463741.581828437</v>
+        <v>25.09935355779072</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-2424370.44002508</v>
+        <v>25.08225061489733</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-145396.3948301419</v>
+        <v>25.13193427192386</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>4103.936175021458</v>
+        <v>25.1338036751575</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>-1150459.569052844</v>
+        <v>25.08800850981846</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>-799781.6458258685</v>
+        <v>25.1044074461281</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>-663231.4154877455</v>
+        <v>25.11311713674543</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>-499359.9864951342</v>
+        <v>25.12491493466674</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>-545959.7386731337</v>
+        <v>25.1059873776844</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>470008.9769532055</v>
+        <v>25.15629078960499</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>-1281106.238612602</v>
+        <v>25.08006223670917</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-375418.0500673496</v>
+        <v>25.1100037111634</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>461627.4839834652</v>
+        <v>25.14801375539185</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-1662645.23504745</v>
+        <v>25.03558913735427</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-1357741.799928631</v>
+        <v>25.05282754090171</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1233821.860633758</v>
+        <v>25.06775039356804</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-1805975.126675288</v>
+        <v>25.03140685463867</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-929958.3163027908</v>
+        <v>25.07480283645692</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-1110665.280683808</v>
+        <v>25.10767410751358</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>-625914.093676562</v>
+        <v>25.11930519182521</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-631295.8250174324</v>
+        <v>25.12409799809005</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>-2450343.262670709</v>
+        <v>25.05554354131129</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>-291888.1854852476</v>
+        <v>25.13144393155188</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-107584.1868727789</v>
+        <v>25.13298061251644</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-2155169.061084339</v>
+        <v>25.0696763136938</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>784815.318163817</v>
+        <v>25.16453560338177</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>768810.5782406757</v>
+        <v>25.15924355958771</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>814734.1710200682</v>
+        <v>25.18171674785071</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>1171486.170217732</v>
+        <v>25.20063240466983</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>1304566.683239387</v>
+        <v>25.20475780887483</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>58445.91419811013</v>
+        <v>25.13948002039815</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>1299792.464984334</v>
+        <v>25.19762004961602</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>1417633.932821774</v>
+        <v>25.21987200125284</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>-882678.1678555789</v>
+        <v>25.09307622270806</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>230014.9906982464</v>
+        <v>25.15463422544698</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>653982.9313647806</v>
+        <v>25.17897693150552</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>-1436474.260541739</v>
+        <v>25.04304717686361</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>117647.327401154</v>
+        <v>25.13091203051073</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>752895.6030753177</v>
+        <v>25.18337161225823</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>-1483117.372047826</v>
+        <v>25.04857868784963</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>1365776.320319626</v>
+        <v>25.19979744287041</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-2327279.764024763</v>
+        <v>25.0787717206592</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-1188974.645077685</v>
+        <v>25.10390500293846</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-910704.5628071519</v>
+        <v>25.11518541559583</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-2748762.464859891</v>
+        <v>25.0527088040281</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-307875.7982846086</v>
+        <v>25.12713836092502</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-118881.5967487697</v>
+        <v>25.13400580016398</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-2364144.228734158</v>
+        <v>25.06914733587309</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>1106879.423425255</v>
+        <v>25.16214420023861</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>1447832.636006725</v>
+        <v>25.17152891660765</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>1067884.594975818</v>
+        <v>25.18668381763484</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>1189102.383294148</v>
+        <v>25.19699133473134</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>1620120.000922328</v>
+        <v>25.22017573236204</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-796248.7200435899</v>
+        <v>25.09912681410462</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>441218.3075846131</v>
+        <v>25.15798108307709</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>916367.5107197729</v>
+        <v>25.18361017695926</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-1437608.851758116</v>
+        <v>25.06316283212065</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-47998.56050698716</v>
+        <v>25.12558171017236</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>629599.8354288061</v>
+        <v>25.16373305107234</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-1522639.961140327</v>
+        <v>25.02815666753693</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-485700.5631827351</v>
+        <v>25.10127980217645</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>675572.3131354488</v>
+        <v>25.17521416657905</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-1596609.661531435</v>
+        <v>25.03701738406356</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>467817.4460940789</v>
+        <v>25.16943915195841</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-3493016.360456183</v>
+        <v>25.07811224311141</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>-2461471.743517555</v>
+        <v>25.09520238168199</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-1646240.95567038</v>
+        <v>25.11698800880756</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-3792025.345277323</v>
+        <v>25.06087680843514</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-1120232.036164196</v>
+        <v>25.12031534633762</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-42359.067425299</v>
+        <v>25.13741390235693</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-3814365.695007133</v>
+        <v>25.0688974576369</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>845675.0302555227</v>
+        <v>25.15235249123589</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>1477180.971243148</v>
+        <v>25.16214763435715</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>589196.9519284614</v>
+        <v>25.15096831365737</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>861187.028573773</v>
+        <v>25.15891450215669</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>1420977.810046643</v>
+        <v>25.17515368765105</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>-1134902.205711075</v>
+        <v>25.09314176058423</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>254726.9342419178</v>
+        <v>25.1370539296824</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>1219273.103647946</v>
+        <v>25.17612173801187</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-2175349.463722912</v>
+        <v>25.06717124043928</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>-528508.8504976239</v>
+        <v>25.11417698651123</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>547320.6988418922</v>
+        <v>25.15946368049189</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-2071466.634342821</v>
+        <v>25.04890535667294</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-787353.7551567138</v>
+        <v>25.1007200829351</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>875600.4576832007</v>
+        <v>25.16496706898561</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-2353846.321481206</v>
+        <v>25.04592451984038</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>197464.7799314237</v>
+        <v>25.13831831811556</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-611002.7546921584</v>
+        <v>25.1166904014115</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-435393.997909124</v>
+        <v>25.08483127070406</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>470626.8566064104</v>
+        <v>25.1669330662449</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>804352.8516646236</v>
+        <v>25.19696332990212</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-1114149.588760917</v>
+        <v>25.01789785747064</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-750342.7433028111</v>
+        <v>25.06403330109356</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-375755.678110757</v>
+        <v>25.10628325779734</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-981478.0015962215</v>
+        <v>25.07599274144626</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-403313.9539653158</v>
+        <v>25.10245265741658</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>189505.4112474734</v>
+        <v>25.14398878714474</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-1357147.795162271</v>
+        <v>25.0148298736437</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-1151411.842796464</v>
+        <v>25.03369881194699</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-944675.7019447612</v>
+        <v>25.06081799089839</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-1439534.220421371</v>
+        <v>25.02214735818444</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-692626.8698129448</v>
+        <v>25.08650838037007</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-75564.14814107567</v>
+        <v>25.15112428301064</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>-314404.6998089264</v>
+        <v>25.09433832571549</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>465068.0297804307</v>
+        <v>25.19164034936948</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>741996.7617791924</v>
+        <v>25.24086116283539</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>-865937.184093422</v>
+        <v>25.01267667113751</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>-468316.316959558</v>
+        <v>25.07538257958074</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-191672.9105822846</v>
+        <v>25.13484005928079</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>2117572.649678452</v>
+        <v>25.26241897820883</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>1038521.614927331</v>
+        <v>25.23178172700424</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>1595730.954266387</v>
+        <v>25.30473253242478</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>1721572.711558827</v>
+        <v>25.33690548121934</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>-571701.1351868103</v>
+        <v>25.08221415393347</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>1393679.624310375</v>
+        <v>25.28502930283363</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>1576562.13351117</v>
+        <v>25.31316373352533</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>-184588.4833296554</v>
+        <v>25.12090491815161</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>645311.1240686978</v>
+        <v>25.18940175480448</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>955637.2353312441</v>
+        <v>25.21392649432175</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-1073788.262188545</v>
+        <v>25.04515728155761</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>401824.3811384237</v>
+        <v>25.1770472882175</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>889751.1174228498</v>
+        <v>25.21973932480262</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>-923146.0452082929</v>
+        <v>25.0624385133597</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>1841475.188855781</v>
+        <v>25.27686926659644</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>2209734.674694516</v>
+        <v>25.32267381219828</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>1592243.002559644</v>
+        <v>25.37773027555397</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>1879439.795042951</v>
+        <v>25.43319098178337</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>2074326.292733418</v>
+        <v>25.46448176052196</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>38268.83488319721</v>
+        <v>25.1514712400213</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>1708496.708598641</v>
+        <v>25.40151671420243</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>1825712.563072928</v>
+        <v>25.42266797566665</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>2369038.846136844</v>
+        <v>25.26778729700914</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>301726.6182867462</v>
+        <v>25.17860052356762</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>870488.7205371611</v>
+        <v>25.23019571081902</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>1747177.080765397</v>
+        <v>25.31557137478883</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-971810.815762053</v>
+        <v>25.03710944466576</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>922571.1981368549</v>
+        <v>25.23428237313921</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>1422176.742548703</v>
+        <v>25.28453120696201</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>-799481.1307485403</v>
+        <v>25.07853052006382</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>336031.2280114682</v>
+        <v>25.15812897975269</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>915192.4266458167</v>
+        <v>25.20288978615925</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-1185703.761948354</v>
+        <v>25.02176054954223</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>234623.40093149</v>
+        <v>25.1520223179516</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>895105.3222259898</v>
+        <v>25.21454472340678</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>-1150866.145813145</v>
+        <v>25.03950742446506</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>1443251.278792568</v>
+        <v>25.2500854926304</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>2497079.777539299</v>
+        <v>25.33322554615245</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>1300027.864419508</v>
+        <v>25.33492522906436</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>1674891.07133244</v>
+        <v>25.38051479986907</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>2208027.559670032</v>
+        <v>25.46003611477895</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-419321.6965297088</v>
+        <v>25.08085583170674</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>1369178.659061979</v>
+        <v>25.34057458381609</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>1790779.186605197</v>
+        <v>25.39768521896237</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>2747954.254942467</v>
+        <v>25.22461017864065</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>-413594.4987564465</v>
+        <v>25.10917846417274</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>85657.62828098577</v>
+        <v>25.14642762743629</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>1220555.699000983</v>
+        <v>25.21047707135847</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>-1398872.240598967</v>
+        <v>25.04350971568979</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>604767.8537916526</v>
+        <v>25.18573849547633</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>1593832.350477328</v>
+        <v>25.23669318319387</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>-1378085.648396701</v>
+        <v>25.07762351738151</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>317036.5165142638</v>
+        <v>25.14977012082416</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>1340252.294975187</v>
+        <v>25.20006286941259</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-1643329.705269109</v>
+        <v>25.04816921590998</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>157004.2034393206</v>
+        <v>25.1412917798815</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>1320372.085551756</v>
+        <v>25.20577756215068</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>-1826874.899094059</v>
+        <v>25.04500686971857</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>1494664.993938596</v>
+        <v>25.20401020538147</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>3323709.837327347</v>
+        <v>25.2889208926061</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>1197935.007683859</v>
+        <v>25.24565327519231</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>1820864.181961859</v>
+        <v>25.29624708951151</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>2877832.407143157</v>
+        <v>25.38299089884319</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>-790854.5537694326</v>
+        <v>25.06661994060176</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>1583502.339091485</v>
+        <v>25.28397685021599</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>2384358.83283332</v>
+        <v>25.35101760660248</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-2394098.031396434</v>
+        <v>25.10223204060514</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-1962431.792074485</v>
+        <v>25.09605957463216</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-1192873.576127362</v>
+        <v>25.11666217637629</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-3153678.679287946</v>
+        <v>25.06913649703409</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-2322488.955791792</v>
+        <v>25.0867664445974</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-2229022.277127984</v>
+        <v>25.09085287838311</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-2751089.76643707</v>
+        <v>25.08425040872071</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-1000309.177499784</v>
+        <v>25.11968203255435</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-700059.7681828516</v>
+        <v>25.12176798050847</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-1408528.482378406</v>
+        <v>25.08170853581237</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-972107.9779947108</v>
+        <v>25.09955366274713</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-708959.935438277</v>
+        <v>25.10744854664224</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-1304367.767500469</v>
+        <v>25.09745599635309</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-1230019.907354675</v>
+        <v>25.08163671861779</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-731941.2126353091</v>
+        <v>25.11086923134107</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-1378881.314958632</v>
+        <v>25.08788749092488</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-225483.1422333275</v>
+        <v>25.12130592526112</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>541204.2006000688</v>
+        <v>25.15444194529733</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-1944062.237018966</v>
+        <v>25.04686361903499</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-1558661.71464628</v>
+        <v>25.0652687494758</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1358004.101352877</v>
+        <v>25.08432590678059</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-1991621.185856787</v>
+        <v>25.04853179466923</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-734595.8136595224</v>
+        <v>25.09315989443172</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-1589150.384486542</v>
+        <v>25.1045268060803</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-857873.9402780293</v>
+        <v>25.11332344852776</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-1058671.096974854</v>
+        <v>25.11618358622313</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-2716823.372298876</v>
+        <v>25.06098224605871</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-740929.5385037237</v>
+        <v>25.11393435305184</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-417978.4327193474</v>
+        <v>25.1171428298797</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-2509535.577807662</v>
+        <v>25.07167412196982</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>458428.4137779217</v>
+        <v>25.14350999295015</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>360210.7226962693</v>
+        <v>25.1397003622107</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>582228.5212658591</v>
+        <v>25.15504576656275</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>1091842.494172902</v>
+        <v>25.17492338443846</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>1191371.03343155</v>
+        <v>25.1772592100995</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-796116.6257699084</v>
+        <v>25.10419785987965</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>488876.5686169332</v>
+        <v>25.15140179164131</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>511444.674768177</v>
+        <v>25.15763540164126</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-1046571.950311147</v>
+        <v>25.09886044666799</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>389718.6565243442</v>
+        <v>25.15979655653922</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>792991.7180997895</v>
+        <v>25.18262042863002</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>-1655611.125178701</v>
+        <v>25.05475404721913</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>120916.3704472419</v>
+        <v>25.13298027586976</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>789442.2458067249</v>
+        <v>25.18294002683718</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-1686926.360130247</v>
+        <v>25.06330071954141</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>1743219.274634841</v>
+        <v>25.19827778876962</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-2727396.471672064</v>
+        <v>25.07816322071107</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-1739712.086280224</v>
+        <v>25.0967174874418</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-1557688.160025169</v>
+        <v>25.10620218940766</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-3088521.233499048</v>
+        <v>25.05691369849072</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-966210.8611806171</v>
+        <v>25.1078190625596</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-806535.6856795358</v>
+        <v>25.11635940882146</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-2779359.849923071</v>
+        <v>25.06955720744785</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>348052.3204634727</v>
+        <v>25.13825588377544</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>688932.5524938252</v>
+        <v>25.14774965549334</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>619556.7565254245</v>
+        <v>25.15768414891469</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>920009.0478912254</v>
+        <v>25.17077784433613</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>1284098.961113947</v>
+        <v>25.18836036308045</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-1482249.970820197</v>
+        <v>25.06956398970453</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-522102.3218226474</v>
+        <v>25.11629187621954</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-165248.2125368034</v>
+        <v>25.1268981220133</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-1674023.948242134</v>
+        <v>25.07199188067448</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-109991.5673998375</v>
+        <v>25.13209694006224</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>805827.8993579933</v>
+        <v>25.16796774660915</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-1803736.812003252</v>
+        <v>25.0416649315562</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-612139.8783838125</v>
+        <v>25.10676937831152</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>730830.3931289607</v>
+        <v>25.17546614060708</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-1818256.874278101</v>
+        <v>25.05261132320359</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>401999.2364827087</v>
+        <v>25.16981888826999</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>-4047393.920542468</v>
+        <v>25.08056431897063</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>-3092699.233667002</v>
+        <v>25.0924545674344</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-2350389.342981723</v>
+        <v>25.11074290492349</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-4264645.346822415</v>
+        <v>25.06628967180951</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-2020974.38305478</v>
+        <v>25.10618636412093</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-885679.7598415464</v>
+        <v>25.12299683046628</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>-4321460.150324122</v>
+        <v>25.07297188095023</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>-117050.2971702292</v>
+        <v>25.13478321981993</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>693309.1244873055</v>
+        <v>25.14501660241832</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>-198931.8774501861</v>
+        <v>25.13318921335714</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>258506.0375930699</v>
+        <v>25.14490423688657</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>782395.8870613362</v>
+        <v>25.1574947831294</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>-2055699.70346058</v>
+        <v>25.0723041994757</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>-804683.6144437061</v>
+        <v>25.10795182273869</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-328855.9450729734</v>
+        <v>25.13040958337252</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>-2449075.164759251</v>
+        <v>25.07687632772356</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>-585980.0955967774</v>
+        <v>25.12207119037207</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>747663.9370635678</v>
+        <v>25.16335096466985</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>-2430671.271386175</v>
+        <v>25.05966498426845</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-974725.9706080679</v>
+        <v>25.1057697999955</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>852896.9160819922</v>
+        <v>25.16574922292327</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-2602812.492728163</v>
+        <v>25.06178209054582</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>198644.3644435383</v>
+        <v>25.1437510539437</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-423027.3363752043</v>
+        <v>25.13081613985036</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>-370669.9621503187</v>
+        <v>25.10670110387724</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>704459.5981976129</v>
+        <v>25.18160225537472</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>1092359.218139473</v>
+        <v>25.2115308640691</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>-1214617.595157773</v>
+        <v>25.03642416732652</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>-678535.1940915309</v>
+        <v>25.09565052132884</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-212716.8661374554</v>
+        <v>25.12868257900704</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>-1010813.707235043</v>
+        <v>25.07969425081047</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>-226629.750941466</v>
+        <v>25.11360407204936</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>343044.4740022648</v>
+        <v>25.14991450239704</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-1593198.447978207</v>
+        <v>25.02227992169261</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>-1379060.526153302</v>
+        <v>25.04388346785175</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-1159948.920770922</v>
+        <v>25.07363544034226</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>-1594265.095199178</v>
+        <v>25.03578405114533</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-704312.5002409648</v>
+        <v>25.1003645449431</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-105758.8196157854</v>
+        <v>25.15507999387681</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>-257611.963858897</v>
+        <v>25.11058343208131</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>633495.5758265608</v>
+        <v>25.20269141002374</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>923172.9063154205</v>
+        <v>25.24073249376849</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>-943002.563269157</v>
+        <v>25.02772389660394</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>-505184.1240010799</v>
+        <v>25.10173643163526</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-242699.1023144953</v>
+        <v>25.14340732279663</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>2438987.906697053</v>
+        <v>25.25254971210121</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>1234511.65405702</v>
+        <v>25.22979421911065</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>1885462.518713362</v>
+        <v>25.29779787212313</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>2008994.312047977</v>
+        <v>25.32692762127122</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>-707623.2433896794</v>
+        <v>25.08878427663572</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>1696893.735057121</v>
+        <v>25.28113324807303</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>1836665.213427813</v>
+        <v>25.30190798010213</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>-255091.6710126719</v>
+        <v>25.11960018607332</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>820327.8125200372</v>
+        <v>25.19028534756015</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>1138064.517121749</v>
+        <v>25.21257809194339</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>-1258475.014622779</v>
+        <v>25.05424600216993</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>420950.4942469537</v>
+        <v>25.17091382149983</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>1026332.711762464</v>
+        <v>25.21347135694494</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>-997671.0558738197</v>
+        <v>25.07406275776092</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>2222799.159687712</v>
+        <v>25.26456147757879</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>2493808.423202764</v>
+        <v>25.3015915029496</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1777119.82371814</v>
+        <v>25.34951961215559</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>2167045.034104743</v>
+        <v>25.40957429143661</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>2321287.565960621</v>
+        <v>25.4293409149525</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>40451.74318728459</v>
+        <v>25.14936732154872</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>2049547.338343831</v>
+        <v>25.38342028390655</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>2144689.928528363</v>
+        <v>25.39250971730625</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>2721713.714851698</v>
+        <v>25.25525950385169</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>341692.2548137777</v>
+        <v>25.18508323804722</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>1064998.408214092</v>
+        <v>25.23633194379478</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>2083953.892775775</v>
+        <v>25.30811645062741</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>-1115580.556931044</v>
+        <v>25.05068180349474</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>1121497.680874273</v>
+        <v>25.23733538277931</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>1731093.238635927</v>
+        <v>25.27828472429774</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>-1015226.691471958</v>
+        <v>25.08311665164731</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>346877.78416511</v>
+        <v>25.16168904074589</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>1044987.918511328</v>
+        <v>25.20219752566032</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>-1410796.336220346</v>
+        <v>25.03515119309813</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>231327.7112400745</v>
+        <v>25.14987960328964</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>1069896.260545118</v>
+        <v>25.20980445101679</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>-1328356.007425274</v>
+        <v>25.05516384048338</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>1610532.932708335</v>
+        <v>25.2407518157322</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>2791081.422786771</v>
+        <v>25.31007267537758</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>1462186.763126777</v>
+        <v>25.31467592625835</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>1952652.955252616</v>
+        <v>25.3675520946584</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>2435105.336163542</v>
+        <v>25.42631258166348</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>-447229.6729573478</v>
+        <v>25.09138930792285</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>1673425.65292645</v>
+        <v>25.33345019429192</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>2111041.837425566</v>
+        <v>25.37422908394165</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>3277965.966808842</v>
+        <v>25.2196823923305</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>-382929.7544242734</v>
+        <v>25.12588384636123</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>375053.8555944792</v>
+        <v>25.16623573476545</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>1627534.95792346</v>
+        <v>25.21983023115778</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>-1554283.337611923</v>
+        <v>25.0579079753957</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>745626.3057750388</v>
+        <v>25.19511223434665</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>1992272.640293835</v>
+        <v>25.23709323967888</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>-1585062.858389315</v>
+        <v>25.08455890823578</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>415581.2464201734</v>
+        <v>25.15456704700863</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>1656794.380637412</v>
+        <v>25.19934733879594</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>-1906032.43651041</v>
+        <v>25.05757441458293</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>227848.2527473097</v>
+        <v>25.14090902679552</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>1517984.595735206</v>
+        <v>25.2010034677231</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>-1996538.733466016</v>
+        <v>25.06201716274714</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>1874269.498746949</v>
+        <v>25.20317058412478</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>3860001.622617927</v>
+        <v>25.27500892389954</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>1506540.120695506</v>
+        <v>25.24209043540473</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>2297899.171746016</v>
+        <v>25.29741683175745</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>3307202.759840322</v>
+        <v>25.36288135892493</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>-858357.0541195741</v>
+        <v>25.07957193021164</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>2023763.971661446</v>
+        <v>25.28277811963186</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>2826792.10412698</v>
+        <v>25.3321529712584</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>-2474518.772875889</v>
+        <v>25.09740012167396</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>-1570654.5054128</v>
+        <v>25.1169544358304</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>747207.2734045943</v>
+        <v>25.14439948542289</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-3656309.111598177</v>
+        <v>25.0577936094344</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-1831315.515340585</v>
+        <v>25.10311144688149</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-1342403.510642416</v>
+        <v>25.11244817133272</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>-3620832.94705523</v>
+        <v>25.07201645176313</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>1597635.263028836</v>
+        <v>25.16340263201539</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>2561012.119741608</v>
+        <v>25.17123782542687</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>-651498.1942055798</v>
+        <v>25.12639196090091</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>-246419.1843106921</v>
+        <v>25.14048348145145</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>-159282.6007075256</v>
+        <v>25.14697635130728</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>-1674824.056493724</v>
+        <v>25.08471136763296</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>-865273.1854798328</v>
+        <v>25.1122215389588</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>635506.7407981885</v>
+        <v>25.15925036347184</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>-1449512.542587663</v>
+        <v>25.09118562914557</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>-116744.1809104355</v>
+        <v>25.13286088508417</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>421771.6699095702</v>
+        <v>25.1507864612873</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-2132281.108833664</v>
+        <v>25.03783647292482</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>-1422687.079214651</v>
+        <v>25.07659818333268</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-1256211.350985978</v>
+        <v>25.07253559133243</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-2263642.717989456</v>
+        <v>25.03672606531281</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-392350.464246151</v>
+        <v>25.11930921106594</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-899681.0323572753</v>
+        <v>25.1153541026901</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>888249.4365100762</v>
+        <v>25.15573709495535</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>1064320.402583681</v>
+        <v>25.16199646140652</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>-3078880.745724594</v>
+        <v>25.07075611701975</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>1132896.08269817</v>
+        <v>25.16246597780471</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>1268702.881921812</v>
+        <v>25.16565121262102</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>-3029498.945301308</v>
+        <v>25.07788657596808</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>3666173.576255682</v>
+        <v>25.21412512378982</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>3597196.767957137</v>
+        <v>25.2112497078125</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>2508131.945396761</v>
+        <v>25.23927463965064</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>2906629.628019557</v>
+        <v>25.25344206510616</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>3074438.008895353</v>
+        <v>25.25324530819167</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>-663419.554513481</v>
+        <v>25.11250022660135</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>2738139.41250489</v>
+        <v>25.21921782441443</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>2945727.141094434</v>
+        <v>25.23930707184452</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>-788824.2887308195</v>
+        <v>25.10671748944616</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>688459.8869504723</v>
+        <v>25.18081825667084</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>767714.8696204344</v>
+        <v>25.18187907056103</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>-1860535.592830758</v>
+        <v>25.0516628917288</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>512991.4632445375</v>
+        <v>25.16351302138896</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>608470.9297018386</v>
+        <v>25.1782586353822</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>-1954101.489016781</v>
+        <v>25.05576220295471</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>2198905.180330188</v>
+        <v>25.23894600949557</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-3341269.398679181</v>
+        <v>25.08645497586734</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>-471147.7792224913</v>
+        <v>25.13484773403916</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>329090.3458978564</v>
+        <v>25.14834558102222</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>-3364082.643312677</v>
+        <v>25.06712862965035</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>905820.7698506112</v>
+        <v>25.15446434328332</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>1180273.503479641</v>
+        <v>25.16385173380698</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>-3103591.724168662</v>
+        <v>25.07764937487058</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>3794018.497076827</v>
+        <v>25.20697595996602</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>4060843.107898266</v>
+        <v>25.21738392902874</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>3224230.927537068</v>
+        <v>25.24478972875015</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>3346760.484378411</v>
+        <v>25.25265921916563</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>3743787.060491047</v>
+        <v>25.26860442766204</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>-2098502.843706788</v>
+        <v>25.07640977845329</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>901369.9594024046</v>
+        <v>25.18029352167311</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>1502050.188622202</v>
+        <v>25.20423919485055</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>-1488570.829896025</v>
+        <v>25.08259734536484</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>519920.6892878884</v>
+        <v>25.15435727434353</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>820541.6747403007</v>
+        <v>25.16963615308062</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-1886694.733379256</v>
+        <v>25.04440051421913</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>202670.7205877796</v>
+        <v>25.14094880422383</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>937356.0774294599</v>
+        <v>25.17566837997217</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>-1843199.545313769</v>
+        <v>25.05206677608083</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>1637246.973287563</v>
+        <v>25.21319149220883</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>-4895117.702431731</v>
+        <v>25.08428682457481</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>-2264646.875342502</v>
+        <v>25.11901635868047</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>236775.0107666041</v>
+        <v>25.14622524280502</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-4747791.662333068</v>
+        <v>25.07034002318958</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>-1629156.280295531</v>
+        <v>25.13509972582889</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>2146833.032065305</v>
+        <v>25.16276790575622</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>-4914496.547389638</v>
+        <v>25.07505273685891</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>3838240.282675642</v>
+        <v>25.18636199764078</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>5514648.52236566</v>
+        <v>25.20290218428909</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>3215646.160409945</v>
+        <v>25.19750075605955</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>3755354.24496536</v>
+        <v>25.20951718927871</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>4582127.184798508</v>
+        <v>25.22625503956909</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>-2879654.316507574</v>
+        <v>25.07191298657011</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>908027.4464028475</v>
+        <v>25.15231297366513</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>2378569.983678092</v>
+        <v>25.19676684011047</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>-2514007.99321109</v>
+        <v>25.07612739877833</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>45036.97912587943</v>
+        <v>25.12791108780817</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>796394.3982445591</v>
+        <v>25.15819171208027</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>-2641557.568946487</v>
+        <v>25.05041968407684</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>-435375.1983519588</v>
+        <v>25.11532246352524</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>1014711.24598983</v>
+        <v>25.15924419535886</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>-2850124.025788249</v>
+        <v>25.04886608123324</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>1260533.857915695</v>
+        <v>25.16315991098714</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-337049.8195900943</v>
+        <v>25.13896425888084</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>-321851.051641852</v>
+        <v>25.11822490352159</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>550667.9629631392</v>
+        <v>25.17762358829416</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>860074.2602689214</v>
+        <v>25.18343397930894</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>-1186839.914156469</v>
+        <v>25.04034282609894</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>-590786.9604449421</v>
+        <v>25.08760356520913</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-180164.4152167808</v>
+        <v>25.12698181825032</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>-1383814.133725044</v>
+        <v>25.08051279199076</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>-399049.6373029104</v>
+        <v>25.11539207440262</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>451752.5885067609</v>
+        <v>25.15440052728197</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-1693678.296011132</v>
+        <v>25.01843717644886</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>-1278442.819306964</v>
+        <v>25.06189540620876</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-920686.8389418665</v>
+        <v>25.08108974105851</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>-1740143.566662604</v>
+        <v>25.02781505683881</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-429778.2800500865</v>
+        <v>25.12160831649792</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>884476.7176013964</v>
+        <v>25.18381481214601</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>-85870.33986571366</v>
+        <v>25.13350587533321</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>927582.9372206412</v>
+        <v>25.21007492107567</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>1237023.914062539</v>
+        <v>25.25656063637089</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>-1032468.193680924</v>
+        <v>25.02344216353985</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>-381416.568442164</v>
+        <v>25.10237377245072</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>252753.501173857</v>
+        <v>25.16820710721632</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>2572194.342814534</v>
+        <v>25.26675665658151</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>1571832.935026543</v>
+        <v>25.2620126014746</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>2097778.863438939</v>
+        <v>25.31050387750008</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>1946727.156936086</v>
+        <v>25.3089874253226</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-612777.5987518628</v>
+        <v>25.08976436729143</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>1746297.724806654</v>
+        <v>25.28687316290244</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>1896397.145332413</v>
+        <v>25.30357725194441</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>-455738.1530009526</v>
+        <v>25.11370495998633</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>831923.8039061988</v>
+        <v>25.19070705402298</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>1067529.489903031</v>
+        <v>25.2051717414807</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>-1440393.958149329</v>
+        <v>25.04495950867711</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>895399.480149891</v>
+        <v>25.19996033503703</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>1018825.683581897</v>
+        <v>25.21531220225044</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>-1437351.818786934</v>
+        <v>25.0570466962657</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>2428463.885723084</v>
+        <v>25.28883431491531</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>2586962.947867367</v>
+        <v>25.31735422047362</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>2097106.646219227</v>
+        <v>25.37935087756829</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>2344031.25383513</v>
+        <v>25.4198120283108</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>2470763.221604962</v>
+        <v>25.44523031830619</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>-433080.9639451869</v>
+        <v>25.12468790319484</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>2074976.820057227</v>
+        <v>25.3877274168781</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>2158408.009367796</v>
+        <v>25.4033627830672</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>2894311.630768464</v>
+        <v>25.27322557397452</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>1200395.620076465</v>
+        <v>25.22688194270927</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>1677602.4668878</v>
+        <v>25.25913645087363</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>2042041.253565489</v>
+        <v>25.30150427073858</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-1022386.734245245</v>
+        <v>25.05534044434513</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>1441523.093611464</v>
+        <v>25.24700632582372</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>1843875.903274881</v>
+        <v>25.28279036256396</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>-1190856.433692368</v>
+        <v>25.07647974681144</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>540980.5602967372</v>
+        <v>25.16021092021232</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>1091206.937554595</v>
+        <v>25.1933681581459</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>-1528763.205964261</v>
+        <v>25.02692463533704</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>594061.7515515327</v>
+        <v>25.17797736223676</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>1150276.449163014</v>
+        <v>25.21107761051273</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-1441330.664844863</v>
+        <v>25.04113682371354</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>2059797.725820759</v>
+        <v>25.26447685226034</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>3040009.630142222</v>
+        <v>25.32493937902414</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>1917602.750304888</v>
+        <v>25.34863408712987</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>2305566.993880518</v>
+        <v>25.38284955646582</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>2745773.306765634</v>
+        <v>25.44854552658614</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>-789988.4960957605</v>
+        <v>25.06535136012258</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>1861412.584277854</v>
+        <v>25.33742020577149</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>2236822.496708793</v>
+        <v>25.38323038057743</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>3421110.552439397</v>
+        <v>25.22487465472256</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>10221.53517430401</v>
+        <v>25.13680986510839</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>662267.2869047746</v>
+        <v>25.16775122473591</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>1442138.281392455</v>
+        <v>25.20246899284388</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>-1690675.114730692</v>
+        <v>25.04791990383447</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>-54372.04191078147</v>
+        <v>25.18119515217252</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>2096181.797994485</v>
+        <v>25.23472819619871</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>-2056660.105110411</v>
+        <v>25.07056334671394</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>415471.2675196343</v>
+        <v>25.14189154108262</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>1561031.810058853</v>
+        <v>25.18937580512147</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-2188637.572760211</v>
+        <v>25.04136795828806</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>257647.0220778733</v>
+        <v>25.14738417320891</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>1560314.270020772</v>
+        <v>25.19965159279976</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>-2381753.6007256</v>
+        <v>25.0405573777042</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>1872484.764482622</v>
+        <v>25.20871579036685</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>4019482.320027362</v>
+        <v>25.28431182934091</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>1608608.194302339</v>
+        <v>25.25455604823977</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>2404915.112392723</v>
+        <v>25.29895435195604</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>3644214.774872679</v>
+        <v>25.37579399777773</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>-1278177.935146111</v>
+        <v>25.04820850492863</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>2026349.977757504</v>
+        <v>25.26932328491236</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>3110375.463196193</v>
+        <v>25.34339709427228</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test4/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.679</v>
+        <v>0.656</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.943</v>
+        <v>15.477</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.159</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.754</v>
+        <v>11.709</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.964</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.218</v>
+        <v>1.214</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>25.09581985938447</v>
+        <v>12.25199554807964</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.08953578021865</v>
+        <v>11.20891369505123</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25.11954634643609</v>
+        <v>23.38728697669699</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.07166699590606</v>
+        <v>3.33612494526151</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.10899830196163</v>
+        <v>18.96191990052205</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.11207622603028</v>
+        <v>22.87099146918498</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>25.08411470996122</v>
+        <v>6.582422231963708</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.1358374211382</v>
+        <v>33.79924391025369</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25.13719014603499</v>
+        <v>34.15984068137958</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25.0868042931783</v>
+        <v>12.52334111973611</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>25.10305017598849</v>
+        <v>15.43330778482151</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>25.11073076449467</v>
+        <v>15.89894501456316</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>25.12355646412753</v>
+        <v>22.85995481711984</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.09426968590605</v>
+        <v>19.6436300801597</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>25.14248342909082</v>
+        <v>35.20974874936904</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>25.09520537892534</v>
+        <v>13.09925290498323</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.12873383563189</v>
+        <v>24.34097066467147</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>25.16249535854718</v>
+        <v>36.32597473843852</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>25.06399706991184</v>
+        <v>7.991046927832286</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>25.09290999600823</v>
+        <v>14.84748743694337</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>25.100980104035</v>
+        <v>17.86605919231365</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>25.05177615911909</v>
+        <v>3.10529664257858</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25.11476230078789</v>
+        <v>19.40711961445987</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>25.10611664646908</v>
+        <v>20.15782831261322</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25.11559569826589</v>
+        <v>23.63180181844212</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25.12186352498383</v>
+        <v>24.5162185772871</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>25.0652277938529</v>
+        <v>3.679789175666514</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>25.14008460320403</v>
+        <v>30.39059763934391</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25.13810267796491</v>
+        <v>31.5194329365032</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>25.07371622245919</v>
+        <v>7.500487053775693</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>25.16430110577354</v>
+        <v>38.10542054131853</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>25.15471492394149</v>
+        <v>36.98559140220421</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>25.17041702516553</v>
+        <v>38.85756422335972</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>25.18522891814333</v>
+        <v>41.65112141981143</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>25.18839676437308</v>
+        <v>42.88518436505999</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>25.13536757069429</v>
+        <v>32.1990119004544</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>25.16730809469536</v>
+        <v>40.0709655416838</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>25.18643421947634</v>
+        <v>42.63586547229656</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>25.11155044448201</v>
+        <v>20.3149136598167</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>25.17250417070654</v>
+        <v>33.25056604700281</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>25.18708520859398</v>
+        <v>36.70258546865466</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>25.07108784810742</v>
+        <v>8.358717855355469</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>25.16144783915306</v>
+        <v>35.3376537792639</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>25.19662756165423</v>
+        <v>42.22384311354843</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>25.22543872380304</v>
+        <v>51.75317123606358</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>25.08276534558529</v>
+        <v>6.89985575503496</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.1066693417254</v>
+        <v>18.26731795682297</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>25.11709833566824</v>
+        <v>22.7260257267492</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>25.06479146149937</v>
+        <v>1.799477888920038</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>25.14048126695888</v>
+        <v>29.07503407974816</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>25.14111815217242</v>
+        <v>30.68798925346663</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>25.07647935399266</v>
+        <v>6.848290405709875</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>25.16824984720762</v>
+        <v>40.63543400399089</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>25.16947573163641</v>
+        <v>43.16245714057371</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>25.17963644961965</v>
+        <v>44.04544066016058</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>25.18840790220363</v>
+        <v>45.50559155663254</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>25.20707122614569</v>
+        <v>52.1476042014128</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>25.10373619037217</v>
+        <v>16.34258381100092</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>25.14061135257141</v>
+        <v>31.23823759240958</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>25.16087301684064</v>
+        <v>37.08515795884534</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>25.08730875177616</v>
+        <v>11.53563993230219</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>25.15207225060285</v>
+        <v>30.48508510353361</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>25.17606215300304</v>
+        <v>35.5796256805953</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>25.06044610729366</v>
+        <v>8.532190944451031</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>25.14047734414216</v>
+        <v>28.16037618294443</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.19140890947774</v>
+        <v>40.660462528523</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>25.06020168258193</v>
+        <v>5.197723384073964</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>25.20617503740781</v>
+        <v>44.60928793767722</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>25.0802142760569</v>
+        <v>4.677478819731078</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>25.097781637183</v>
+        <v>11.37288868913254</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>25.1203711865476</v>
+        <v>19.83883976511344</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>25.07332956510048</v>
+        <v>2.424365209828281</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>25.1363012272427</v>
+        <v>27.5943448801818</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>25.14835236630279</v>
+        <v>33.79815673143926</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>25.07748846834965</v>
+        <v>2.851025998113236</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>25.16167672315466</v>
+        <v>39.35609682383543</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>25.16673325051262</v>
+        <v>41.34829177742029</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>25.15119365388183</v>
+        <v>39.94523649406956</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>25.1616835387604</v>
+        <v>41.38406735773778</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>25.17411440862239</v>
+        <v>47.68160208022793</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>25.1015738272652</v>
+        <v>14.61839688970472</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>25.13186812351635</v>
+        <v>25.09508894454127</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>25.16855421752664</v>
+        <v>38.98890938080879</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>25.08481839970286</v>
+        <v>8.299549444477169</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>25.13639320505217</v>
+        <v>26.43774052304272</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>25.17175163669502</v>
+        <v>33.86315976988983</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>25.07508557744654</v>
+        <v>8.46001828587503</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>25.13654215585142</v>
+        <v>27.42634778130488</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>25.18312778415021</v>
+        <v>41.28354772331632</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>25.06443762194133</v>
+        <v>2.224123463166837</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>25.17334076699523</v>
+        <v>38.99093089739424</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25.14732508024543</v>
+        <v>24.48400336909745</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>25.11569571751962</v>
+        <v>20.82800624186497</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>25.19497789178099</v>
+        <v>41.78655927617744</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>25.21589666853965</v>
+        <v>46.6647172708948</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>25.0533665977423</v>
+        <v>7.190813992063095</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>25.10860442574904</v>
+        <v>16.16856713573549</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>25.13767885176131</v>
+        <v>24.56053617924519</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>25.08316738723227</v>
+        <v>12.07255032663474</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>25.11113152045133</v>
+        <v>20.24214341039226</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>25.1563351269384</v>
+        <v>33.15162070766958</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>25.04295018887548</v>
+        <v>7.825917365927573</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>25.07093705930309</v>
+        <v>13.00141239939687</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>25.09632425762377</v>
+        <v>17.51911844103411</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>25.03222417205628</v>
+        <v>3.084483920667026</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>25.11012600392878</v>
+        <v>18.32779956620144</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>25.17379140590833</v>
+        <v>32.99507718545993</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>25.11731202492386</v>
+        <v>21.13893904515317</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>25.218232634061</v>
+        <v>46.45455821699964</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>25.25604544062224</v>
+        <v>53.4132572579344</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>25.02505981094887</v>
+        <v>5.713638890389486</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>25.10249040759751</v>
+        <v>18.32235915675403</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>25.15674136346878</v>
+        <v>27.23822669559164</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>25.26787667659342</v>
+        <v>60.49106892947839</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>25.25104780461406</v>
+        <v>54.15035883496753</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>25.31273028820312</v>
+        <v>65.68993320751628</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>25.33479094241457</v>
+        <v>69.14113863144978</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>25.11028256583425</v>
+        <v>20.53173968894271</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>25.29820624420601</v>
+        <v>60.13582656273333</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>25.30767740491355</v>
+        <v>62.76975310976539</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>25.12398657511578</v>
+        <v>24.60709705604799</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>25.19043482300774</v>
+        <v>38.576363436335</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>25.21371171391245</v>
+        <v>44.63754130764342</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>25.06656741118124</v>
+        <v>9.469931961747854</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>25.19546696285819</v>
+        <v>41.30618971250045</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>25.22808700901633</v>
+        <v>48.76718655506387</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>25.06282867504768</v>
+        <v>6.49298705008782</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>25.27541575222286</v>
+        <v>62.22025599796936</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>25.31524777887083</v>
+        <v>72.03641274747841</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>25.36715802757179</v>
+        <v>70.55895721372124</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>25.42220889935128</v>
+        <v>81.83513346043492</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>25.44225378288762</v>
+        <v>88.04249439112826</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>25.1382797458124</v>
+        <v>26.6399858648443</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>25.38048763959931</v>
+        <v>76.63306195606839</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>25.39412059147934</v>
+        <v>78.10407953683357</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>25.27628562192888</v>
+        <v>64.71154191809082</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>25.20961682051555</v>
+        <v>41.54325808965423</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>25.25277976945634</v>
+        <v>50.57891870910255</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>25.32016208115589</v>
+        <v>67.06344185374417</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>25.07515829395657</v>
+        <v>11.54898811220963</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.26257150526113</v>
+        <v>51.99464653207701</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>25.08947162224312</v>
+        <v>14.88126309267204</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>25.16873399832641</v>
+        <v>33.38433677040244</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>25.20655396215713</v>
+        <v>43.25969225009319</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>25.04918277471099</v>
+        <v>9.141232585436605</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>25.17924074608823</v>
+        <v>37.45036164351311</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>25.2254736487631</v>
+        <v>47.925789829459</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>25.04728683136995</v>
+        <v>6.313668865019345</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>25.25989493658995</v>
+        <v>57.36247956912406</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>25.32813711543773</v>
+        <v>76.31881732787714</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>25.33622439190016</v>
+        <v>65.84319126774176</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.38264326646071</v>
+        <v>75.80636376186692</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>25.44209195639265</v>
+        <v>89.42867201606545</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>25.08304616765475</v>
+        <v>15.68785871352884</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>25.33775577924103</v>
+        <v>65.15534375834289</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>25.37928411944789</v>
+        <v>74.92220477501412</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>25.23854603235347</v>
+        <v>57.51306568793683</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>25.14053070150979</v>
+        <v>25.49108757592589</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>25.17833967611045</v>
+        <v>32.94519883316504</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>25.22877020715391</v>
+        <v>47.81180870524072</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>25.07793904435706</v>
+        <v>8.461297178329982</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>25.22201463997636</v>
+        <v>46.01047008420714</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>25.25436018778062</v>
+        <v>54.60211267190857</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>25.08870619189466</v>
+        <v>11.81713089331065</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>25.16015416721644</v>
+        <v>31.85089921093756</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>25.20753309736361</v>
+        <v>45.85350892684237</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>25.07462982720379</v>
+        <v>9.380819097724888</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>25.17004488394183</v>
+        <v>35.78810281366722</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>25.22268019198868</v>
+        <v>51.70294230479921</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>25.05529179455322</v>
+        <v>3.023777198934205</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>25.21922746175227</v>
+        <v>51.49489765909004</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>25.29347483282351</v>
+        <v>74.87345114475659</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>25.25791693900909</v>
+        <v>56.53158564636064</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>25.31535804328032</v>
+        <v>68.58279746598112</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>25.38316319455986</v>
+        <v>89.00136652115245</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>25.08163957203886</v>
+        <v>13.0656690851567</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>25.29763340950889</v>
+        <v>62.36270556700696</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>25.35295721727634</v>
+        <v>77.5202376802329</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>25.09698670977981</v>
+        <v>18.96130323994167</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>25.16128334549725</v>
+        <v>27.08914094547427</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>25.20700522911728</v>
+        <v>45.16003518962523</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>25.05147195576615</v>
+        <v>4.163571421678711</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>25.19003788526241</v>
+        <v>36.09420236781202</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>25.21202739537492</v>
+        <v>43.5245485520492</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>25.07830744445351</v>
+        <v>7.971255089124028</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>25.29562656802138</v>
+        <v>70.92364873381857</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>25.31118644048118</v>
+        <v>74.60689268650344</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>25.20409130521078</v>
+        <v>30.18019242444392</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>25.23740839253088</v>
+        <v>33.56752659306153</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>25.25240656929144</v>
+        <v>34.87656699601401</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>25.11433789581018</v>
+        <v>20.70712446342441</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>25.15367832591836</v>
+        <v>29.93049698011768</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>25.26398678618944</v>
+        <v>58.92645552967437</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>25.09464582563976</v>
+        <v>18.20668439679148</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>25.16762755436167</v>
+        <v>37.46909080016669</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>25.18573779585757</v>
+        <v>39.42723199188035</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.00127270819073</v>
+        <v>2.938116260127718</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>25.11445995392176</v>
+        <v>18.41552291558022</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>25.10932840649421</v>
+        <v>23.44542746028779</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>25.0162701412183</v>
+        <v>6.0138688414937</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>25.20252508346513</v>
+        <v>37.2610855521069</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>25.13952865251586</v>
+        <v>34.6493803362145</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>25.23054916296883</v>
+        <v>49.99882832610534</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>25.23789972860014</v>
+        <v>49.52997334572258</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>25.07088542028153</v>
+        <v>4.802336644074334</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>25.26922105572787</v>
+        <v>51.66402005345292</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>25.26761096226972</v>
+        <v>52.0106399206272</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>25.09005889869187</v>
+        <v>8.346838216040425</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>25.36681396757036</v>
+        <v>78.03957979291637</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>25.35395306817864</v>
+        <v>74.0247158092958</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>25.37041721023948</v>
+        <v>64.75124776563069</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>25.40123337827199</v>
+        <v>73.63860526574385</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>25.39111220485734</v>
+        <v>72.23682574576165</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>25.15433323086211</v>
+        <v>34.21215882478452</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>25.28790236848702</v>
+        <v>63.23295724366024</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>25.34031508815197</v>
+        <v>69.03715796706766</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>25.13177422982947</v>
+        <v>27.75451812525828</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>25.24165541799715</v>
+        <v>44.32649018141971</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>25.22633979082618</v>
+        <v>43.81867892276728</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>25.01673528764303</v>
+        <v>2.90710309471201</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>25.22039413290154</v>
+        <v>37.56149207726479</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>25.22088631228128</v>
+        <v>41.09442349584886</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>25.03949401753965</v>
+        <v>6.283674763244406</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>25.35063558329508</v>
+        <v>63.04608811881507</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>25.08742253470277</v>
+        <v>7.8928667199906</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>25.19090174396135</v>
+        <v>31.94388827118406</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>25.20381291923286</v>
+        <v>39.05345451511972</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>25.05808349615626</v>
+        <v>3.460466823057644</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>25.25299618776178</v>
+        <v>51.21870639089417</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>25.25298061984835</v>
+        <v>50.73338602712855</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>25.07775823584088</v>
+        <v>5.663552270150799</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>25.34687192774986</v>
+        <v>74.60599698905622</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>25.34540446848017</v>
+        <v>73.41805855141151</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>25.38201760063247</v>
+        <v>82.78230714526114</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>25.40917747444896</v>
+        <v>92.41655192949864</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>25.40845126611793</v>
+        <v>83.85270220388318</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>25.09190330193958</v>
+        <v>4.700725251956563</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>25.23349705809899</v>
+        <v>36.97782748314322</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>25.28370091223388</v>
+        <v>48.2874219737243</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>25.08744065182262</v>
+        <v>18.05707703467288</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>25.19986962311842</v>
+        <v>42.21734627588162</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>25.19802892880146</v>
+        <v>42.09381249618441</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>25.00397070205815</v>
+        <v>3.114931872445958</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>25.1937136907402</v>
+        <v>37.60791393903048</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>25.21167042382498</v>
+        <v>42.22348567475281</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.02623157383502</v>
+        <v>6.492931083811463</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>25.31423728648975</v>
+        <v>61.40679934905688</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>25.07713684026606</v>
+        <v>6.758486539900115</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>25.16155409904077</v>
+        <v>26.91727771640408</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>25.19590731041998</v>
+        <v>40.91474738706005</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>25.07188596319377</v>
+        <v>4.582657431210691</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>25.23323035791345</v>
+        <v>52.37332331639523</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>25.25951499082394</v>
+        <v>58.54041618098918</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>25.07927603805635</v>
+        <v>4.878739343113807</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>25.31657985763923</v>
+        <v>78.80422336335658</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>25.32847983027498</v>
+        <v>78.88791245334106</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>25.31527600860192</v>
+        <v>76.57370530093309</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>25.3480718199923</v>
+        <v>83.8479140653513</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>25.3565674872228</v>
+        <v>85.93866984785254</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>25.08561097001399</v>
+        <v>6.002935080416702</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>25.20688233813555</v>
+        <v>37.77837920780504</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>25.28786338218638</v>
+        <v>54.47699131179547</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>25.07799734250378</v>
+        <v>12.13218864257405</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>25.17036363020628</v>
+        <v>39.85161045415136</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>25.19340428426522</v>
+        <v>43.37620931455307</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>25.03284337559263</v>
+        <v>3.053467165278285</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>25.18333869984567</v>
+        <v>36.02560337860636</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>25.21808040512001</v>
+        <v>44.36498148987975</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>25.03796537694118</v>
+        <v>5.442098927419032</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>25.2647254659216</v>
+        <v>56.74573173656517</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>25.22215544566231</v>
+        <v>36.97312521506156</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>25.1777235807395</v>
+        <v>31.52204766662718</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>25.26123754365564</v>
+        <v>45.76126245740991</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>25.28075839587195</v>
+        <v>52.6591106740179</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>25.05294331461746</v>
+        <v>13.79411438080679</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>25.17391365923</v>
+        <v>31.74031151107374</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>25.22562740439218</v>
+        <v>40.4490391049956</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>25.08623463255052</v>
+        <v>13.67861886215226</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>25.16331765489041</v>
+        <v>32.11344697790233</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>25.20400525932851</v>
+        <v>41.27142449182596</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>24.98748055931629</v>
+        <v>3.389316253306035</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>25.11276357122467</v>
+        <v>15.43897974487416</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>25.1321231345131</v>
+        <v>27.59459312173144</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>25.01111080930576</v>
+        <v>7.127521389209093</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>25.23207096824554</v>
+        <v>38.49241111062344</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>25.30637793459104</v>
+        <v>63.27061030140922</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>25.22332911278455</v>
+        <v>36.24252679714741</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>25.31018425055699</v>
+        <v>57.98809476837047</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>25.35828999245485</v>
+        <v>65.24235318871268</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>25.03772234962711</v>
+        <v>11.83797398027398</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>25.1829652693088</v>
+        <v>33.19618760766165</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>25.27927722046324</v>
+        <v>49.09980716056972</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>25.36372824679935</v>
+        <v>69.41283345702998</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>25.37514882814937</v>
+        <v>65.61484787745481</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>25.43692012351161</v>
+        <v>73.83019746952985</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>25.42926937156984</v>
+        <v>75.23198728640062</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>25.11603156883389</v>
+        <v>27.18650283327369</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>25.41804331675817</v>
+        <v>68.60859733530899</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>25.41003959590722</v>
+        <v>69.23254765268457</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>25.12986286088784</v>
+        <v>29.13459560853568</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>25.2560376882735</v>
+        <v>45.99609964792798</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>25.24779508871969</v>
+        <v>45.75807344239958</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>25.00139298335045</v>
+        <v>2.869768540023532</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>25.26511921106806</v>
+        <v>46.13745131257187</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>25.25577498310111</v>
+        <v>45.06815405259123</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>25.02785640829836</v>
+        <v>4.382403015308864</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>25.42049578049988</v>
+        <v>70.50657114832913</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>25.42928912881037</v>
+        <v>72.03630644290558</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>25.52156499719939</v>
+        <v>76.40177828482319</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>25.55323450948405</v>
+        <v>81.48796292033306</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>25.55041019827352</v>
+        <v>81.52496502083514</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>25.14859352946576</v>
+        <v>29.06746142283952</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>25.51822656280133</v>
+        <v>77.19379659042821</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>25.51559816966178</v>
+        <v>79.3086623255827</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>25.36033312580341</v>
+        <v>67.50551419035611</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>25.34377345833771</v>
+        <v>62.04139966088069</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>25.39241686182129</v>
+        <v>72.45216593750851</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>25.42501044015876</v>
+        <v>73.12862308348318</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>25.06120774755433</v>
+        <v>15.5132399125116</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>25.37237326285094</v>
+        <v>65.61291664870765</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>25.38008893732921</v>
+        <v>66.08525780146306</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>25.07078722153733</v>
+        <v>16.36125471167432</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>25.21162575939484</v>
+        <v>40.98383176126897</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>25.21967010792274</v>
+        <v>42.02060815640544</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>24.97844706592069</v>
+        <v>2.698272782761229</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>25.24396850667425</v>
+        <v>46.7407742526771</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>25.24642689645432</v>
+        <v>43.87160120374656</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>25.00177878868258</v>
+        <v>5.765303969904071</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>25.38901330216733</v>
+        <v>71.3247850361839</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>25.42654234138868</v>
+        <v>72.93428778464855</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>25.5036206811734</v>
+        <v>80.06631468249741</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>25.53366041776936</v>
+        <v>85.53749132489546</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>25.56423893938643</v>
+        <v>86.17755585908496</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>25.0660685154224</v>
+        <v>11.16922335198293</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>25.46878139492085</v>
+        <v>77.14260640582708</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>25.49055899386586</v>
+        <v>79.09095942675192</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>25.32066219319425</v>
+        <v>70.38748341818196</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>25.23656689207841</v>
+        <v>40.69266686092151</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>25.29159915850363</v>
+        <v>53.13977308650385</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>25.32247006486601</v>
+        <v>60.84009140881705</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>25.06362144638054</v>
+        <v>11.13631920734766</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>25.31346200695802</v>
+        <v>64.11072612405999</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>25.35688383096775</v>
+        <v>69.85420598639088</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>25.05953361653313</v>
+        <v>10.17800932218865</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>25.18915421100002</v>
+        <v>41.38427458151155</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>25.22269933910956</v>
+        <v>45.58541068632708</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>25.01580701554312</v>
+        <v>2.449396784236146</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>25.22588049197513</v>
+        <v>43.58300901062685</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>25.2592488591342</v>
+        <v>49.36449588158659</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>25.01501671632541</v>
+        <v>3.250125876115177</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>25.3300380081641</v>
+        <v>66.6889266913507</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>25.394051236481</v>
+        <v>74.60501058323857</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>25.39647813964263</v>
+        <v>71.48268947127937</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>25.44678996166879</v>
+        <v>79.97165867685757</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>25.50053030309355</v>
+        <v>86.48913401417687</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>25.05103802119041</v>
+        <v>8.06097605805672</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>25.40379191999525</v>
+        <v>74.54172311029268</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>25.4708373742765</v>
+        <v>81.25113431252328</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>25.10222540964046</v>
+        <v>13.15778876775845</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>25.09529449811784</v>
+        <v>14.01351362388495</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>25.12254415694452</v>
+        <v>21.6494357425344</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>25.06384907697623</v>
+        <v>2.784800187635973</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>25.09597008876042</v>
+        <v>12.74761248975964</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>25.09935355779072</v>
+        <v>14.52128918726322</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>25.08225061489733</v>
+        <v>7.961242772348097</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>25.13193427192386</v>
+        <v>26.1460713427196</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>25.1338036751575</v>
+        <v>27.33899317360837</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>25.08800850981846</v>
+        <v>13.7510620735814</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>25.1044074461281</v>
+        <v>17.88286083460103</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>25.11311713674543</v>
+        <v>19.49173905349857</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>25.12491493466674</v>
+        <v>21.32362764851819</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>25.1059873776844</v>
+        <v>20.76534612638632</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>25.15629078960499</v>
+        <v>32.93701087756559</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>25.08006223670917</v>
+        <v>10.72725426690446</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>25.1100037111634</v>
+        <v>22.44780800581711</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>25.14801375539185</v>
+        <v>33.28005390218635</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>25.03558913735427</v>
+        <v>2.210543329953545</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>25.05282754090171</v>
+        <v>6.81267169429805</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>25.06775039356804</v>
+        <v>8.683085083751852</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>25.03140685463867</v>
+        <v>2.403536270893156</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>25.07480283645692</v>
+        <v>14.48291282360746</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>25.10767410751358</v>
+        <v>17.80380828314102</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>25.11930519182521</v>
+        <v>21.95115180730567</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>25.12409799809005</v>
+        <v>21.90510779705181</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>25.05554354131129</v>
+        <v>2.854717901485291</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>25.13144393155188</v>
+        <v>24.39349921467461</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>25.13298061251644</v>
+        <v>26.23263108413915</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>25.0696763136938</v>
+        <v>7.65926587775072</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>25.16453560338177</v>
+        <v>34.46074757602022</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>25.15924355958771</v>
+        <v>34.31484518716303</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>25.18171674785071</v>
+        <v>38.27316658664058</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>25.20063240466983</v>
+        <v>43.07537605725322</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>25.20475780887483</v>
+        <v>44.86676195396488</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>25.13948002039815</v>
+        <v>28.10604943968461</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>25.19762004961602</v>
+        <v>45.09656815286429</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>25.21987200125284</v>
+        <v>46.70948411353049</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>25.09307622270806</v>
+        <v>14.25590270158672</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>25.15463422544698</v>
+        <v>30.70676978645243</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>25.17897693150552</v>
+        <v>36.97502099886562</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>25.04304717686361</v>
+        <v>2.535297325657336</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>25.13091203051073</v>
+        <v>29.33471474109237</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>25.18337161225823</v>
+        <v>40.28899517468586</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>25.04857868784963</v>
+        <v>3.94179977976334</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>25.19979744287041</v>
+        <v>48.82174028599465</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>25.0787717206592</v>
+        <v>8.298939578778636</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>25.10390500293846</v>
+        <v>17.59567690508008</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>25.11518541559583</v>
+        <v>19.86835741716558</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>25.0527088040281</v>
+        <v>1.122199492884207</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>25.12713836092502</v>
+        <v>24.3734583303619</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>25.13400580016398</v>
+        <v>26.17376850406576</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>25.06914733587309</v>
+        <v>6.73271175039967</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>25.16214420023861</v>
+        <v>36.93863382979814</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>25.17152891660765</v>
+        <v>39.90571420839161</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>25.18668381763484</v>
+        <v>41.02818701530988</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>25.19699133473134</v>
+        <v>42.58580797850253</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>25.22017573236204</v>
+        <v>48.1242861675295</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>25.09912681410462</v>
+        <v>16.90252076612235</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>25.15798108307709</v>
+        <v>33.07095540411098</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>25.18361017695926</v>
+        <v>39.27913603653344</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>25.06316283212065</v>
+        <v>7.016414658077871</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>25.12558171017236</v>
+        <v>26.62865202108844</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>25.16373305107234</v>
+        <v>36.19192358114874</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>25.02815666753693</v>
+        <v>2.241556127638347</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>25.10127980217645</v>
+        <v>19.31080768516185</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>25.17521416657905</v>
+        <v>38.42673566691785</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>25.03701738406356</v>
+        <v>3.295867463357702</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>25.16943915195841</v>
+        <v>34.34120065616158</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>25.07811224311141</v>
+        <v>6.727872181930383</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>25.09520238168199</v>
+        <v>12.8050180145103</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>25.11698800880756</v>
+        <v>17.60779271140989</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>25.06087680843514</v>
+        <v>1.250149846635363</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>25.12031534633762</v>
+        <v>19.60883117188878</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>25.13741390235693</v>
+        <v>27.0152148448661</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>25.0688974576369</v>
+        <v>3.362297236840536</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>25.15235249123589</v>
+        <v>32.61486583173863</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>25.16214763435715</v>
+        <v>36.57903094228841</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>25.15096831365737</v>
+        <v>32.76750669988328</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>25.15891450215669</v>
+        <v>35.28859615953708</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>25.17515368765105</v>
+        <v>40.47732457268181</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>25.09314176058423</v>
+        <v>16.60993205731195</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>25.1370539296824</v>
+        <v>29.70696806326176</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>25.17612173801187</v>
+        <v>38.79766395248178</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>25.06717124043928</v>
+        <v>5.159797164655792</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>25.11417698651123</v>
+        <v>21.92564257142235</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>25.15946368049189</v>
+        <v>32.87824585519328</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>25.04890535667294</v>
+        <v>2.709328270740549</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>25.1007200829351</v>
+        <v>17.95701900481372</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>25.16496706898561</v>
+        <v>37.70311138758007</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>25.04592451984038</v>
+        <v>1.772415289254617</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>25.13831831811556</v>
+        <v>29.44820108152392</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>25.1166904014115</v>
+        <v>18.88098405541285</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>25.08483127070406</v>
+        <v>18.44097592422064</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25.1669330662449</v>
+        <v>36.88820653192128</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>25.19696332990212</v>
+        <v>43.68310574416405</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>25.01789785747064</v>
+        <v>4.239733593736108</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>25.06403330109356</v>
+        <v>11.77160264681746</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>25.10628325779734</v>
+        <v>19.52665387586156</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>25.07599274144626</v>
+        <v>11.62371097359651</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>25.10245265741658</v>
+        <v>20.86177008237577</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>25.14398878714474</v>
+        <v>30.33399575795229</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>25.0148298736437</v>
+        <v>2.013919665577632</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>25.03369881194699</v>
+        <v>5.848049631523953</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>25.06081799089839</v>
+        <v>9.700819279067463</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>25.02214735818444</v>
+        <v>2.797636421869207</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>25.08650838037007</v>
+        <v>15.51388594587184</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>25.15112428301064</v>
+        <v>26.01950425896965</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>25.09433832571549</v>
+        <v>19.40186306251312</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>25.19164034936948</v>
+        <v>38.99726320937658</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>25.24086116283539</v>
+        <v>45.95905816343267</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>25.01267667113751</v>
+        <v>5.170817868369515</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>25.07538257958074</v>
+        <v>15.33473909488985</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>25.13484005928079</v>
+        <v>22.40625375286727</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>25.26241897820883</v>
+        <v>60.6651357151832</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>25.23178172700424</v>
+        <v>51.46335585950758</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>25.30473253242478</v>
+        <v>64.42485749043547</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>25.33690548121934</v>
+        <v>67.35212023933249</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>25.08221415393347</v>
+        <v>13.78369478071933</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>25.28502930283363</v>
+        <v>60.26973393328795</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>25.31316373352533</v>
+        <v>64.59535045413162</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>25.12090491815161</v>
+        <v>23.93636679416789</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>25.18940175480448</v>
+        <v>39.08589691443859</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>25.21392649432175</v>
+        <v>44.75079267745301</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>25.04515728155761</v>
+        <v>4.443618498942914</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>25.1770472882175</v>
+        <v>35.86121485559157</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>25.21973932480262</v>
+        <v>46.24977131146382</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>25.0624385133597</v>
+        <v>9.350054001366392</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>25.27686926659644</v>
+        <v>63.1239987107577</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>25.32267381219828</v>
+        <v>70.28692033857506</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>25.37773027555397</v>
+        <v>73.0362387491143</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>25.43319098178337</v>
+        <v>81.28477229865743</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>25.46448176052196</v>
+        <v>86.88207650478364</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>25.1514712400213</v>
+        <v>28.4232536220041</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>25.40151671420243</v>
+        <v>77.19988444878959</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>25.42266797566665</v>
+        <v>80.62300685664435</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>25.26778729700914</v>
+        <v>62.93220860194741</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>25.17860052356762</v>
+        <v>34.00580376463066</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>25.23019571081902</v>
+        <v>46.63536683145603</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>25.31557137478883</v>
+        <v>66.10254105358693</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>25.03710944466576</v>
+        <v>5.363741284704872</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>25.23428237313921</v>
+        <v>48.13619337462272</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>25.28453120696201</v>
+        <v>59.41657613555885</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>25.07853052006382</v>
+        <v>13.37433799069474</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>25.15812897975269</v>
+        <v>33.16162314669557</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>25.20288978615925</v>
+        <v>43.25400805141213</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>25.02176054954223</v>
+        <v>3.206991975109034</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>25.1520223179516</v>
+        <v>32.07452850635931</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>25.21454472340678</v>
+        <v>45.49853847356988</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>25.03950742446506</v>
+        <v>5.937074424278961</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>25.2500854926304</v>
+        <v>54.10374538537158</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>25.33322554615245</v>
+        <v>73.67086677590432</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>25.33492522906436</v>
+        <v>62.94841293920997</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>25.38051479986907</v>
+        <v>73.22598947096436</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>25.46003611477895</v>
+        <v>87.84292428802561</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>25.08085583170674</v>
+        <v>15.61598181694421</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>25.34057458381609</v>
+        <v>65.47524379463748</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>25.39768521896237</v>
+        <v>77.22849343028412</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>25.22461017864065</v>
+        <v>57.11507414015023</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>25.10917846417274</v>
+        <v>20.68123550648892</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>25.14642762743629</v>
+        <v>28.67805638977667</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>25.21047707135847</v>
+        <v>46.85639975746831</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>25.04350971568979</v>
+        <v>4.522835886300474</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>25.18573849547633</v>
+        <v>37.1557659420714</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>25.23669318319387</v>
+        <v>53.26448358619861</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>25.07762351738151</v>
+        <v>9.983630611673611</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>25.14977012082416</v>
+        <v>31.29125926246118</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>25.20006286941259</v>
+        <v>44.15304721401985</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>25.04816921590998</v>
+        <v>3.213345288736772</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>25.1412917798815</v>
+        <v>29.60788922128759</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>25.20577756215068</v>
+        <v>46.66392784034851</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>25.04500686971857</v>
+        <v>2.837698019430761</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>25.20401020538147</v>
+        <v>47.32501790515377</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>25.2889208926061</v>
+        <v>71.82248162788392</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>25.24565327519231</v>
+        <v>50.99733524451332</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>25.29624708951151</v>
+        <v>63.31692777828102</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>25.38299089884319</v>
+        <v>84.22045645064711</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>25.06661994060176</v>
+        <v>11.4023970535364</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>25.28397685021599</v>
+        <v>59.14901158764656</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>25.35101760660248</v>
+        <v>75.25366140621574</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>25.10223204060514</v>
+        <v>13.6073748261127</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>25.09605957463216</v>
+        <v>16.07735176291096</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>25.11666217637629</v>
+        <v>20.48073306022723</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>25.06913649703409</v>
+        <v>6.259328452641281</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>25.0867664445974</v>
+        <v>11.80650468763676</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>25.09085287838311</v>
+        <v>12.43028061266508</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>25.08425040872071</v>
+        <v>10.53324042697535</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>25.11968203255435</v>
+        <v>21.20753516647566</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>25.12176798050847</v>
+        <v>23.03811902756092</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>25.08170853581237</v>
+        <v>14.62578764459027</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>25.09955366274713</v>
+        <v>18.55471064357337</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>25.10744854664224</v>
+        <v>20.92372948240549</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.09745599635309</v>
+        <v>15.36613132800446</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>25.08163671861779</v>
+        <v>16.04670595763433</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>25.11086923134107</v>
+        <v>20.60608026270135</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>25.08788749092488</v>
+        <v>13.67185952100874</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>25.12130592526112</v>
+        <v>25.07662399528648</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>25.15444194529733</v>
+        <v>32.6576040741479</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.04686361903499</v>
+        <v>4.885705147000348</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>25.0652687494758</v>
+        <v>9.330444978403261</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>25.08432590678059</v>
+        <v>11.64458529349306</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>25.04853179466923</v>
+        <v>6.322747801886468</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>25.09315989443172</v>
+        <v>19.56658271939045</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>25.1045268060803</v>
+        <v>16.91776370917101</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.11332344852776</v>
+        <v>21.69823096450186</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>25.11618358622313</v>
+        <v>20.38558888481405</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>25.06098224605871</v>
+        <v>6.591627275090413</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.11393435305184</v>
+        <v>21.65698171610308</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>25.1171428298797</v>
+        <v>24.1193472503965</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>25.07167412196982</v>
+        <v>9.826139287985427</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.14350999295015</v>
+        <v>30.49945058905282</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>25.1397003622107</v>
+        <v>29.81531664781869</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>25.15504576656275</v>
+        <v>33.29451426824508</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.17492338443846</v>
+        <v>38.53599081588489</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>25.1772592100995</v>
+        <v>39.55966075446434</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>25.10419785987965</v>
+        <v>18.98034117263247</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>25.15140179164131</v>
+        <v>32.41888026292328</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>25.15763540164126</v>
+        <v>32.65489892670372</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>25.09886044666799</v>
+        <v>15.48336223469405</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>25.15979655653922</v>
+        <v>31.70868449359111</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>25.18262042863002</v>
+        <v>36.2643331563706</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>25.05475404721913</v>
+        <v>5.492052998142043</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>25.13298027586976</v>
+        <v>28.89927794665872</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>25.18294002683718</v>
+        <v>37.70766148531629</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>25.06330071954141</v>
+        <v>7.000817764584415</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>25.19827778876962</v>
+        <v>48.28904379671219</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>25.07816322071107</v>
+        <v>10.28636328734533</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>25.0967174874418</v>
+        <v>16.44986746642793</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>25.10620218940766</v>
+        <v>17.58576193510601</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>25.05691369849072</v>
+        <v>4.826742863333681</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>25.1078190625596</v>
+        <v>20.27378700886199</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>25.11635940882146</v>
+        <v>21.43596833591138</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>25.06955720744785</v>
+        <v>8.825645454506159</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>25.13825588377544</v>
+        <v>29.62056679456338</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>25.14774965549334</v>
+        <v>31.88716205775722</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>25.15768414891469</v>
+        <v>33.38914483625431</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>25.17077784433613</v>
+        <v>36.33905359559071</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>25.18836036308045</v>
+        <v>39.91377096359387</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>25.06956398970453</v>
+        <v>12.5085185671716</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>25.11629187621954</v>
+        <v>22.09391319883948</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>25.1268981220133</v>
+        <v>25.65647721387258</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>25.07199188067448</v>
+        <v>9.253833148704871</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>25.13209694006224</v>
+        <v>26.12004280499023</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>25.16796774660915</v>
+        <v>35.99605517074835</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>25.0416649315562</v>
+        <v>4.619390436699057</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>25.10676937831152</v>
+        <v>19.6068531467934</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>25.17546614060708</v>
+        <v>36.49823335866148</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>25.05261132320359</v>
+        <v>6.413687192139495</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>25.16981888826999</v>
+        <v>31.92527453978101</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>25.08056431897063</v>
+        <v>9.087332181473556</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>25.0924545674344</v>
+        <v>13.38481136866138</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>25.11074290492349</v>
+        <v>16.72625795836019</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>25.06628967180951</v>
+        <v>4.916058484602949</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>25.10618636412093</v>
+        <v>16.69579098247262</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>25.12299683046628</v>
+        <v>22.65632048242371</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.07297188095023</v>
+        <v>6.579047065737821</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>25.13478321981993</v>
+        <v>26.74491760659105</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>25.14501660241832</v>
+        <v>30.6316945287909</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.13318921335714</v>
+        <v>25.8973803397012</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>25.14490423688657</v>
+        <v>29.13708179620249</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>25.1574947831294</v>
+        <v>32.84741417695484</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>25.0723041994757</v>
+        <v>12.50252857288821</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>25.10795182273869</v>
+        <v>21.51148817296234</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>25.13040958337252</v>
+        <v>24.93807260108733</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>25.07687632772356</v>
+        <v>8.255433287455148</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>25.12207119037207</v>
+        <v>22.74804111819025</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>25.16335096466985</v>
+        <v>33.12216548310314</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>25.05966498426845</v>
+        <v>5.253365754711872</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>25.1057697999955</v>
+        <v>18.46278022559154</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>25.16574922292327</v>
+        <v>35.0443291298345</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>25.06178209054582</v>
+        <v>5.732914131195745</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>25.1437510539437</v>
+        <v>28.95269494053311</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>25.13081613985036</v>
+        <v>22.84922248937316</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>25.10670110387724</v>
+        <v>21.53946344619002</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>25.18160225537472</v>
+        <v>38.26543757803286</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.2115308640691</v>
+        <v>44.30005819324475</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>25.03642416732652</v>
+        <v>8.092416590341465</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>25.09565052132884</v>
+        <v>16.57251866249852</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>25.12868257900704</v>
+        <v>23.94113766635946</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>25.07969425081047</v>
+        <v>14.9654700503254</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>25.11360407204936</v>
+        <v>24.53928971377768</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>25.14991450239704</v>
+        <v>31.4942372777474</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>25.02227992169261</v>
+        <v>4.619750346120611</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>25.04388346785175</v>
+        <v>7.668964013633087</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>25.07363544034226</v>
+        <v>10.78900037220497</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>25.03578405114533</v>
+        <v>6.566981461886549</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>25.1003645449431</v>
+        <v>18.14400234743243</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>25.15507999387681</v>
+        <v>25.93033669936867</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>25.11058343208131</v>
+        <v>22.35762991551216</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>25.20269141002374</v>
+        <v>39.47436638513454</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>25.24073249376849</v>
+        <v>45.03860000047538</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>25.02772389660394</v>
+        <v>8.88792393188195</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>25.10173643163526</v>
+        <v>17.43905978496343</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>25.14340732279663</v>
+        <v>22.56571704406167</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>25.25254971210121</v>
+        <v>56.6639221854014</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>25.22979421911065</v>
+        <v>49.24765296770704</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>25.29779787212313</v>
+        <v>60.81737101535114</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>25.32692762127122</v>
+        <v>63.01297147677142</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>25.08878427663572</v>
+        <v>14.51758959297293</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>25.28113324807303</v>
+        <v>57.97274694623847</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>25.30190798010213</v>
+        <v>60.49873933495437</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>25.11960018607332</v>
+        <v>23.74807037908081</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>25.19028534756015</v>
+        <v>38.74799717226229</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>25.21257809194339</v>
+        <v>43.17978158895878</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>25.05424600216993</v>
+        <v>6.832957007296375</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>25.17091382149983</v>
+        <v>34.15410657260186</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>25.21347135694494</v>
+        <v>44.00255654645552</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>25.07406275776092</v>
+        <v>12.47878596169421</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>25.26456147757879</v>
+        <v>60.34104349074043</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>25.3015915029496</v>
+        <v>64.3687519602791</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>25.34951961215559</v>
+        <v>66.30468850243916</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>25.40957429143661</v>
+        <v>74.86158168032861</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>25.4293409149525</v>
+        <v>78.24642788524409</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>25.14936732154872</v>
+        <v>28.20848729563265</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>25.38342028390655</v>
+        <v>73.03906221591791</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>25.39250971730625</v>
+        <v>75.16205577961975</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>25.25525950385169</v>
+        <v>58.57967636742415</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>25.18508323804722</v>
+        <v>33.10336318892976</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>25.23633194379478</v>
+        <v>45.37542319840524</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>25.30811645062741</v>
+        <v>62.66365280178997</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>25.05068180349474</v>
+        <v>8.060228940756787</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>25.23733538277931</v>
+        <v>46.6538381714667</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>25.27828472429774</v>
+        <v>57.17045415183114</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>25.08311665164731</v>
+        <v>13.78864316171233</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>25.16168904074589</v>
+        <v>31.92468054675558</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>25.20219752566032</v>
+        <v>41.21982032629336</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>25.03515119309813</v>
+        <v>5.39700303628841</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>25.14987960328964</v>
+        <v>30.89845613405343</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>25.20980445101679</v>
+        <v>43.92105120684121</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>25.05516384048338</v>
+        <v>8.460513593439074</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>25.2407518157322</v>
+        <v>50.1549214217373</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>25.31007267537758</v>
+        <v>66.90351968764311</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>25.31467592625835</v>
+        <v>57.93669542096421</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>25.3675520946584</v>
+        <v>68.21128813348462</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>25.42631258166348</v>
+        <v>78.31800251385881</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>25.09138930792285</v>
+        <v>17.77956480195728</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>25.33345019429192</v>
+        <v>62.95106745045034</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>25.37422908394165</v>
+        <v>72.27261084123523</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>25.2196823923305</v>
+        <v>54.47554833209496</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>25.12588384636123</v>
+        <v>22.61956982173275</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>25.16623573476545</v>
+        <v>31.8962993603149</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>25.21983023115778</v>
+        <v>47.22503244229239</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>25.0579079753957</v>
+        <v>7.963999447983014</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>25.19511223434665</v>
+        <v>36.58499696386671</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>25.23709323967888</v>
+        <v>52.09876366598127</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>25.08455890823578</v>
+        <v>12.08257113080746</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>25.15456704700863</v>
+        <v>31.29762430947033</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>25.19934733879594</v>
+        <v>43.21877326480148</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>25.05757441458293</v>
+        <v>5.954627155279944</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>25.14090902679552</v>
+        <v>29.85853300082737</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>25.2010034677231</v>
+        <v>44.31074573509649</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>25.06201716274714</v>
+        <v>6.874125169200092</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>25.20317058412478</v>
+        <v>46.48697259235304</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>25.27500892389954</v>
+        <v>66.80844008111666</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>25.24209043540473</v>
+        <v>50.07148949369753</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>25.29741683175745</v>
+        <v>62.02977400816329</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>25.36288135892493</v>
+        <v>77.28143436622831</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>25.07957193021164</v>
+        <v>14.11733817641141</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>25.28277811963186</v>
+        <v>58.40129651790819</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>25.3321529712584</v>
+        <v>70.73987079950568</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>25.09740012167396</v>
+        <v>12.2991473314351</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>25.1169544358304</v>
+        <v>17.78079001787436</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>25.14439948542289</v>
+        <v>31.83786752984775</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>25.0577936094344</v>
+        <v>1.44336063829995</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>25.10311144688149</v>
+        <v>14.35245676126253</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>25.11244817133272</v>
+        <v>17.81077687661072</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>25.07201645176313</v>
+        <v>3.90829251546943</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>25.16340263201539</v>
+        <v>37.63028294658781</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>25.17123782542687</v>
+        <v>43.8556701360414</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>25.12639196090091</v>
+        <v>21.08972735368548</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>25.14048348145145</v>
+        <v>24.95491694568326</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>25.14697635130728</v>
+        <v>25.78635823935241</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>25.08471136763296</v>
+        <v>11.05673058895431</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>25.1122215389588</v>
+        <v>18.91115053618029</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>25.15925036347184</v>
+        <v>33.47200916954908</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>25.09118562914557</v>
+        <v>12.11499024068757</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>25.13286088508417</v>
+        <v>26.08267508898658</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>25.1507864612873</v>
+        <v>31.72643127824755</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>25.03783647292482</v>
+        <v>1.242122590995514</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>25.07659818333268</v>
+        <v>9.915868386781959</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>25.07253559133243</v>
+        <v>11.9507898877409</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>25.03672606531281</v>
+        <v>2.028300206339985</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>25.11930921106594</v>
+        <v>22.92482304573028</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>25.1153541026901</v>
+        <v>21.07265932514678</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>25.15573709495535</v>
+        <v>33.46068452515432</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>25.16199646140652</v>
+        <v>34.68062657697841</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>25.07075611701975</v>
+        <v>2.425044364515468</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>25.16246597780471</v>
+        <v>36.46145776576664</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>25.16565121262102</v>
+        <v>37.55894620102299</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>25.07788657596808</v>
+        <v>4.940438011561419</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>25.21412512378982</v>
+        <v>54.37245283872518</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>25.2112497078125</v>
+        <v>53.86321906130124</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>25.23927463965064</v>
+        <v>54.64785871135616</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>25.25344206510616</v>
+        <v>58.99196868401609</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>25.25324530819167</v>
+        <v>60.82128436801287</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>25.11250022660135</v>
+        <v>19.95252441642654</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>25.21921782441443</v>
+        <v>57.65691507252026</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>25.23930707184452</v>
+        <v>59.95790967236169</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>25.10671748944616</v>
+        <v>17.86131086390411</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>25.18081825667084</v>
+        <v>35.54927088540727</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>25.18187907056103</v>
+        <v>36.49821421536947</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>25.0516628917288</v>
+        <v>1.323718428408586</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>25.16351302138896</v>
+        <v>34.47000441115042</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>25.1782586353822</v>
+        <v>35.80337438162266</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>25.05576220295471</v>
+        <v>2.376047319783531</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>25.23894600949557</v>
+        <v>55.35934482975475</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>25.08645497586734</v>
+        <v>5.206720270456522</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.13484773403916</v>
+        <v>24.19005466889093</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>25.14834558102222</v>
+        <v>29.4829272163656</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>25.06712862965035</v>
+        <v>1.354551914956151</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>25.15446434328332</v>
+        <v>34.29406942851118</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>25.16385173380698</v>
+        <v>36.41129311046708</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>25.07764937487058</v>
+        <v>5.433720780107542</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>25.20697595996602</v>
+        <v>54.0446026923801</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>25.21738392902874</v>
+        <v>55.92504812665241</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>25.24478972875015</v>
+        <v>60.85844888040867</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>25.25265921916563</v>
+        <v>62.13352648218787</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>25.26860442766204</v>
+        <v>66.26509854987893</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>25.07640977845329</v>
+        <v>5.101510081831375</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>25.18029352167311</v>
+        <v>36.84374537078969</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>25.20423919485055</v>
+        <v>43.19965924472388</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>25.08259734536484</v>
+        <v>10.29224914602067</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>25.15435727434353</v>
+        <v>33.24868426162429</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>25.16963615308062</v>
+        <v>36.68468888549805</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>25.04440051421913</v>
+        <v>2.1546478439429</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>25.14094880422383</v>
+        <v>30.00789542027124</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>25.17566837997217</v>
+        <v>39.80195662481572</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>25.05206677608083</v>
+        <v>4.858555453560854</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>25.21319149220883</v>
+        <v>47.24549528076638</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>25.08428682457481</v>
+        <v>3.951590121441903</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>25.11901635868047</v>
+        <v>16.50164015613267</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>25.14622524280502</v>
+        <v>28.43599407682488</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>25.07034002318958</v>
+        <v>0.8864465142942421</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>25.13509972582889</v>
+        <v>18.24060477474121</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>25.16276790575622</v>
+        <v>39.25271683307739</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>25.07505273685891</v>
+        <v>2.322803734422823</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>25.18636199764078</v>
+        <v>46.81854963501757</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>25.20290218428909</v>
+        <v>55.34080233233266</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>25.19750075605955</v>
+        <v>51.44439784689557</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>25.20951718927871</v>
+        <v>55.49569825132962</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>25.22625503956909</v>
+        <v>61.7018412411669</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>25.07191298657011</v>
+        <v>5.326908389918316</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>25.15231297366513</v>
+        <v>34.23689685024466</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>25.19676684011047</v>
+        <v>45.46100976261825</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>25.07612739877833</v>
+        <v>6.579027974307579</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>25.12791108780817</v>
+        <v>27.67755484396178</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>25.15819171208027</v>
+        <v>33.87226219273992</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>25.05041968407684</v>
+        <v>1.904589489898374</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>25.11532246352524</v>
+        <v>23.1195686356733</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>25.15924419535886</v>
+        <v>37.06381643962497</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>25.04886608123324</v>
+        <v>2.26816705213249</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>25.16315991098714</v>
+        <v>38.37988932234411</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>25.13896425888084</v>
+        <v>23.54235950043247</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>25.11822490352159</v>
+        <v>21.99902422754839</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>25.17762358829416</v>
+        <v>36.38595683742737</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>25.18343397930894</v>
+        <v>41.48774542185846</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>25.04034282609894</v>
+        <v>7.407321909705789</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>25.08760356520913</v>
+        <v>17.40080921769119</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>25.12698181825032</v>
+        <v>24.28535054670905</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>25.08051279199076</v>
+        <v>9.399733012250419</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.11539207440262</v>
+        <v>22.14245956614757</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>25.15440052728197</v>
+        <v>33.15173148276303</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>25.01843717644886</v>
+        <v>1.744460679269565</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>25.06189540620876</v>
+        <v>8.011341227458523</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>25.08108974105851</v>
+        <v>13.41072090509015</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>25.02781505683881</v>
+        <v>3.313465505208523</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>25.12160831649792</v>
+        <v>21.38042262105325</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>25.18381481214601</v>
+        <v>39.50101000568793</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.13350587533321</v>
+        <v>25.55768566155075</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>25.21007492107567</v>
+        <v>46.19044290743545</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.25656063637089</v>
+        <v>52.4903096121579</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>25.02344216353985</v>
+        <v>5.932719503308316</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>25.10237377245072</v>
+        <v>19.41017406297166</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>25.16820710721632</v>
+        <v>32.53816263563495</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>25.26675665658151</v>
+        <v>60.12169951103674</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>25.2620126014746</v>
+        <v>56.91630668885183</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>25.31050387750008</v>
+        <v>66.82413234108297</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>25.3089874253226</v>
+        <v>63.97860413817467</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>25.08976436729143</v>
+        <v>15.56834798453903</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>25.28687316290244</v>
+        <v>60.75581293948051</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>25.30357725194441</v>
+        <v>63.63092770882717</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>25.11370495998633</v>
+        <v>20.56870722099136</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>25.19070705402298</v>
+        <v>39.60471156370702</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>25.2051717414807</v>
+        <v>43.08776147268863</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>25.04495950867711</v>
+        <v>2.469961610607228</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>25.19996033503703</v>
+        <v>42.74494301694379</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>25.21531220225044</v>
+        <v>44.87312266107308</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>25.0570466962657</v>
+        <v>4.664822270767214</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>25.28883431491531</v>
+        <v>65.55927467706846</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>25.31735422047362</v>
+        <v>68.05595696456828</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>25.37935087756829</v>
+        <v>76.08315666052235</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>25.4198120283108</v>
+        <v>81.82646137576543</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>25.44523031830619</v>
+        <v>84.77416397653957</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>25.12468790319484</v>
+        <v>17.06332965460737</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>25.3877274168781</v>
+        <v>76.3796137014495</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>25.4033627830672</v>
+        <v>78.35278519497649</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>25.27322557397452</v>
+        <v>62.55477347561153</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>25.22688194270927</v>
+        <v>48.89248162253142</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>25.25913645087363</v>
+        <v>57.4740104907644</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>25.30150427073858</v>
+        <v>64.02765067735496</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>25.05534044434513</v>
+        <v>8.611539528250798</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>25.24700632582372</v>
+        <v>53.66433287772617</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>25.28279036256396</v>
+        <v>61.0213870127453</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>25.07647974681144</v>
+        <v>10.50047652910324</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>25.16021092021232</v>
+        <v>34.94050378945475</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>25.1933681581459</v>
+        <v>42.70540759172987</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>25.02692463533704</v>
+        <v>2.143045869604517</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>25.17797736223676</v>
+        <v>37.0840871023105</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>25.21107761051273</v>
+        <v>46.23920873147323</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>25.04113682371354</v>
+        <v>5.632957613829767</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>25.26447685226034</v>
+        <v>58.27895572895246</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>25.32493937902414</v>
+        <v>73.01827068949819</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>25.34863408712987</v>
+        <v>69.88303589250398</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>25.38284955646582</v>
+        <v>78.4971363208391</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>25.44854552658614</v>
+        <v>88.27118496364977</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>25.06535136012258</v>
+        <v>9.470650752512256</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>25.33742020577149</v>
+        <v>69.33007982258839</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>25.38323038057743</v>
+        <v>77.80553198699519</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>25.22487465472256</v>
+        <v>57.36034153789755</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>25.13680986510839</v>
+        <v>27.43870088780106</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>25.16775122473591</v>
+        <v>35.89685980963569</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>25.20246899284388</v>
+        <v>46.01313277422472</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>25.04791990383447</v>
+        <v>5.006515777055981</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>25.18119515217252</v>
+        <v>26.58895014302108</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>25.23472819619871</v>
+        <v>54.95422542191076</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>25.07056334671394</v>
+        <v>6.370029150183143</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>25.14189154108262</v>
+        <v>31.53555381371166</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>25.18937580512147</v>
+        <v>43.19700207087496</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>25.04136795828806</v>
+        <v>1.320388615863841</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>25.14738417320891</v>
+        <v>30.36518978669957</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>25.19965159279976</v>
+        <v>45.8317921959605</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>25.0405573777042</v>
+        <v>1.472032837946443</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>25.20871579036685</v>
+        <v>47.61642356551449</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>25.28431182934091</v>
+        <v>70.90423341284611</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>25.25455604823977</v>
+        <v>53.06972932247808</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>25.29895435195604</v>
+        <v>65.82349660189409</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>25.37579399777773</v>
+        <v>85.67230002888499</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>25.04820850492863</v>
+        <v>6.490453316641879</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>25.26932328491236</v>
+        <v>60.30582394538112</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>25.34339709427228</v>
+        <v>77.95955083389782</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test4/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12.25199554807964</v>
+        <v>12.25199554807928</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>11.20891369505123</v>
+        <v>11.20891369505136</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>23.38728697669699</v>
+        <v>23.38728697669712</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.33612494526151</v>
+        <v>3.336124945261808</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.96191990052205</v>
+        <v>18.96191990052225</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.87099146918498</v>
+        <v>22.87099146918449</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6.582422231963708</v>
+        <v>6.58242223196407</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>33.79924391025369</v>
+        <v>33.79924391025281</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34.15984068137958</v>
+        <v>34.1598406813791</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>12.52334111973611</v>
+        <v>12.52334111973599</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>15.43330778482151</v>
+        <v>15.43330778482112</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>15.89894501456316</v>
+        <v>15.89894501456306</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>22.85995481711984</v>
+        <v>22.85995481712008</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>19.6436300801597</v>
+        <v>19.64363008015991</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>35.20974874936904</v>
+        <v>35.20974874936877</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.09925290498323</v>
+        <v>13.09925290498342</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.34097066467147</v>
+        <v>24.34097066467127</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36.32597473843852</v>
+        <v>36.32597473843865</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.991046927832286</v>
+        <v>7.991046927832443</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14.84748743694337</v>
+        <v>14.84748743694365</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17.86605919231365</v>
+        <v>17.86605919231359</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.10529664257858</v>
+        <v>3.105296642578832</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.40711961445987</v>
+        <v>19.40711961446008</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>20.15782831261322</v>
+        <v>20.15782831261303</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23.63180181844212</v>
+        <v>23.63180181844183</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>24.5162185772871</v>
+        <v>24.51621857728756</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.679789175666514</v>
+        <v>3.679789175666727</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>30.39059763934391</v>
+        <v>30.39059763934377</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>31.5194329365032</v>
+        <v>31.51943293650342</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7.500487053775693</v>
+        <v>7.500487053775856</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>38.10542054131853</v>
+        <v>38.10542054131831</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>36.98559140220421</v>
+        <v>36.98559140220366</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>38.85756422335972</v>
+        <v>38.85756422335964</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>41.65112141981143</v>
+        <v>41.6511214198111</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>42.88518436505999</v>
+        <v>42.88518436506035</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>32.1990119004544</v>
+        <v>32.19901190045503</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>40.0709655416838</v>
+        <v>40.07096554168449</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42.63586547229656</v>
+        <v>42.63586547229671</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>20.3149136598167</v>
+        <v>20.31491365981653</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>33.25056604700281</v>
+        <v>33.25056604700253</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>36.70258546865466</v>
+        <v>36.70258546865446</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>8.358717855355469</v>
+        <v>8.358717855355568</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>35.3376537792639</v>
+        <v>35.337653779264</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>42.22384311354843</v>
+        <v>42.22384311354808</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>51.75317123606358</v>
+        <v>51.7531712360632</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6.89985575503496</v>
+        <v>6.899855755035251</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>18.26731795682297</v>
+        <v>18.2673179568229</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>22.7260257267492</v>
+        <v>22.72602572674927</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.799477888920038</v>
+        <v>1.799477888920201</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.07503407974816</v>
+        <v>29.07503407974798</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.68798925346663</v>
+        <v>30.68798925346628</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.848290405709875</v>
+        <v>6.848290405709921</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>40.63543400399089</v>
+        <v>40.63543400399087</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>43.16245714057371</v>
+        <v>43.16245714057366</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>44.04544066016058</v>
+        <v>44.04544066016031</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>45.50559155663254</v>
+        <v>45.50559155663174</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>52.1476042014128</v>
+        <v>52.1476042014129</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>16.34258381100092</v>
+        <v>16.34258381100084</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31.23823759240958</v>
+        <v>31.23823759240981</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>37.08515795884534</v>
+        <v>37.08515795884601</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>11.53563993230219</v>
+        <v>11.53563993230243</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30.48508510353361</v>
+        <v>30.48508510353355</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.5796256805953</v>
+        <v>35.57962568059519</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>8.532190944451031</v>
+        <v>8.532190944450704</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>28.16037618294443</v>
+        <v>28.16037618294401</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>40.660462528523</v>
+        <v>40.66046252852314</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5.197723384073964</v>
+        <v>5.197723384074354</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>44.60928793767722</v>
+        <v>44.6092879376774</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4.677478819731078</v>
+        <v>4.677478819731029</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>11.37288868913254</v>
+        <v>11.37288868913229</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>19.83883976511344</v>
+        <v>19.83883976511353</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2.424365209828281</v>
+        <v>2.424365209828721</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>27.5943448801818</v>
+        <v>27.59434488018184</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>33.79815673143926</v>
+        <v>33.79815673143939</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2.851025998113236</v>
+        <v>2.851025998113826</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>39.35609682383543</v>
+        <v>39.35609682383577</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>41.34829177742029</v>
+        <v>41.34829177742007</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>39.94523649406956</v>
+        <v>39.94523649406988</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>41.38406735773778</v>
+        <v>41.38406735773763</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>47.68160208022793</v>
+        <v>47.68160208022788</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>14.61839688970472</v>
+        <v>14.61839688970454</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>25.09508894454127</v>
+        <v>25.0950889445413</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>38.98890938080879</v>
+        <v>38.98890938080851</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>8.299549444477169</v>
+        <v>8.299549444477496</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>26.43774052304272</v>
+        <v>26.43774052304289</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>33.86315976988983</v>
+        <v>33.8631597698901</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>8.46001828587503</v>
+        <v>8.460018285875087</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>27.42634778130488</v>
+        <v>27.42634778130477</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>41.28354772331632</v>
+        <v>41.28354772331602</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2.224123463166837</v>
+        <v>2.224123463167096</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>38.99093089739424</v>
+        <v>38.99093089739423</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.48400336909745</v>
+        <v>24.48400336909742</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>20.82800624186497</v>
+        <v>20.82800624186504</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>41.78655927617744</v>
+        <v>41.7865592761775</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>46.6647172708948</v>
+        <v>46.66471727089477</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>7.190813992063095</v>
+        <v>7.190813992063358</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>16.16856713573549</v>
+        <v>16.16856713573548</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>24.56053617924519</v>
+        <v>24.56053617924536</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>12.07255032663474</v>
+        <v>12.07255032663454</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>20.24214341039226</v>
+        <v>20.2421434103921</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>33.15162070766958</v>
+        <v>33.15162070766969</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>7.825917365927573</v>
+        <v>7.825917365927687</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>13.00141239939687</v>
+        <v>13.00141239939694</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>17.51911844103411</v>
+        <v>17.51911844103435</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>3.084483920667026</v>
+        <v>3.084483920666973</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>18.32779956620144</v>
+        <v>18.32779956620126</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>32.99507718545993</v>
+        <v>32.99507718546</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>21.13893904515317</v>
+        <v>21.13893904515336</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>46.45455821699964</v>
+        <v>46.45455821699993</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>53.4132572579344</v>
+        <v>53.41325725793435</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>5.713638890389486</v>
+        <v>5.713638890389703</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>18.32235915675403</v>
+        <v>18.32235915675429</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>27.23822669559164</v>
+        <v>27.23822669559172</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>60.49106892947839</v>
+        <v>60.49106892947796</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>54.15035883496753</v>
+        <v>54.15035883496743</v>
       </c>
     </row>
     <row r="117">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>69.14113863144978</v>
+        <v>69.14113863144945</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>20.53173968894271</v>
+        <v>20.53173968894258</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>60.13582656273333</v>
+        <v>60.13582656273379</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>62.76975310976539</v>
+        <v>62.76975310976509</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24.60709705604799</v>
+        <v>24.60709705604823</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>38.576363436335</v>
+        <v>38.57636343633492</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>44.63754130764342</v>
+        <v>44.63754130764312</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>9.469931961747854</v>
+        <v>9.469931961747804</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>41.30618971250045</v>
+        <v>41.30618971250002</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>48.76718655506387</v>
+        <v>48.76718655506374</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>6.49298705008782</v>
+        <v>6.492987050088036</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>62.22025599796936</v>
+        <v>62.22025599796949</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>72.03641274747841</v>
+        <v>72.03641274747865</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>70.55895721372124</v>
+        <v>70.55895721372127</v>
       </c>
     </row>
     <row r="132">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>88.04249439112826</v>
+        <v>88.04249439112846</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>26.6399858648443</v>
+        <v>26.63998586484396</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>76.63306195606839</v>
+        <v>76.63306195606819</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>78.10407953683357</v>
+        <v>78.10407953683364</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>64.71154191809082</v>
+        <v>64.71154191809057</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>41.54325808965423</v>
+        <v>41.54325808965424</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>50.57891870910255</v>
+        <v>50.57891870910233</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>67.06344185374417</v>
+        <v>67.06344185374448</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>11.54898811220963</v>
+        <v>11.54898811220973</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>51.99464653207701</v>
+        <v>51.99464653207704</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>14.88126309267204</v>
+        <v>14.88126309267206</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>33.38433677040244</v>
+        <v>33.38433677040248</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>43.25969225009319</v>
+        <v>43.25969225009312</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>9.141232585436605</v>
+        <v>9.141232585436416</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>37.45036164351311</v>
+        <v>37.45036164351312</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>47.925789829459</v>
+        <v>47.92578982945879</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>6.313668865019345</v>
+        <v>6.313668865019164</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>57.36247956912406</v>
+        <v>57.36247956912371</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>76.31881732787714</v>
+        <v>76.31881732787676</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>65.84319126774176</v>
+        <v>65.84319126774241</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>75.80636376186692</v>
+        <v>75.80636376186681</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>89.42867201606545</v>
+        <v>89.42867201606556</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>15.68785871352884</v>
+        <v>15.68785871352898</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>65.15534375834289</v>
+        <v>65.15534375834355</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>74.92220477501412</v>
+        <v>74.92220477501451</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>57.51306568793683</v>
+        <v>57.51306568793653</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>25.49108757592589</v>
+        <v>25.49108757592593</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>32.94519883316504</v>
+        <v>32.94519883316523</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>47.81180870524072</v>
+        <v>47.81180870524015</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>8.461297178329982</v>
+        <v>8.461297178330035</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>46.01047008420714</v>
+        <v>46.01047008420733</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>54.60211267190857</v>
+        <v>54.60211267190883</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>11.81713089331065</v>
+        <v>11.81713089331077</v>
       </c>
     </row>
     <row r="166">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>45.85350892684237</v>
+        <v>45.8535089268422</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>9.380819097724888</v>
+        <v>9.380819097725087</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>35.78810281366722</v>
+        <v>35.78810281366675</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>51.70294230479921</v>
+        <v>51.70294230479904</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>3.023777198934205</v>
+        <v>3.023777198934244</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>51.49489765909004</v>
+        <v>51.49489765908992</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>74.87345114475659</v>
+        <v>74.87345114475669</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>56.53158564636064</v>
+        <v>56.53158564636044</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>68.58279746598112</v>
+        <v>68.58279746598095</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>89.00136652115245</v>
+        <v>89.00136652115211</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>13.0656690851567</v>
+        <v>13.06566908515673</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>62.36270556700696</v>
+        <v>62.36270556700674</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>77.5202376802329</v>
+        <v>77.52023768023267</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>18.96130323994167</v>
+        <v>18.96130323994139</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>27.08914094547427</v>
+        <v>27.08914094547414</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>45.16003518962523</v>
+        <v>45.16003518962543</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>4.163571421678711</v>
+        <v>4.163571421678643</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>36.09420236781202</v>
+        <v>36.09420236781204</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>43.5245485520492</v>
+        <v>43.52454855204908</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>7.971255089124028</v>
+        <v>7.971255089124167</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>70.92364873381857</v>
+        <v>70.92364873381875</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>74.60689268650344</v>
+        <v>74.60689268650364</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>30.18019242444392</v>
+        <v>30.18019242444415</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>33.56752659306153</v>
+        <v>33.56752659306154</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>34.87656699601401</v>
+        <v>34.87656699601405</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>20.70712446342441</v>
+        <v>20.70712446342453</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.93049698011768</v>
+        <v>29.93049698011803</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>58.92645552967437</v>
+        <v>58.92645552967435</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>18.20668439679148</v>
+        <v>18.20668439679152</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>37.46909080016669</v>
+        <v>37.46909080016642</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>39.42723199188035</v>
+        <v>39.42723199188045</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>2.938116260127718</v>
+        <v>2.938116260127739</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>18.41552291558022</v>
+        <v>18.41552291558033</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>23.44542746028779</v>
+        <v>23.44542746028761</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>6.0138688414937</v>
+        <v>6.013868841493583</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>37.2610855521069</v>
+        <v>37.26108555210696</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>34.6493803362145</v>
+        <v>34.6493803362147</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>49.99882832610534</v>
+        <v>49.99882832610537</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>49.52997334572258</v>
+        <v>49.52997334572264</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>4.802336644074334</v>
+        <v>4.802336644074305</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>51.66402005345292</v>
+        <v>51.66402005345306</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>52.0106399206272</v>
+        <v>52.01063992062716</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>8.346838216040425</v>
+        <v>8.346838216040645</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>78.03957979291637</v>
+        <v>78.03957979291623</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>74.0247158092958</v>
+        <v>74.02471580929578</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>64.75124776563069</v>
+        <v>64.75124776563086</v>
       </c>
     </row>
     <row r="213">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>72.23682574576165</v>
+        <v>72.23682574576188</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>34.21215882478452</v>
+        <v>34.21215882478502</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>63.23295724366024</v>
+        <v>63.23295724366034</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>69.03715796706766</v>
+        <v>69.03715796706778</v>
       </c>
     </row>
     <row r="218">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>44.32649018141971</v>
+        <v>44.32649018141963</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>43.81867892276728</v>
+        <v>43.81867892276754</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>2.90710309471201</v>
+        <v>2.907103094712127</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>37.56149207726479</v>
+        <v>37.56149207726482</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>41.09442349584886</v>
+        <v>41.09442349584891</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>6.283674763244406</v>
+        <v>6.283674763244441</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>63.04608811881507</v>
+        <v>63.04608811881496</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>7.8928667199906</v>
+        <v>7.892866719990653</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>31.94388827118406</v>
+        <v>31.94388827118422</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>39.05345451511972</v>
+        <v>39.05345451511967</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>3.460466823057644</v>
+        <v>3.460466823057793</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>51.21870639089417</v>
+        <v>51.2187063908942</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>50.73338602712855</v>
+        <v>50.73338602712837</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>5.663552270150799</v>
+        <v>5.663552270150813</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>74.60599698905622</v>
+        <v>74.60599698905625</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>73.41805855141151</v>
+        <v>73.41805855141186</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>82.78230714526114</v>
+        <v>82.78230714526097</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>92.41655192949864</v>
+        <v>92.41655192949844</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>83.85270220388318</v>
+        <v>83.85270220388304</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>4.700725251956563</v>
+        <v>4.700725251956772</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>36.97782748314322</v>
+        <v>36.9778274831436</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>48.2874219737243</v>
+        <v>48.28742197372436</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>18.05707703467288</v>
+        <v>18.05707703467284</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>42.21734627588162</v>
+        <v>42.21734627588165</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>42.09381249618441</v>
+        <v>42.09381249618443</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>3.114931872445958</v>
+        <v>3.114931872446121</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>37.60791393903048</v>
+        <v>37.60791393903037</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>42.22348567475281</v>
+        <v>42.22348567475292</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>6.492931083811463</v>
+        <v>6.492931083811598</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>61.40679934905688</v>
+        <v>61.40679934905677</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>6.758486539900115</v>
+        <v>6.758486539900009</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>26.91727771640408</v>
+        <v>26.91727771640403</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>40.91474738706005</v>
+        <v>40.91474738706007</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>4.582657431210691</v>
+        <v>4.582657431210606</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>52.37332331639523</v>
+        <v>52.37332331639529</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>58.54041618098918</v>
+        <v>58.54041618098942</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>4.878739343113807</v>
+        <v>4.878739343113708</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>78.80422336335658</v>
+        <v>78.80422336335647</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>78.88791245334106</v>
+        <v>78.88791245334099</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>76.57370530093309</v>
+        <v>76.57370530093273</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>83.8479140653513</v>
+        <v>83.84791406535113</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>85.93866984785254</v>
+        <v>85.93866984785247</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>6.002935080416702</v>
+        <v>6.002935080416613</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>37.77837920780504</v>
+        <v>37.77837920780512</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>54.47699131179547</v>
+        <v>54.47699131179545</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>12.13218864257405</v>
+        <v>12.13218864257388</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>39.85161045415136</v>
+        <v>39.85161045415151</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>43.37620931455307</v>
+        <v>43.37620931455325</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>3.053467165278285</v>
+        <v>3.053467165278249</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>36.02560337860636</v>
+        <v>36.0256033786065</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>44.36498148987975</v>
+        <v>44.3649814898798</v>
       </c>
     </row>
     <row r="270">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>56.74573173656517</v>
+        <v>56.74573173656536</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>36.97312521506156</v>
+        <v>36.97312521506167</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>31.52204766662718</v>
+        <v>31.52204766662733</v>
       </c>
     </row>
     <row r="274">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>52.6591106740179</v>
+        <v>52.65911067401787</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>13.79411438080679</v>
+        <v>13.79411438080677</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>31.74031151107374</v>
+        <v>31.74031151107376</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>40.4490391049956</v>
+        <v>40.44903910499546</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>13.67861886215226</v>
+        <v>13.67861886215234</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>32.11344697790233</v>
+        <v>32.1134469779022</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>41.27142449182596</v>
+        <v>41.27142449182604</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>3.389316253306035</v>
+        <v>3.389316253306095</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>15.43897974487416</v>
+        <v>15.43897974487414</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>27.59459312173144</v>
+        <v>27.59459312173131</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>7.127521389209093</v>
+        <v>7.12752138920921</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>38.49241111062344</v>
+        <v>38.49241111062349</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>63.27061030140922</v>
+        <v>63.27061030140932</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>36.24252679714741</v>
+        <v>36.24252679714743</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>57.98809476837047</v>
+        <v>57.98809476837053</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>65.24235318871268</v>
+        <v>65.24235318871258</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>11.83797398027398</v>
+        <v>11.83797398027407</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>33.19618760766165</v>
+        <v>33.19618760766175</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>49.09980716056972</v>
+        <v>49.0998071605696</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>69.41283345702998</v>
+        <v>69.41283345702986</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>65.61484787745481</v>
+        <v>65.61484787745475</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>73.83019746952985</v>
+        <v>73.83019746952999</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>75.23198728640062</v>
+        <v>75.23198728640071</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>27.18650283327369</v>
+        <v>27.18650283327387</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>68.60859733530899</v>
+        <v>68.60859733530874</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>69.23254765268457</v>
+        <v>69.23254765268463</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.13459560853568</v>
+        <v>29.13459560853577</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>45.99609964792798</v>
+        <v>45.99609964792821</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>45.75807344239958</v>
+        <v>45.75807344239941</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>2.869768540023532</v>
+        <v>2.86976854002361</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>46.13745131257187</v>
+        <v>46.13745131257189</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>45.06815405259123</v>
+        <v>45.06815405259144</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>4.382403015308864</v>
+        <v>4.382403015308949</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>70.50657114832913</v>
+        <v>70.50657114832921</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>72.03630644290558</v>
+        <v>72.03630644290547</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>76.40177828482319</v>
+        <v>76.40177828482292</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>81.48796292033306</v>
+        <v>81.48796292033308</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>81.52496502083514</v>
+        <v>81.52496502083517</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.06746142283952</v>
+        <v>29.06746142283945</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>77.19379659042821</v>
+        <v>77.19379659042849</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>79.3086623255827</v>
+        <v>79.30866232558246</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>67.50551419035611</v>
+        <v>67.5055141903561</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>62.04139966088069</v>
+        <v>62.04139966088085</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>72.45216593750851</v>
+        <v>72.45216593750821</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>73.12862308348318</v>
+        <v>73.12862308348302</v>
       </c>
     </row>
     <row r="320">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>65.61291664870765</v>
+        <v>65.61291664870745</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>66.08525780146306</v>
+        <v>66.08525780146303</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>16.36125471167432</v>
+        <v>16.36125471167428</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>40.98383176126897</v>
+        <v>40.98383176126914</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>42.02060815640544</v>
+        <v>42.02060815640539</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>2.698272782761229</v>
+        <v>2.698272782761251</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>46.7407742526771</v>
+        <v>46.74077425267706</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>43.87160120374656</v>
+        <v>43.87160120374648</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>5.765303969904071</v>
+        <v>5.765303969904082</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>71.3247850361839</v>
+        <v>71.32478503618341</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>72.93428778464855</v>
+        <v>72.93428778464835</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>80.06631468249741</v>
+        <v>80.06631468249745</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>85.53749132489546</v>
+        <v>85.53749132489574</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>86.17755585908496</v>
+        <v>86.17755585908503</v>
       </c>
     </row>
     <row r="335">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>77.14260640582708</v>
+        <v>77.14260640582688</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>79.09095942675192</v>
+        <v>79.09095942675208</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>70.38748341818196</v>
+        <v>70.38748341818192</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>40.69266686092151</v>
+        <v>40.69266686092143</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>53.13977308650385</v>
+        <v>53.13977308650384</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>60.84009140881705</v>
+        <v>60.84009140881692</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>11.13631920734766</v>
+        <v>11.1363192073476</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>64.11072612405999</v>
+        <v>64.11072612406016</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>69.85420598639088</v>
+        <v>69.8542059863906</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>10.17800932218865</v>
+        <v>10.1780093221887</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>41.38427458151155</v>
+        <v>41.38427458151157</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>45.58541068632708</v>
+        <v>45.58541068632692</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>2.449396784236146</v>
+        <v>2.44939678423615</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>43.58300901062685</v>
+        <v>43.58300901062687</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>49.36449588158659</v>
+        <v>49.36449588158662</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>3.250125876115177</v>
+        <v>3.250125876115362</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>66.6889266913507</v>
+        <v>66.68892669135076</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>74.60501058323857</v>
+        <v>74.60501058323851</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>71.48268947127937</v>
+        <v>71.4826894712796</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>79.97165867685757</v>
+        <v>79.97165867685744</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>86.48913401417687</v>
+        <v>86.48913401417676</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>8.06097605805672</v>
+        <v>8.060976058056983</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>74.54172311029268</v>
+        <v>74.54172311029289</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>81.25113431252328</v>
+        <v>81.25113431252346</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>13.15778876775845</v>
+        <v>13.15778876775831</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>14.01351362388495</v>
+        <v>14.01351362388506</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>21.6494357425344</v>
+        <v>21.64943574253464</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>2.784800187635973</v>
+        <v>2.784800187635753</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>12.74761248975964</v>
+        <v>12.74761248975946</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>14.52128918726322</v>
+        <v>14.52128918726298</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>7.961242772348097</v>
+        <v>7.961242772348111</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>26.1460713427196</v>
+        <v>26.1460713427194</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>27.33899317360837</v>
+        <v>27.3389931736084</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>13.7510620735814</v>
+        <v>13.75106207358073</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>17.88286083460103</v>
+        <v>17.8828608346009</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>19.49173905349857</v>
+        <v>19.4917390534985</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>21.32362764851819</v>
+        <v>21.32362764851885</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>20.76534612638632</v>
+        <v>20.76534612638648</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>32.93701087756559</v>
+        <v>32.93701087756591</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>10.72725426690446</v>
+        <v>10.72725426690445</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>22.44780800581711</v>
+        <v>22.44780800581713</v>
       </c>
     </row>
     <row r="377">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>2.210543329953545</v>
+        <v>2.210543329953808</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>6.81267169429805</v>
+        <v>6.812671694298469</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>8.683085083751852</v>
+        <v>8.683085083751795</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>2.403536270893156</v>
+        <v>2.403536270893106</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>14.48291282360746</v>
+        <v>14.48291282360755</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>17.80380828314102</v>
+        <v>17.80380828314081</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>21.95115180730567</v>
+        <v>21.95115180730588</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>21.90510779705181</v>
+        <v>21.90510779705174</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>2.854717901485291</v>
+        <v>2.854717901485262</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>24.39349921467461</v>
+        <v>24.39349921467428</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>26.23263108413915</v>
+        <v>26.23263108413925</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>7.65926587775072</v>
+        <v>7.659265877750759</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>34.46074757602022</v>
+        <v>34.46074757602048</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>34.31484518716303</v>
+        <v>34.31484518716319</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>38.27316658664058</v>
+        <v>38.27316658664074</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>43.07537605725322</v>
+        <v>43.07537605725302</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>44.86676195396488</v>
+        <v>44.86676195396446</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>28.10604943968461</v>
+        <v>28.10604943968466</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.09656815286429</v>
+        <v>45.09656815286399</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>46.70948411353049</v>
+        <v>46.70948411353045</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>14.25590270158672</v>
+        <v>14.25590270158668</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>30.70676978645243</v>
+        <v>30.70676978645219</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>36.97502099886562</v>
+        <v>36.9750209988656</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>2.535297325657336</v>
+        <v>2.535297325657314</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.33471474109237</v>
+        <v>29.33471474109222</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>40.28899517468586</v>
+        <v>40.28899517468577</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>3.94179977976334</v>
+        <v>3.941799779763397</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>48.82174028599465</v>
+        <v>48.82174028599459</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>8.298939578778636</v>
+        <v>8.298939578778612</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>17.59567690508008</v>
+        <v>17.59567690507997</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>19.86835741716558</v>
+        <v>19.86835741716573</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>1.122199492884207</v>
+        <v>1.122199492884199</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>24.3734583303619</v>
+        <v>24.37345833036226</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>26.17376850406576</v>
+        <v>26.17376850406552</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>6.73271175039967</v>
+        <v>6.732711750399723</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>36.93863382979814</v>
+        <v>36.93863382979793</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>39.90571420839161</v>
+        <v>39.90571420839164</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>41.02818701530988</v>
+        <v>41.02818701531018</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>42.58580797850253</v>
+        <v>42.58580797850294</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>48.1242861675295</v>
+        <v>48.12428616752879</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>16.90252076612235</v>
+        <v>16.90252076612207</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>33.07095540411098</v>
+        <v>33.07095540411071</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>39.27913603653344</v>
+        <v>39.27913603653362</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>7.016414658077871</v>
+        <v>7.016414658077707</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>26.62865202108844</v>
+        <v>26.62865202108841</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>36.19192358114874</v>
+        <v>36.19192358114887</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>2.241556127638347</v>
+        <v>2.2415561276385</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>19.31080768516185</v>
+        <v>19.31080768516178</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>38.42673566691785</v>
+        <v>38.42673566691806</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>3.295867463357702</v>
+        <v>3.295867463357652</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>34.34120065616158</v>
+        <v>34.34120065616142</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>6.727872181930383</v>
+        <v>6.727872181930021</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>12.8050180145103</v>
+        <v>12.80501801451033</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>17.60779271140989</v>
+        <v>17.60779271140978</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>1.250149846635363</v>
+        <v>1.250149846635246</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>19.60883117188878</v>
+        <v>19.60883117188876</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>27.0152148448661</v>
+        <v>27.01521484486597</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>3.362297236840536</v>
+        <v>3.36229723684016</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>32.61486583173863</v>
+        <v>32.61486583173834</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>36.57903094228841</v>
+        <v>36.57903094228818</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>32.76750669988328</v>
+        <v>32.7675066998834</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>35.28859615953708</v>
+        <v>35.28859615953741</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>40.47732457268181</v>
+        <v>40.47732457268176</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>16.60993205731195</v>
+        <v>16.60993205731199</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.70696806326176</v>
+        <v>29.70696806326217</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>38.79766395248178</v>
+        <v>38.79766395248167</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>5.159797164655792</v>
+        <v>5.159797164655739</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>21.92564257142235</v>
+        <v>21.92564257142215</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>32.87824585519328</v>
+        <v>32.87824585519319</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>2.709328270740549</v>
+        <v>2.709328270740347</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>17.95701900481372</v>
+        <v>17.95701900481355</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>37.70311138758007</v>
+        <v>37.70311138757987</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>1.772415289254617</v>
+        <v>1.77241528925455</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.44820108152392</v>
+        <v>29.44820108152424</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>18.88098405541285</v>
+        <v>18.88098405541292</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>18.44097592422064</v>
+        <v>18.44097592422056</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>36.88820653192128</v>
+        <v>36.88820653192161</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>43.68310574416405</v>
+        <v>43.68310574416397</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>4.239733593736108</v>
+        <v>4.239733593736378</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>11.77160264681746</v>
+        <v>11.77160264681753</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>19.52665387586156</v>
+        <v>19.52665387586166</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>11.62371097359651</v>
+        <v>11.62371097359636</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>20.86177008237577</v>
+        <v>20.86177008237557</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>30.33399575795229</v>
+        <v>30.33399575795224</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>2.013919665577632</v>
+        <v>2.013919665577589</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>5.848049631523953</v>
+        <v>5.848049631523928</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>9.700819279067463</v>
+        <v>9.700819279067492</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>2.797636421869207</v>
+        <v>2.797636421869232</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>15.51388594587184</v>
+        <v>15.51388594587215</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>26.01950425896965</v>
+        <v>26.0195042589698</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>19.40186306251312</v>
+        <v>19.40186306251343</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>38.99726320937658</v>
+        <v>38.99726320937684</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>45.95905816343267</v>
+        <v>45.95905816343265</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>5.170817868369515</v>
+        <v>5.170817868369479</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>15.33473909488985</v>
+        <v>15.3347390948895</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>22.40625375286727</v>
+        <v>22.40625375286755</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>60.6651357151832</v>
+        <v>60.66513571518306</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>51.46335585950758</v>
+        <v>51.46335585950754</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>64.42485749043547</v>
+        <v>64.42485749043584</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>67.35212023933249</v>
+        <v>67.35212023933238</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>13.78369478071933</v>
+        <v>13.78369478071912</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>60.26973393328795</v>
+        <v>60.2697339332874</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>64.59535045413162</v>
+        <v>64.59535045413125</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>23.93636679416789</v>
+        <v>23.93636679416801</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>39.08589691443859</v>
+        <v>39.08589691443862</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>44.75079267745301</v>
+        <v>44.7507926774533</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>4.443618498942914</v>
+        <v>4.443618498942776</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>35.86121485559157</v>
+        <v>35.8612148555918</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>46.24977131146382</v>
+        <v>46.24977131146426</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>9.350054001366392</v>
+        <v>9.350054001366182</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>63.1239987107577</v>
+        <v>63.12399871075814</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>70.28692033857506</v>
+        <v>70.28692033857448</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>73.0362387491143</v>
+        <v>73.03623874911466</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>81.28477229865743</v>
+        <v>81.28477229865749</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>86.88207650478364</v>
+        <v>86.8820765047837</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>28.4232536220041</v>
+        <v>28.42325362200394</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>77.19988444878959</v>
+        <v>77.19988444878967</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>80.62300685664435</v>
+        <v>80.6230068566442</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>62.93220860194741</v>
+        <v>62.93220860194761</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>34.00580376463066</v>
+        <v>34.00580376463042</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>46.63536683145603</v>
+        <v>46.63536683145607</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>66.10254105358693</v>
+        <v>66.10254105358706</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>5.363741284704872</v>
+        <v>5.363741284704908</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>48.13619337462272</v>
+        <v>48.13619337462238</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>59.41657613555885</v>
+        <v>59.41657613555862</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>13.37433799069474</v>
+        <v>13.37433799069478</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>33.16162314669557</v>
+        <v>33.16162314669586</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>43.25400805141213</v>
+        <v>43.25400805141206</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>3.206991975109034</v>
+        <v>3.206991975109116</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>32.07452850635931</v>
+        <v>32.07452850635914</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>45.49853847356988</v>
+        <v>45.49853847357008</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>5.937074424278961</v>
+        <v>5.937074424278904</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>54.10374538537158</v>
+        <v>54.10374538537151</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>73.67086677590432</v>
+        <v>73.67086677590441</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>62.94841293920997</v>
+        <v>62.94841293921</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>73.22598947096436</v>
+        <v>73.22598947096451</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>87.84292428802561</v>
+        <v>87.84292428802556</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>15.61598181694421</v>
+        <v>15.61598181694422</v>
       </c>
     </row>
     <row r="516">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>77.22849343028412</v>
+        <v>77.2284934302842</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>57.11507414015023</v>
+        <v>57.11507414015052</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>20.68123550648892</v>
+        <v>20.68123550648879</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>28.67805638977667</v>
+        <v>28.67805638977679</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>46.85639975746831</v>
+        <v>46.85639975746822</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>4.522835886300474</v>
+        <v>4.522835886300438</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>37.1557659420714</v>
+        <v>37.15576594207164</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>53.26448358619861</v>
+        <v>53.26448358619878</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>9.983630611673611</v>
+        <v>9.983630611673696</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>31.29125926246118</v>
+        <v>31.29125926246124</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>44.15304721401985</v>
+        <v>44.15304721401999</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>3.213345288736772</v>
+        <v>3.213345288736651</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.60788922128759</v>
+        <v>29.60788922128764</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>46.66392784034851</v>
+        <v>46.66392784034828</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>2.837698019430761</v>
+        <v>2.837698019430718</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>47.32501790515377</v>
+        <v>47.32501790515414</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>71.82248162788392</v>
+        <v>71.82248162788403</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>50.99733524451332</v>
+        <v>50.99733524451318</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>63.31692777828102</v>
+        <v>63.31692777828081</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>84.22045645064711</v>
+        <v>84.22045645064723</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>11.4023970535364</v>
+        <v>11.40239705353638</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>59.14901158764656</v>
+        <v>59.14901158764641</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>75.25366140621574</v>
+        <v>75.25366140621563</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>13.6073748261127</v>
+        <v>13.60737482611264</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>16.07735176291096</v>
+        <v>16.07735176291085</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>20.48073306022723</v>
+        <v>20.48073306022713</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>6.259328452641281</v>
+        <v>6.259328452641206</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>11.80650468763676</v>
+        <v>11.8065046876369</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>12.43028061266508</v>
+        <v>12.43028061266511</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>10.53324042697535</v>
+        <v>10.53324042697538</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>21.20753516647566</v>
+        <v>21.20753516647597</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>23.03811902756092</v>
+        <v>23.03811902756058</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>14.62578764459027</v>
+        <v>14.62578764458986</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>18.55471064357337</v>
+        <v>18.55471064357345</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>20.92372948240549</v>
+        <v>20.9237294824052</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>15.36613132800446</v>
+        <v>15.36613132800466</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>16.04670595763433</v>
+        <v>16.04670595763442</v>
       </c>
     </row>
     <row r="554">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>13.67185952100874</v>
+        <v>13.67185952100894</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>25.07662399528648</v>
+        <v>25.07662399528652</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>32.6576040741479</v>
+        <v>32.65760407414791</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>4.885705147000348</v>
+        <v>4.885705147000358</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>9.330444978403261</v>
+        <v>9.330444978403303</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>11.64458529349306</v>
+        <v>11.64458529349272</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>6.322747801886468</v>
+        <v>6.322747801886539</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>19.56658271939045</v>
+        <v>19.56658271939018</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>16.91776370917101</v>
+        <v>16.91776370917114</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>21.69823096450186</v>
+        <v>21.69823096450185</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>20.38558888481405</v>
+        <v>20.38558888481386</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>6.591627275090413</v>
+        <v>6.59162727509052</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>21.65698171610308</v>
+        <v>21.65698171610328</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>24.1193472503965</v>
+        <v>24.11934725039654</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>9.826139287985427</v>
+        <v>9.82613928798548</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>30.49945058905282</v>
+        <v>30.49945058905273</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.81531664781869</v>
+        <v>29.81531664781895</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>33.29451426824508</v>
+        <v>33.29451426824516</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>38.53599081588489</v>
+        <v>38.53599081588513</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>39.55966075446434</v>
+        <v>39.55966075446454</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>18.98034117263247</v>
+        <v>18.9803411726326</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>32.41888026292328</v>
+        <v>32.41888026292343</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>32.65489892670372</v>
+        <v>32.65489892670385</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>15.48336223469405</v>
+        <v>15.4833622346942</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>31.70868449359111</v>
+        <v>31.70868449359072</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>36.2643331563706</v>
+        <v>36.26433315637068</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>5.492052998142043</v>
+        <v>5.492052998142228</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.89927794665872</v>
+        <v>28.89927794665864</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>37.70766148531629</v>
+        <v>37.70766148531622</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>7.000817764584415</v>
+        <v>7.00081776458449</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>48.28904379671219</v>
+        <v>48.28904379671233</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>10.28636328734533</v>
+        <v>10.28636328734498</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>16.44986746642793</v>
+        <v>16.44986746642797</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>17.58576193510601</v>
+        <v>17.58576193510633</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>4.826742863333681</v>
+        <v>4.826742863333731</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>20.27378700886199</v>
+        <v>20.27378700886196</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>21.43596833591138</v>
+        <v>21.43596833591101</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>8.825645454506159</v>
+        <v>8.825645454506144</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.62056679456338</v>
+        <v>29.62056679456348</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>31.88716205775722</v>
+        <v>31.88716205775685</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>33.38914483625431</v>
+        <v>33.38914483625412</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>36.33905359559071</v>
+        <v>36.3390535955908</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>39.91377096359387</v>
+        <v>39.91377096359437</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>12.5085185671716</v>
+        <v>12.50851856717161</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>22.09391319883948</v>
+        <v>22.0939131988394</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>25.65647721387258</v>
+        <v>25.65647721387263</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>9.253833148704871</v>
+        <v>9.253833148704885</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.12004280499023</v>
+        <v>26.12004280498993</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>35.99605517074835</v>
+        <v>35.99605517074805</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>4.619390436699057</v>
+        <v>4.619390436699074</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>19.6068531467934</v>
+        <v>19.60685314679319</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>36.49823335866148</v>
+        <v>36.49823335866155</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>6.413687192139495</v>
+        <v>6.413687192139573</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>31.92527453978101</v>
+        <v>31.92527453978098</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>9.087332181473556</v>
+        <v>9.087332181473577</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>13.38481136866138</v>
+        <v>13.38481136866131</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>16.72625795836019</v>
+        <v>16.72625795836023</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>4.916058484602949</v>
+        <v>4.916058484603145</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>16.69579098247262</v>
+        <v>16.69579098247237</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>22.65632048242371</v>
+        <v>22.65632048242378</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>6.579047065737821</v>
+        <v>6.579047065737921</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>26.74491760659105</v>
+        <v>26.74491760659138</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>30.6316945287909</v>
+        <v>30.63169452879066</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.8973803397012</v>
+        <v>25.89738033970156</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.13708179620249</v>
+        <v>29.1370817962026</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>32.84741417695484</v>
+        <v>32.84741417695481</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>12.50252857288821</v>
+        <v>12.50252857288822</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>21.51148817296234</v>
+        <v>21.51148817296249</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>24.93807260108733</v>
+        <v>24.93807260108722</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>8.255433287455148</v>
+        <v>8.25543328745507</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>22.74804111819025</v>
+        <v>22.74804111819013</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>33.12216548310314</v>
+        <v>33.12216548310325</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>5.253365754711872</v>
+        <v>5.253365754711766</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>18.46278022559154</v>
+        <v>18.46278022559145</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>35.0443291298345</v>
+        <v>35.04432912983429</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>5.732914131195745</v>
+        <v>5.732914131195646</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.95269494053311</v>
+        <v>28.95269494053296</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>22.84922248937316</v>
+        <v>22.8492224893732</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>21.53946344619002</v>
+        <v>21.5394634461901</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>38.26543757803286</v>
+        <v>38.26543757803267</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>44.30005819324475</v>
+        <v>44.30005819324462</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>8.092416590341465</v>
+        <v>8.092416590341312</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>16.57251866249852</v>
+        <v>16.57251866249857</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>23.94113766635946</v>
+        <v>23.94113766635936</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>14.9654700503254</v>
+        <v>14.96547005032535</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>24.53928971377768</v>
+        <v>24.5392897137777</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>31.4942372777474</v>
+        <v>31.49423727774755</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>4.619750346120611</v>
+        <v>4.619750346120597</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>7.668964013633087</v>
+        <v>7.668964013633083</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>10.78900037220497</v>
+        <v>10.78900037220492</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>6.566981461886549</v>
+        <v>6.566981461886396</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>18.14400234743243</v>
+        <v>18.14400234743223</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>25.93033669936867</v>
+        <v>25.93033669936833</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>22.35762991551216</v>
+        <v>22.35762991551196</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>39.47436638513454</v>
+        <v>39.47436638513439</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>45.03860000047538</v>
+        <v>45.03860000047541</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>8.88792393188195</v>
+        <v>8.887923931882007</v>
       </c>
     </row>
     <row r="652">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>22.56571704406167</v>
+        <v>22.56571704406176</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>56.6639221854014</v>
+        <v>56.66392218540128</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>49.24765296770704</v>
+        <v>49.24765296770697</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>60.81737101535114</v>
+        <v>60.81737101535118</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>63.01297147677142</v>
+        <v>63.01297147677111</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>14.51758959297293</v>
+        <v>14.517589592973</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>57.97274694623847</v>
+        <v>57.9727469462387</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>60.49873933495437</v>
+        <v>60.49873933495488</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>23.74807037908081</v>
+        <v>23.74807037908101</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>38.74799717226229</v>
+        <v>38.74799717226255</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>43.17978158895878</v>
+        <v>43.17978158895875</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>6.832957007296375</v>
+        <v>6.832957007296478</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>34.15410657260186</v>
+        <v>34.15410657260213</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>44.00255654645552</v>
+        <v>44.00255654645558</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>12.47878596169421</v>
+        <v>12.47878596169424</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>60.34104349074043</v>
+        <v>60.34104349074062</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>64.3687519602791</v>
+        <v>64.3687519602793</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>66.30468850243916</v>
+        <v>66.30468850243915</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>74.86158168032861</v>
+        <v>74.86158168032858</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>78.24642788524409</v>
+        <v>78.24642788524405</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.20848729563265</v>
+        <v>28.2084872956323</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>73.03906221591791</v>
+        <v>73.03906221591815</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>75.16205577961975</v>
+        <v>75.16205577961978</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>58.57967636742415</v>
+        <v>58.5796763674244</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>33.10336318892976</v>
+        <v>33.10336318892975</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>45.37542319840524</v>
+        <v>45.37542319840526</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>62.66365280178997</v>
+        <v>62.6636528017899</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>8.060228940756787</v>
+        <v>8.060228940756645</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>46.6538381714667</v>
+        <v>46.65383817146666</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>57.17045415183114</v>
+        <v>57.17045415183105</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>13.78864316171233</v>
+        <v>13.7886431617123</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>31.92468054675558</v>
+        <v>31.92468054675554</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>41.21982032629336</v>
+        <v>41.21982032629339</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>5.39700303628841</v>
+        <v>5.397003036288254</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>30.89845613405343</v>
+        <v>30.89845613405366</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>43.92105120684121</v>
+        <v>43.92105120684113</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>8.460513593439074</v>
+        <v>8.46051359343895</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>50.1549214217373</v>
+        <v>50.15492142173747</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>66.90351968764311</v>
+        <v>66.90351968764313</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>57.93669542096421</v>
+        <v>57.93669542096431</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>68.21128813348462</v>
+        <v>68.21128813348489</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>78.31800251385881</v>
+        <v>78.31800251385857</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>17.77956480195728</v>
+        <v>17.77956480195703</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>62.95106745045034</v>
+        <v>62.95106745045047</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>72.27261084123523</v>
+        <v>72.27261084123532</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>54.47554833209496</v>
+        <v>54.47554833209497</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>22.61956982173275</v>
+        <v>22.61956982173279</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>31.8962993603149</v>
+        <v>31.89629936031493</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>47.22503244229239</v>
+        <v>47.22503244229215</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>7.963999447983014</v>
+        <v>7.963999447982964</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>36.58499696386671</v>
+        <v>36.58499696386645</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>52.09876366598127</v>
+        <v>52.09876366598111</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>12.08257113080746</v>
+        <v>12.08257113080749</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>31.29762430947033</v>
+        <v>31.29762430947032</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>43.21877326480148</v>
+        <v>43.21877326480141</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>5.954627155279944</v>
+        <v>5.954627155279809</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.85853300082737</v>
+        <v>29.85853300082718</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>44.31074573509649</v>
+        <v>44.31074573509645</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>6.874125169200092</v>
+        <v>6.874125169200205</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>46.48697259235304</v>
+        <v>46.48697259235296</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>66.80844008111666</v>
+        <v>66.80844008111679</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>50.07148949369753</v>
+        <v>50.07148949369729</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>62.02977400816329</v>
+        <v>62.02977400816324</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>77.28143436622831</v>
+        <v>77.28143436622835</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>14.11733817641141</v>
+        <v>14.11733817641143</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>58.40129651790819</v>
+        <v>58.40129651790803</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>70.73987079950568</v>
+        <v>70.7398707995057</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>12.2991473314351</v>
+        <v>12.29914733143512</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>17.78079001787436</v>
+        <v>17.78079001787452</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>31.83786752984775</v>
+        <v>31.83786752984785</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>1.44336063829995</v>
+        <v>1.4433606383</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>14.35245676126253</v>
+        <v>14.35245676126238</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>17.81077687661072</v>
+        <v>17.81077687661082</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>3.90829251546943</v>
+        <v>3.908292515469363</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>37.63028294658781</v>
+        <v>37.6302829465879</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>43.8556701360414</v>
+        <v>43.85567013604141</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>21.08972735368548</v>
+        <v>21.08972735368565</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>24.95491694568326</v>
+        <v>24.95491694568305</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>25.78635823935241</v>
+        <v>25.78635823935229</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>11.05673058895431</v>
+        <v>11.05673058895409</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>18.91115053618029</v>
+        <v>18.91115053618019</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>33.47200916954908</v>
+        <v>33.47200916954915</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>12.11499024068757</v>
+        <v>12.11499024068779</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>26.08267508898658</v>
+        <v>26.08267508898656</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>31.72643127824755</v>
+        <v>31.7264312782476</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>1.242122590995514</v>
+        <v>1.242122590995621</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>9.915868386781959</v>
+        <v>9.915868386781639</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>11.9507898877409</v>
+        <v>11.95078988774095</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>2.028300206339985</v>
+        <v>2.028300206340081</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>22.92482304573028</v>
+        <v>22.92482304573014</v>
       </c>
     </row>
     <row r="743">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>33.46068452515432</v>
+        <v>33.46068452515418</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>34.68062657697841</v>
+        <v>34.68062657697848</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>2.425044364515468</v>
+        <v>2.42504436451545</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>36.46145776576664</v>
+        <v>36.46145776576637</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>37.55894620102299</v>
+        <v>37.55894620102316</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>4.940438011561419</v>
+        <v>4.940438011561351</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>54.37245283872518</v>
+        <v>54.37245283872504</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>53.86321906130124</v>
+        <v>53.86321906130109</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>54.64785871135616</v>
+        <v>54.64785871135621</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>58.99196868401609</v>
+        <v>58.99196868401586</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>60.82128436801287</v>
+        <v>60.8212843680129</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>19.95252441642654</v>
+        <v>19.95252441642644</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>57.65691507252026</v>
+        <v>57.65691507252043</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>59.95790967236169</v>
+        <v>59.95790967236157</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>17.86131086390411</v>
+        <v>17.86131086390393</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>35.54927088540727</v>
+        <v>35.54927088540738</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>36.49821421536947</v>
+        <v>36.49821421536917</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>1.323718428408586</v>
+        <v>1.323718428408615</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>34.47000441115042</v>
+        <v>34.47000441115018</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>35.80337438162266</v>
+        <v>35.80337438162255</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>2.376047319783531</v>
+        <v>2.376047319783723</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>55.35934482975475</v>
+        <v>55.35934482975499</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>5.206720270456522</v>
+        <v>5.206720270456788</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>24.19005466889093</v>
+        <v>24.19005466889062</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.4829272163656</v>
+        <v>29.48292721636583</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>1.354551914956151</v>
+        <v>1.354551914956254</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>34.29406942851118</v>
+        <v>34.29406942851102</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>36.41129311046708</v>
+        <v>36.41129311046704</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>5.433720780107542</v>
+        <v>5.433720780107624</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>54.0446026923801</v>
+        <v>54.04460269238053</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>55.92504812665241</v>
+        <v>55.92504812665243</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>60.85844888040867</v>
+        <v>60.85844888040873</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>62.13352648218787</v>
+        <v>62.13352648218804</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>66.26509854987893</v>
+        <v>66.26509854987904</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>5.101510081831375</v>
+        <v>5.101510081830913</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>36.84374537078969</v>
+        <v>36.84374537078986</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>43.19965924472388</v>
+        <v>43.19965924472396</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>10.29224914602067</v>
+        <v>10.29224914602064</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>33.24868426162429</v>
+        <v>33.2486842616241</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>36.68468888549805</v>
+        <v>36.684688885498</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>2.1546478439429</v>
+        <v>2.154647843942929</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>30.00789542027124</v>
+        <v>30.00789542027144</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>39.80195662481572</v>
+        <v>39.80195662481565</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>4.858555453560854</v>
+        <v>4.858555453560832</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>47.24549528076638</v>
+        <v>47.24549528076629</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>3.951590121441903</v>
+        <v>3.951590121441985</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>16.50164015613267</v>
+        <v>16.5016401561326</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.43599407682488</v>
+        <v>28.43599407682513</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>0.8864465142942421</v>
+        <v>0.8864465142942564</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>18.24060477474121</v>
+        <v>18.24060477474122</v>
       </c>
     </row>
     <row r="794">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>2.322803734422823</v>
+        <v>2.322803734422873</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>46.81854963501757</v>
+        <v>46.81854963501748</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>55.34080233233266</v>
+        <v>55.3408023323326</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>51.44439784689557</v>
+        <v>51.44439784689541</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>55.49569825132962</v>
+        <v>55.49569825132966</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>61.7018412411669</v>
+        <v>61.70184124116671</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>5.326908389918316</v>
+        <v>5.326908389918088</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>34.23689685024466</v>
+        <v>34.23689685024446</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>45.46100976261825</v>
+        <v>45.46100976261826</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>6.579027974307579</v>
+        <v>6.579027974307635</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>27.67755484396178</v>
+        <v>27.67755484396162</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>33.87226219273992</v>
+        <v>33.87226219274002</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>1.904589489898374</v>
+        <v>1.904589489898516</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>23.1195686356733</v>
+        <v>23.11956863567316</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>37.06381643962497</v>
+        <v>37.06381643962533</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>2.26816705213249</v>
+        <v>2.268167052132362</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>38.37988932234411</v>
+        <v>38.37988932234417</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>23.54235950043247</v>
+        <v>23.54235950043234</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>21.99902422754839</v>
+        <v>21.99902422754837</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>36.38595683742737</v>
+        <v>36.38595683742742</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>41.48774542185846</v>
+        <v>41.48774542185826</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>7.407321909705789</v>
+        <v>7.407321909705686</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>17.40080921769119</v>
+        <v>17.4008092176911</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>24.28535054670905</v>
+        <v>24.28535054670915</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>9.399733012250419</v>
+        <v>9.399733012250422</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>22.14245956614757</v>
+        <v>22.14245956614784</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>33.15173148276303</v>
+        <v>33.15173148276313</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>1.744460679269565</v>
+        <v>1.744460679269601</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>8.011341227458523</v>
+        <v>8.011341227458779</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>13.41072090509015</v>
+        <v>13.41072090509022</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>3.313465505208523</v>
+        <v>3.313465505208438</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>21.38042262105325</v>
+        <v>21.38042262105319</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>39.50101000568793</v>
+        <v>39.50101000568814</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.55768566155075</v>
+        <v>25.5576856615508</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>46.19044290743545</v>
+        <v>46.19044290743548</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>52.4903096121579</v>
+        <v>52.490309612158</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>5.932719503308316</v>
+        <v>5.932719503308032</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>19.41017406297166</v>
+        <v>19.41017406297173</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>32.53816263563495</v>
+        <v>32.53816263563483</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>60.12169951103674</v>
+        <v>60.12169951103679</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>56.91630668885183</v>
+        <v>56.91630668885171</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>66.82413234108297</v>
+        <v>66.82413234108266</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>63.97860413817467</v>
+        <v>63.9786041381747</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>15.56834798453903</v>
+        <v>15.56834798453923</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>60.75581293948051</v>
+        <v>60.75581293948074</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>63.63092770882717</v>
+        <v>63.63092770882701</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>20.56870722099136</v>
+        <v>20.56870722099149</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>39.60471156370702</v>
+        <v>39.60471156370708</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>43.08776147268863</v>
+        <v>43.08776147268873</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>2.469961610607228</v>
+        <v>2.469961610607296</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>42.74494301694379</v>
+        <v>42.74494301694375</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>44.87312266107308</v>
+        <v>44.87312266107293</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>4.664822270767214</v>
+        <v>4.664822270767228</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>65.55927467706846</v>
+        <v>65.55927467706849</v>
       </c>
     </row>
     <row r="849">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>76.08315666052235</v>
+        <v>76.08315666052246</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>81.82646137576543</v>
+        <v>81.82646137576549</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>84.77416397653957</v>
+        <v>84.77416397653951</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>17.06332965460737</v>
+        <v>17.06332965460751</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>76.3796137014495</v>
+        <v>76.37961370144953</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>78.35278519497649</v>
+        <v>78.35278519497631</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>62.55477347561153</v>
+        <v>62.55477347561148</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>48.89248162253142</v>
+        <v>48.89248162253136</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>57.4740104907644</v>
+        <v>57.47401049076448</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>64.02765067735496</v>
+        <v>64.02765067735464</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>8.611539528250798</v>
+        <v>8.611539528250834</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>53.66433287772617</v>
+        <v>53.66433287772628</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>61.0213870127453</v>
+        <v>61.02138701274526</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>10.50047652910324</v>
+        <v>10.5004765291032</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>34.94050378945475</v>
+        <v>34.94050378945487</v>
       </c>
     </row>
     <row r="865">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>2.143045869604517</v>
+        <v>2.143045869604407</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>37.0840871023105</v>
+        <v>37.08408710231045</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>46.23920873147323</v>
+        <v>46.23920873147336</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>5.632957613829767</v>
+        <v>5.63295761382993</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>58.27895572895246</v>
+        <v>58.27895572895265</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>73.01827068949819</v>
+        <v>73.01827068949828</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>69.88303589250398</v>
+        <v>69.88303589250393</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>78.4971363208391</v>
+        <v>78.49713632083899</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>88.27118496364977</v>
+        <v>88.2711849636496</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>9.470650752512256</v>
+        <v>9.470650752512363</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>69.33007982258839</v>
+        <v>69.3300798225884</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>77.80553198699519</v>
+        <v>77.80553198699525</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>57.36034153789755</v>
+        <v>57.3603415378974</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>27.43870088780106</v>
+        <v>27.43870088780124</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>35.89685980963569</v>
+        <v>35.89685980963557</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>46.01313277422472</v>
+        <v>46.01313277422454</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>5.006515777055981</v>
+        <v>5.00651577705618</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>26.58895014302108</v>
+        <v>26.588950143021</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>54.95422542191076</v>
+        <v>54.95422542191091</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>6.370029150183143</v>
+        <v>6.370029150182997</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>31.53555381371166</v>
+        <v>31.53555381371154</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>43.19700207087496</v>
+        <v>43.1970020708749</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>1.320388615863841</v>
+        <v>1.320388615863926</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>30.36518978669957</v>
+        <v>30.36518978669955</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>45.8317921959605</v>
+        <v>45.83179219596057</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>1.472032837946443</v>
+        <v>1.472032837946507</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>47.61642356551449</v>
+        <v>47.61642356551477</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>70.90423341284611</v>
+        <v>70.90423341284628</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>53.06972932247808</v>
+        <v>53.06972932247795</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>65.82349660189409</v>
+        <v>65.82349660189433</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>85.67230002888499</v>
+        <v>85.67230002888482</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>6.490453316641879</v>
+        <v>6.49045331664205</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>60.30582394538112</v>
+        <v>60.30582394538122</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>77.95955083389782</v>
+        <v>77.95955083389777</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.656</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.477</v>
+        <v>16.922</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.709</v>
+        <v>13.181</v>
       </c>
     </row>
   </sheetData>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.214</v>
+        <v>1.362</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12.25199554807928</v>
+        <v>13.85883119720162</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>11.20891369505136</v>
+        <v>13.74885278865929</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>23.38728697669712</v>
+        <v>24.26659421972513</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.336124945261808</v>
+        <v>5.411189797120855</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.96191990052225</v>
+        <v>19.49213656744752</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.87099146918449</v>
+        <v>22.61536201921788</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6.58242223196407</v>
+        <v>8.550570303682019</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>33.79924391025281</v>
+        <v>33.32303263127483</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34.1598406813791</v>
+        <v>34.01622933346457</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>12.52334111973599</v>
+        <v>14.73499021573425</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>15.43330778482112</v>
+        <v>17.55590633164292</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>15.89894501456306</v>
+        <v>18.28346840611023</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>22.85995481712008</v>
+        <v>22.52295014745359</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>19.64363008015991</v>
+        <v>20.88202721831453</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>35.20974874936877</v>
+        <v>35.0473899313749</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.09925290498342</v>
+        <v>13.71556524349651</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.34097066467127</v>
+        <v>24.4163822241901</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36.32597473843865</v>
+        <v>34.66410396864056</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.991046927832443</v>
+        <v>8.57822584363684</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14.84748743694365</v>
+        <v>14.54414328807126</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17.86605919231359</v>
+        <v>17.36521080402085</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.105296642578832</v>
+        <v>4.99944551462427</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.40711961446008</v>
+        <v>19.20565117962847</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>20.15782831261303</v>
+        <v>20.75045088379987</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23.63180181844183</v>
+        <v>24.56869622172637</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>24.51621857728756</v>
+        <v>25.05828100096146</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.679789175666727</v>
+        <v>5.752195579177705</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>30.39059763934377</v>
+        <v>29.72962491723941</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>31.51943293650342</v>
+        <v>31.02627318426708</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7.500487053775856</v>
+        <v>9.083044711934591</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>38.10542054131831</v>
+        <v>38.0374267478597</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>36.98559140220366</v>
+        <v>37.28271309503557</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>38.85756422335964</v>
+        <v>38.87991202452059</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>41.6511214198111</v>
+        <v>42.21807606679795</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>42.88518436506035</v>
+        <v>43.36333253762989</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>32.19901190045503</v>
+        <v>30.11071439470232</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>40.07096554168449</v>
+        <v>40.30359063879102</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42.63586547229671</v>
+        <v>43.83994967147927</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>20.31491365981653</v>
+        <v>19.60651217832886</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>33.25056604700253</v>
+        <v>32.22880584660084</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>36.70258546865446</v>
+        <v>35.45975094382634</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>8.358717855355568</v>
+        <v>9.185246282830288</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>35.337653779264</v>
+        <v>33.33523938939872</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>42.22384311354808</v>
+        <v>40.0308412788528</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>51.7531712360632</v>
+        <v>48.1313770397228</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6.899855755035251</v>
+        <v>9.15938755481217</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>18.2673179568229</v>
+        <v>20.02883871193998</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>22.72602572674927</v>
+        <v>23.80548323879595</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.799477888920201</v>
+        <v>4.042723563265199</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.07503407974798</v>
+        <v>29.634018604352</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.68798925346628</v>
+        <v>31.07508812763829</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.848290405709921</v>
+        <v>8.646509230915562</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>40.63543400399087</v>
+        <v>40.40153174066135</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>43.16245714057366</v>
+        <v>42.94721323329246</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>44.04544066016031</v>
+        <v>43.58775934655541</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>45.50559155663174</v>
+        <v>45.44365884938649</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>52.1476042014129</v>
+        <v>50.52085451648165</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>16.34258381100084</v>
+        <v>17.35773316906631</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31.23823759240981</v>
+        <v>32.72532866484115</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>37.08515795884601</v>
+        <v>38.27373907614727</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>11.53563993230243</v>
+        <v>12.42755258590118</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30.48508510353355</v>
+        <v>29.57124790742412</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.57962568059519</v>
+        <v>34.99831567790278</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>8.532190944450704</v>
+        <v>8.766773394070611</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>28.16037618294401</v>
+        <v>26.71981136068864</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>40.66046252852314</v>
+        <v>39.11223971940416</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5.197723384074354</v>
+        <v>6.517800042953294</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>44.6092879376774</v>
+        <v>41.82526435653915</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4.677478819731029</v>
+        <v>7.090332503029675</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>11.37288868913229</v>
+        <v>14.36052627114542</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>19.83883976511353</v>
+        <v>21.5982042331097</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2.424365209828721</v>
+        <v>4.679714811506514</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>27.59434488018184</v>
+        <v>28.05052875184289</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>33.79815673143939</v>
+        <v>33.5164737095978</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2.851025998113826</v>
+        <v>5.197142552435103</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>39.35609682383577</v>
+        <v>39.09490714371703</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>41.34829177742007</v>
+        <v>41.59066783040933</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>39.94523649406988</v>
+        <v>38.80265463897417</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>41.38406735773763</v>
+        <v>40.73613241960466</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>47.68160208022788</v>
+        <v>45.67106284008</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>14.61839688970454</v>
+        <v>16.04249805080369</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>25.0950889445413</v>
+        <v>27.91722413575204</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>38.98890938080851</v>
+        <v>39.94842268149432</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>8.299549444477496</v>
+        <v>9.700234292059072</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>26.43774052304289</v>
+        <v>25.50773694739423</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>33.8631597698901</v>
+        <v>33.27090677028422</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>8.460018285875087</v>
+        <v>9.184077742393267</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>27.42634778130477</v>
+        <v>26.30543707229888</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>41.28354772331602</v>
+        <v>39.09268413306346</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2.224123463167096</v>
+        <v>4.339036725544066</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>38.99093089739423</v>
+        <v>36.48230205111295</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.48400336909742</v>
+        <v>23.58002437911554</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>20.82800624186504</v>
+        <v>20.95332625751917</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>41.7865592761775</v>
+        <v>39.07288377801838</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>46.66471727089477</v>
+        <v>44.56653135148204</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>7.190813992063358</v>
+        <v>8.435046124247702</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>16.16856713573548</v>
+        <v>16.65732698020369</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>24.56053617924536</v>
+        <v>23.57350568680578</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>12.07255032663454</v>
+        <v>12.74163863948107</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>20.2421434103921</v>
+        <v>20.86532802255719</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>33.15162070766969</v>
+        <v>31.4505553342104</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>7.825917365927687</v>
+        <v>8.355108260705876</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>13.00141239939694</v>
+        <v>12.895835876928</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>17.51911844103435</v>
+        <v>17.67334850938988</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>3.084483920666973</v>
+        <v>4.908372693729767</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>18.32779956620126</v>
+        <v>19.05427608314832</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>32.99507718546</v>
+        <v>32.86396943022773</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>21.13893904515336</v>
+        <v>21.52307243757173</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>46.45455821699993</v>
+        <v>43.57224689873551</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>53.41325725793435</v>
+        <v>49.99166841991564</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>5.713638890389703</v>
+        <v>7.710743641259651</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>18.32235915675429</v>
+        <v>18.37639133599128</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>27.23822669559172</v>
+        <v>27.25502201751976</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>60.49106892947796</v>
+        <v>57.5459702506202</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>54.15035883496743</v>
+        <v>50.8552879044915</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>65.68993320751628</v>
+        <v>61.90140417704748</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>69.14113863144945</v>
+        <v>64.70669436857477</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>20.53173968894258</v>
+        <v>19.9887874140379</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>60.13582656273379</v>
+        <v>56.48684049191228</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>62.76975310976509</v>
+        <v>59.17691078713613</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24.60709705604823</v>
+        <v>24.44912322464278</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>38.57636343633492</v>
+        <v>37.49834083894054</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>44.63754130764312</v>
+        <v>42.69150336787654</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>9.469931961747804</v>
+        <v>10.27769331485745</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>41.30618971250002</v>
+        <v>39.32791330189541</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>48.76718655506374</v>
+        <v>46.27993171927845</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>6.492987050088036</v>
+        <v>9.120473035015642</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>62.22025599796949</v>
+        <v>58.82013287651441</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>72.03641274747865</v>
+        <v>67.68387854138963</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>70.55895721372127</v>
+        <v>67.22552557714245</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>81.83513346043492</v>
+        <v>77.41285919429991</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>88.04249439112846</v>
+        <v>82.47518860622655</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>26.63998586484396</v>
+        <v>26.72437473846239</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>76.63306195606819</v>
+        <v>71.40602984892296</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>78.10407953683364</v>
+        <v>73.54366289524951</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>64.71154191809057</v>
+        <v>60.79013233696237</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>41.54325808965424</v>
+        <v>39.22355280387901</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>50.57891870910233</v>
+        <v>47.86224263508417</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>67.06344185374448</v>
+        <v>62.99730876309182</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>11.54898811220973</v>
+        <v>11.97687806293936</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>51.99464653207704</v>
+        <v>49.28723838873346</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>14.88126309267206</v>
+        <v>15.91539976005492</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>33.38433677040248</v>
+        <v>33.43702286753638</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>43.25969225009312</v>
+        <v>42.0159064382383</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>9.141232585436416</v>
+        <v>9.152450597710036</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>37.45036164351312</v>
+        <v>35.99566370285834</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>47.92578982945879</v>
+        <v>45.46326066713181</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>6.313668865019164</v>
+        <v>8.223876929050828</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>57.36247956912371</v>
+        <v>54.32444353702193</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>76.31881732787676</v>
+        <v>71.5520401691771</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>65.84319126774241</v>
+        <v>62.22327458158109</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>75.80636376186681</v>
+        <v>71.5730991154104</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>89.42867201606556</v>
+        <v>83.72536357006045</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>15.68785871352898</v>
+        <v>16.57277640066958</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>65.15534375834355</v>
+        <v>61.41460757719969</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>74.92220477501451</v>
+        <v>70.73383383595501</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>57.51306568793653</v>
+        <v>54.39298826461025</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>25.49108757592593</v>
+        <v>25.39615248678691</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>32.94519883316523</v>
+        <v>31.73868141748998</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>47.81180870524015</v>
+        <v>45.89835008624972</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>8.461297178330035</v>
+        <v>9.596800628795524</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>46.01047008420733</v>
+        <v>43.29648453759334</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>54.60211267190883</v>
+        <v>51.92932610060095</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>11.81713089331077</v>
+        <v>13.18216437542458</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>31.85089921093756</v>
+        <v>31.46268085185214</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>45.8535089268422</v>
+        <v>44.21171661999261</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>9.380819097725087</v>
+        <v>10.08762455849147</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>35.78810281366675</v>
+        <v>33.57639533967387</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>51.70294230479904</v>
+        <v>48.6025372659871</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>3.023777198934244</v>
+        <v>4.756750747725274</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>51.49489765908992</v>
+        <v>48.54977725146543</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>74.87345114475669</v>
+        <v>70.08718011704873</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>56.53158564636044</v>
+        <v>52.51954181103628</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>68.58279746598095</v>
+        <v>63.65370042897661</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>89.00136652115211</v>
+        <v>82.52710431831352</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>13.06566908515673</v>
+        <v>14.13018271030669</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>62.36270556700674</v>
+        <v>57.70130867545973</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>77.52023768023267</v>
+        <v>72.4823527011114</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>18.96130323994139</v>
+        <v>19.12443570694419</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>27.08914094547414</v>
+        <v>24.96394039912017</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>45.16003518962543</v>
+        <v>35.95566721059681</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>4.163571421678643</v>
+        <v>9.666656872160843</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>36.09420236781204</v>
+        <v>29.03039879938061</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>43.52454855204908</v>
+        <v>33.32236844722351</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>7.971255089124167</v>
+        <v>12.39216646330224</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>70.92364873381875</v>
+        <v>50.93949542757716</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>74.60689268650364</v>
+        <v>53.63585159076948</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>30.18019242444415</v>
+        <v>26.36508219077687</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>33.56752659306154</v>
+        <v>29.25313177511221</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>34.87656699601405</v>
+        <v>30.45695497593874</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>20.70712446342453</v>
+        <v>20.26566561423314</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.93049698011803</v>
+        <v>26.0654560787801</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>58.92645552967435</v>
+        <v>42.8857329434242</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>18.20668439679152</v>
+        <v>19.51837808846588</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>37.46909080016642</v>
+        <v>32.61800756609789</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>39.42723199188045</v>
+        <v>35.54076254240152</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>2.938116260127739</v>
+        <v>8.891159325266283</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>18.41552291558033</v>
+        <v>19.63390730615799</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>23.44542746028761</v>
+        <v>23.17289284034857</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>6.013868841493583</v>
+        <v>10.47193243230141</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>37.26108555210696</v>
+        <v>32.71465978453519</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>34.6493803362147</v>
+        <v>28.0783444359773</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>49.99882832610537</v>
+        <v>38.78794629280751</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>49.52997334572264</v>
+        <v>38.51013191240058</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>4.802336644074305</v>
+        <v>10.48173191784067</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>51.66402005345306</v>
+        <v>39.92709527513726</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>52.01063992062716</v>
+        <v>40.99864193575653</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>8.346838216040645</v>
+        <v>12.68159725692858</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>78.03957979291623</v>
+        <v>57.08056816600181</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>74.02471580929578</v>
+        <v>54.61403870329417</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>64.75124776563086</v>
+        <v>50.02691078792368</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>73.63860526574385</v>
+        <v>55.99189151469641</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>72.23682574576188</v>
+        <v>55.37245251175264</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>34.21215882478502</v>
+        <v>27.63222863255779</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>63.23295724366034</v>
+        <v>47.44464328160201</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>69.03715796706778</v>
+        <v>52.12742678682338</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>27.75451812525828</v>
+        <v>25.23946773240491</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>44.32649018141963</v>
+        <v>38.693409489952</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>43.81867892276754</v>
+        <v>39.11833858565564</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>2.907103094712127</v>
+        <v>9.530847195242533</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>37.56149207726482</v>
+        <v>34.93388417399072</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>41.09442349584891</v>
+        <v>37.63544917203861</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>6.283674763244441</v>
+        <v>11.02982042872091</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>63.04608811881496</v>
+        <v>53.32570682598647</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>7.892866719990653</v>
+        <v>12.41040619888896</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>31.94388827118422</v>
+        <v>27.60508479891243</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>39.05345451511967</v>
+        <v>32.44007529458924</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>3.460466823057793</v>
+        <v>9.457413229430799</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>51.2187063908942</v>
+        <v>38.9627499491261</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>50.73338602712837</v>
+        <v>39.3923330416263</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>5.663552270150813</v>
+        <v>11.83568567883577</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>74.60599698905625</v>
+        <v>54.28437016433157</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>73.41805855141186</v>
+        <v>54.69392121005865</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>82.78230714526097</v>
+        <v>59.89587756321404</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>92.41655192949844</v>
+        <v>66.05726909632517</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>83.85270220388304</v>
+        <v>62.76261055015715</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>4.700725251956772</v>
+        <v>10.98564016772808</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>36.9778274831436</v>
+        <v>31.57792911743687</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>48.28742197372436</v>
+        <v>38.73638938105736</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>18.05707703467284</v>
+        <v>18.52167032608393</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>42.21734627588165</v>
+        <v>35.95202847596764</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>42.09381249618443</v>
+        <v>38.08924227483007</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>3.114931872446121</v>
+        <v>9.342054796600962</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>37.60791393903037</v>
+        <v>32.60775029814876</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>42.22348567475292</v>
+        <v>38.26702880740994</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>6.492931083811598</v>
+        <v>11.10829063952408</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>61.40679934905677</v>
+        <v>49.74378024919474</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>6.758486539900009</v>
+        <v>11.83601957145158</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>26.91727771640403</v>
+        <v>24.65221628702104</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>40.91474738706007</v>
+        <v>33.20371493751088</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>4.582657431210606</v>
+        <v>9.679924165492476</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>52.37332331639529</v>
+        <v>38.94984693631696</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>58.54041618098942</v>
+        <v>44.57851008387998</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>4.878739343113708</v>
+        <v>10.0269265334661</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>78.80422336335647</v>
+        <v>56.01597837730405</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>78.88791245334099</v>
+        <v>57.33492556391059</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>76.57370530093273</v>
+        <v>55.09079550396019</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>83.84791406535113</v>
+        <v>59.70022766860143</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>85.93866984785247</v>
+        <v>62.56300888234576</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>6.002935080416613</v>
+        <v>11.36958280325508</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>37.77837920780512</v>
+        <v>32.03512452158545</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>54.47699131179545</v>
+        <v>42.89980252747429</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>12.13218864257388</v>
+        <v>15.16467221277684</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>39.85161045415151</v>
+        <v>33.39656371536378</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>43.37620931455325</v>
+        <v>37.85433982786447</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>3.053467165278249</v>
+        <v>9.480389046993736</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>36.0256033786065</v>
+        <v>30.93458037218584</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>44.3649814898798</v>
+        <v>38.32562867838779</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>5.442098927419032</v>
+        <v>10.15899790667651</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>56.74573173656536</v>
+        <v>45.40581145785334</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>36.97312521506167</v>
+        <v>32.99302669147172</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>31.52204766662733</v>
+        <v>29.48439196455744</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>45.76126245740991</v>
+        <v>41.28492950387111</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>52.65911067401787</v>
+        <v>45.1629621215175</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>13.79411438080677</v>
+        <v>15.92139047283281</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>31.74031151107376</v>
+        <v>28.32622225644119</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>40.44903910499546</v>
+        <v>34.91006575121855</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>13.67861886215234</v>
+        <v>17.71523480827629</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>32.1134469779022</v>
+        <v>30.58457914037366</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>41.27142449182604</v>
+        <v>37.06914809171307</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>3.389316253306095</v>
+        <v>9.018506778490849</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>15.43897974487414</v>
+        <v>17.39983194349769</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>27.59459312173131</v>
+        <v>24.95385471180317</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>7.12752138920921</v>
+        <v>11.22580426199647</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>38.49241111062349</v>
+        <v>32.88049265513319</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>63.27061030140932</v>
+        <v>50.35737195866783</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>36.24252679714743</v>
+        <v>32.35143710814658</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>57.98809476837053</v>
+        <v>48.85396341395288</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>65.24235318871258</v>
+        <v>54.13622504212302</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>11.83797398027407</v>
+        <v>14.57581143568879</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>33.19618760766175</v>
+        <v>29.9250592549812</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>49.0998071605696</v>
+        <v>40.5716297645591</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>69.41283345702986</v>
+        <v>58.40900591544266</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>65.61484787745475</v>
+        <v>54.89276888352727</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>73.83019746952999</v>
+        <v>61.66604824799302</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>75.23198728640071</v>
+        <v>62.1409899783211</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>27.18650283327387</v>
+        <v>24.980940515054</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>68.60859733530874</v>
+        <v>57.75452033253148</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>69.23254765268463</v>
+        <v>59.01539688454065</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.13459560853577</v>
+        <v>27.87221518424803</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>45.99609964792821</v>
+        <v>41.07121675206966</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>45.75807344239941</v>
+        <v>42.21519802608413</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>2.86976854002361</v>
+        <v>9.899344168958851</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>46.13745131257189</v>
+        <v>41.49531019383392</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>45.06815405259144</v>
+        <v>42.39299614015614</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>4.382403015308949</v>
+        <v>11.6301282818493</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>70.50657114832921</v>
+        <v>60.94736649875108</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>72.03630644290547</v>
+        <v>62.40537454441936</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>76.40177828482292</v>
+        <v>65.97101816577278</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>81.48796292033308</v>
+        <v>70.42809794494325</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>81.52496502083517</v>
+        <v>71.25547084551798</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.06746142283945</v>
+        <v>28.74353469602194</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>77.19379659042849</v>
+        <v>66.89545099524749</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>79.30866232558246</v>
+        <v>68.43334878124307</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>67.5055141903561</v>
+        <v>57.91605718795181</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>62.04139966088085</v>
+        <v>50.01488277127325</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>72.45216593750821</v>
+        <v>57.79150886524616</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>73.12862308348302</v>
+        <v>61.51955380596308</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>15.5132399125116</v>
+        <v>17.36458893096785</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>65.61291664870745</v>
+        <v>54.37019515362839</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>66.08525780146303</v>
+        <v>56.4358969500929</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>16.36125471167428</v>
+        <v>18.82152561781444</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>40.98383176126914</v>
+        <v>37.10237506533852</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>42.02060815640539</v>
+        <v>40.00108578185787</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>2.698272782761251</v>
+        <v>9.22516861525424</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>46.74077425267706</v>
+        <v>40.45619227691239</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>43.87160120374648</v>
+        <v>41.27386862616413</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>5.765303969904082</v>
+        <v>11.2962716267545</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>71.32478503618341</v>
+        <v>59.41480791034911</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>72.93428778464835</v>
+        <v>63.33841152666676</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>80.06631468249745</v>
+        <v>65.9194269496911</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>85.53749132489574</v>
+        <v>70.58713177147635</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>86.17755585908503</v>
+        <v>73.88466358603965</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>11.16922335198293</v>
+        <v>16.80562173468522</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>77.14260640582688</v>
+        <v>65.27524812538182</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>79.09095942675208</v>
+        <v>67.97999267336314</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>70.38748341818192</v>
+        <v>58.02414395079449</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>40.69266686092143</v>
+        <v>35.27213787983968</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>53.13977308650384</v>
+        <v>43.70018567277005</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>60.84009140881692</v>
+        <v>50.95375516174611</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>11.1363192073476</v>
+        <v>14.73958486445058</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>64.11072612406016</v>
+        <v>50.82773654064097</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>69.8542059863906</v>
+        <v>57.19963738580827</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>10.1780093221887</v>
+        <v>15.35532728467967</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>41.38427458151157</v>
+        <v>36.89230812815828</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>45.58541068632692</v>
+        <v>42.40445920323086</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>2.44939678423615</v>
+        <v>9.398064417502976</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>43.58300901062687</v>
+        <v>38.53259394122724</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>49.36449588158662</v>
+        <v>44.73620172197803</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>3.250125876115362</v>
+        <v>9.855234654999617</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>66.68892669135076</v>
+        <v>55.72801539210132</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>74.60501058323851</v>
+        <v>63.90604115638131</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>71.4826894712796</v>
+        <v>60.07364743837394</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>79.97165867685744</v>
+        <v>67.18504216144127</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>86.48913401417676</v>
+        <v>73.55529466733508</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>8.060976058056983</v>
+        <v>14.37545937999271</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>74.54172311029289</v>
+        <v>63.25011233214212</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>81.25113431252346</v>
+        <v>69.52915600740344</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>13.15778876775831</v>
+        <v>14.8536970378623</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>14.01351362388506</v>
+        <v>15.71176008749529</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>21.64943574253464</v>
+        <v>23.73005090669565</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>2.784800187635753</v>
+        <v>5.352630002404588</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>12.74761248975946</v>
+        <v>16.49645285785533</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>14.52128918726298</v>
+        <v>18.56827027493496</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>7.961242772348111</v>
+        <v>9.61096988794527</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>26.1460713427194</v>
+        <v>29.55955350042051</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>27.3389931736084</v>
+        <v>30.73981974145617</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>13.75106207358073</v>
+        <v>15.73119535968711</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>17.8828608346009</v>
+        <v>19.29704749582059</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>19.4917390534985</v>
+        <v>20.49801607696735</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>21.32362764851885</v>
+        <v>21.88129931307211</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>20.76534612638648</v>
+        <v>21.38137240519688</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>32.93701087756591</v>
+        <v>33.9869223673435</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>10.72725426690445</v>
+        <v>13.07479943467449</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>22.44780800581713</v>
+        <v>24.01138918659563</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>33.28005390218635</v>
+        <v>33.21796826228986</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>2.210543329953808</v>
+        <v>5.653911130706796</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>6.812671694298469</v>
+        <v>10.81030045768349</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>8.683085083751795</v>
+        <v>13.61656322279629</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>2.403536270893106</v>
+        <v>4.8095826066005</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>14.48291282360755</v>
+        <v>17.44419161686877</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>17.80380828314081</v>
+        <v>19.65248694970021</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>21.95115180730588</v>
+        <v>23.72733330233389</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>21.90510779705174</v>
+        <v>23.88663589435922</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>2.854717901485262</v>
+        <v>5.8380959347257</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>24.39349921467428</v>
+        <v>27.000862840842</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>26.23263108413925</v>
+        <v>28.35475529680224</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>7.659265877750759</v>
+        <v>9.553875277463959</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>34.46074757602048</v>
+        <v>36.33132532331246</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>34.31484518716319</v>
+        <v>35.93548118963619</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>38.27316658664074</v>
+        <v>38.57902317324096</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>43.07537605725302</v>
+        <v>42.99208173472071</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>44.86676195396446</v>
+        <v>44.40273195924334</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>28.10604943968466</v>
+        <v>28.20107691409638</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.09656815286399</v>
+        <v>43.17875594555974</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>46.70948411353045</v>
+        <v>46.21381159661411</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>14.25590270158668</v>
+        <v>17.12804289957434</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>30.70676978645219</v>
+        <v>31.65513854071202</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>36.9750209988656</v>
+        <v>35.93530937276086</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>2.535297325657314</v>
+        <v>6.488647116985064</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.33471474109222</v>
+        <v>30.7636859115593</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>40.28899517468577</v>
+        <v>38.89762994205124</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>3.941799779763397</v>
+        <v>6.947440891518184</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>48.82174028599459</v>
+        <v>47.14839752775829</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>8.298939578778612</v>
+        <v>10.15353539531626</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>17.59567690507997</v>
+        <v>19.32355918437533</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>19.86835741716573</v>
+        <v>22.15396172286346</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>1.122199492884199</v>
+        <v>4.181567696962439</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>24.37345833036226</v>
+        <v>27.04139672447956</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>26.17376850406552</v>
+        <v>28.3750217785208</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>6.732711750399723</v>
+        <v>8.906086587026156</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>36.93863382979793</v>
+        <v>38.05731776194537</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>39.90571420839164</v>
+        <v>40.85024534369227</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>41.02818701531018</v>
+        <v>41.99778710560299</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>42.58580797850294</v>
+        <v>43.72644012233595</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>48.12428616752879</v>
+        <v>48.36887012777805</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>16.90252076612207</v>
+        <v>17.0032368131719</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>33.07095540411071</v>
+        <v>32.7862389352039</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>39.27913603653362</v>
+        <v>38.64138055688476</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>7.016414658077707</v>
+        <v>10.55084699381687</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>26.62865202108841</v>
+        <v>27.94596636009491</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>36.19192358114887</v>
+        <v>35.34350004814716</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>2.2415561276385</v>
+        <v>5.861726940047479</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>19.31080768516178</v>
+        <v>22.50643141743454</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>38.42673566691806</v>
+        <v>37.79483232885138</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>3.295867463357652</v>
+        <v>6.021788330549757</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>34.34120065616142</v>
+        <v>36.94011559331273</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>6.727872181930021</v>
+        <v>8.345860977139694</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>12.80501801451033</v>
+        <v>15.32273935530318</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>17.60779271140978</v>
+        <v>20.48679518272154</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>1.250149846635246</v>
+        <v>4.421467428819909</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>19.60883117188876</v>
+        <v>23.8077062206527</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>27.01521484486597</v>
+        <v>29.79146538373851</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>3.36229723684016</v>
+        <v>5.624609619198967</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>32.61486583173834</v>
+        <v>35.35299015215223</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>36.57903094228818</v>
+        <v>38.76239133729721</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>32.7675066998834</v>
+        <v>35.15620858654731</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>35.28859615953741</v>
+        <v>37.60164900556123</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>40.47732457268176</v>
+        <v>42.30778882460501</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>16.60993205731199</v>
+        <v>16.43614259435657</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.70696806326217</v>
+        <v>29.65409890715415</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>38.79766395248167</v>
+        <v>39.46255561577413</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>5.159797164655739</v>
+        <v>8.555947815391136</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>21.92564257142215</v>
+        <v>23.61278700224663</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>32.87824585519319</v>
+        <v>32.87731227054928</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>2.709328270740347</v>
+        <v>6.384907648861205</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>17.95701900481355</v>
+        <v>21.82186793281121</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>37.70311138757987</v>
+        <v>37.19185835101933</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>1.77241528925455</v>
+        <v>4.431551872051038</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.44820108152424</v>
+        <v>32.10190006165966</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>18.88098405541292</v>
+        <v>21.59940613816872</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>18.44097592422056</v>
+        <v>20.26867090905197</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>36.88820653192161</v>
+        <v>36.54557539813047</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>43.68310574416397</v>
+        <v>42.51022550002623</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>4.239733593736378</v>
+        <v>7.339520197180633</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>11.77160264681753</v>
+        <v>14.82924808886147</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>19.52665387586166</v>
+        <v>21.72386846871725</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>11.62371097359636</v>
+        <v>13.21475660959938</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>20.86177008237557</v>
+        <v>21.92291217286759</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>30.33399575795224</v>
+        <v>30.75142461187578</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>2.013919665577589</v>
+        <v>5.496874600055307</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>5.848049631523928</v>
+        <v>9.653616668355198</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>9.700819279067492</v>
+        <v>13.84217779796852</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>2.797636421869232</v>
+        <v>5.134018792046245</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>15.51388594587215</v>
+        <v>18.27486163342775</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>26.0195042589698</v>
+        <v>30.23343302976098</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>19.40186306251343</v>
+        <v>21.34789130471933</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>38.99726320937684</v>
+        <v>39.61679895680577</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>45.95905816343265</v>
+        <v>46.03755699760984</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>5.170817868369479</v>
+        <v>7.973650483977465</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>15.3347390948895</v>
+        <v>17.72246826782828</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>22.40625375286755</v>
+        <v>25.57480621095335</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>60.66513571518306</v>
+        <v>57.47802216697326</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>51.46335585950754</v>
+        <v>50.1789008207634</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>64.42485749043584</v>
+        <v>61.14706458719169</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>67.35212023933238</v>
+        <v>63.22787025204518</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>13.78369478071912</v>
+        <v>17.01791523634634</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>60.2697339332874</v>
+        <v>56.73307380144514</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>64.59535045413125</v>
+        <v>60.31803249233779</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>23.93636679416801</v>
+        <v>24.49108433067263</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>39.08589691443862</v>
+        <v>38.24499519440666</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>44.7507926774533</v>
+        <v>42.81954392641684</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>4.443618498942776</v>
+        <v>8.035212050619094</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>35.8612148555918</v>
+        <v>37.29313668281646</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>46.24977131146426</v>
+        <v>45.01800171056335</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>9.350054001366182</v>
+        <v>10.99143261946672</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>63.12399871075814</v>
+        <v>60.11199835962147</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>70.28692033857448</v>
+        <v>66.16375749474342</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>73.03623874911466</v>
+        <v>69.1777415561203</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>81.28477229865749</v>
+        <v>76.82199553752729</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>86.8820765047837</v>
+        <v>81.02046518323672</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>28.42325362200394</v>
+        <v>28.6508719382492</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>77.19988444878967</v>
+        <v>71.87570194058796</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>80.6230068566442</v>
+        <v>75.03125487381433</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>62.93220860194761</v>
+        <v>59.65756869251101</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>34.00580376463042</v>
+        <v>36.15694393636737</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>46.63536683145607</v>
+        <v>46.3118525279153</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>66.10254105358706</v>
+        <v>62.0807682024747</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>5.363741284704908</v>
+        <v>9.330376398459794</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>48.13619337462238</v>
+        <v>47.60356979351796</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>59.41657613555862</v>
+        <v>56.17270347678542</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>13.37433799069478</v>
+        <v>15.57805324026453</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>33.16162314669586</v>
+        <v>33.6228240671668</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>43.25400805141206</v>
+        <v>41.92089962776378</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>3.206991975109116</v>
+        <v>6.497139035195215</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>32.07452850635914</v>
+        <v>33.67799270312433</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>45.49853847357008</v>
+        <v>44.41129562080184</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>5.937074424278904</v>
+        <v>8.372267158437868</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>54.10374538537151</v>
+        <v>53.08787275132094</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>73.67086677590441</v>
+        <v>69.48315802621833</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>62.94841293921</v>
+        <v>61.30777702292532</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>73.22598947096451</v>
+        <v>70.20070784465481</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>87.84292428802556</v>
+        <v>82.16383567209866</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>15.61598181694422</v>
+        <v>17.18625263422988</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>65.47524379463748</v>
+        <v>62.59199537655336</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>77.2284934302842</v>
+        <v>72.51137103612865</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>57.11507414015052</v>
+        <v>54.17829334858411</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>20.68123550648879</v>
+        <v>23.90719041229933</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>28.67805638977679</v>
+        <v>30.33571697698009</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>46.85639975746822</v>
+        <v>45.42710509590053</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>4.522835886300438</v>
+        <v>7.919209324985815</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>37.15576594207164</v>
+        <v>38.93930020834896</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>53.26448358619878</v>
+        <v>51.38975028425386</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>9.983630611673696</v>
+        <v>12.68865537216592</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>31.29125926246124</v>
+        <v>31.53171517490044</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>44.15304721401999</v>
+        <v>43.06446063120528</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>3.213345288736651</v>
+        <v>7.136757787157752</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.60788922128764</v>
+        <v>31.17511245280876</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>46.66392784034828</v>
+        <v>45.59577953068447</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>2.837698019430718</v>
+        <v>5.325143909298063</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>47.32501790515414</v>
+        <v>47.3160631081124</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>71.82248162788403</v>
+        <v>67.94132147153184</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>50.99733524451318</v>
+        <v>51.19825186770427</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>63.31692777828081</v>
+        <v>61.63817983972451</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>84.22045645064723</v>
+        <v>79.47856510954523</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>11.40239705353638</v>
+        <v>13.78834876709024</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>59.14901158764641</v>
+        <v>57.16829474199528</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>75.25366140621563</v>
+        <v>71.67549118441133</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>13.60737482611264</v>
+        <v>18.20468884333658</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>16.07735176291085</v>
+        <v>19.61860086715471</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>20.48073306022713</v>
+        <v>24.62909022676472</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>6.259328452641206</v>
+        <v>11.65180771876862</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>11.8065046876369</v>
+        <v>18.57649504243846</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>12.43028061266511</v>
+        <v>19.74823929187921</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>10.53324042697538</v>
+        <v>14.71246191832987</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>21.20753516647597</v>
+        <v>27.72820511045293</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>23.03811902756058</v>
+        <v>28.97281757167114</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>14.62578764458986</v>
+        <v>19.16199372030584</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>18.55471064357345</v>
+        <v>22.04050673805591</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>20.9237294824052</v>
+        <v>23.21534184281252</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>15.36613132800466</v>
+        <v>20.76573924620055</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>16.04670595763442</v>
+        <v>20.84450048097295</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>20.60608026270135</v>
+        <v>27.98017335664776</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>13.67185952100894</v>
+        <v>17.77941486231328</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>25.07662399528652</v>
+        <v>26.28815920053368</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>32.65760407414791</v>
+        <v>32.17940571122269</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>4.885705147000358</v>
+        <v>11.19465831018275</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>9.330444978403303</v>
+        <v>15.49909662588889</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>11.64458529349272</v>
+        <v>17.90350293012859</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>6.322747801886539</v>
+        <v>11.48909330669169</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>19.56658271939018</v>
+        <v>22.29155406242209</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>16.91776370917114</v>
+        <v>21.39475966086216</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>21.69823096450185</v>
+        <v>25.01252584943935</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>20.38558888481386</v>
+        <v>24.62582059707423</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>6.59162727509052</v>
+        <v>12.11146159745605</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>21.65698171610328</v>
+        <v>26.40130537880714</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>24.11934725039654</v>
+        <v>27.72437316061842</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>9.82613928798548</v>
+        <v>14.52943576868071</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>30.49945058905273</v>
+        <v>33.67824217773224</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.81531664781895</v>
+        <v>33.14897441527051</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>33.29451426824516</v>
+        <v>34.91739804512985</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>38.53599081588513</v>
+        <v>38.71858077808172</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>39.55966075446454</v>
+        <v>39.51945237813037</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>18.9803411726326</v>
+        <v>24.60887166163751</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>32.41888026292343</v>
+        <v>35.34463426980339</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>32.65489892670385</v>
+        <v>37.02407881850971</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>15.4833622346942</v>
+        <v>20.22077627984059</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>31.70868449359072</v>
+        <v>31.71199266733215</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>36.26433315637068</v>
+        <v>34.60411384780669</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>5.492052998142228</v>
+        <v>11.88994647853168</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.89927794665864</v>
+        <v>30.20217313998551</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>37.70766148531622</v>
+        <v>35.7901874937285</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>7.00081776458449</v>
+        <v>12.53966801398895</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>48.28904379671233</v>
+        <v>43.57503868642277</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>10.28636328734498</v>
+        <v>14.82622209092503</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>16.44986746642797</v>
+        <v>20.82415349223392</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>17.58576193510633</v>
+        <v>22.6030595771475</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>4.826742863333731</v>
+        <v>10.85621515977362</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>20.27378700886196</v>
+        <v>25.7520985135239</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>21.43596833591101</v>
+        <v>26.52593516750643</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>8.825645454506144</v>
+        <v>13.9466243364838</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.62056679456348</v>
+        <v>33.47155583031605</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>31.88716205775685</v>
+        <v>35.30340711838896</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>33.38914483625412</v>
+        <v>36.62224898599284</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>36.3390535955908</v>
+        <v>38.61524768625137</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>39.91377096359437</v>
+        <v>41.57702768792604</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>12.50851856717161</v>
+        <v>16.97319257513597</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>22.0939131988394</v>
+        <v>26.83243709401364</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>25.65647721387263</v>
+        <v>30.67932413526611</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>9.253833148704885</v>
+        <v>15.19211173611141</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.12004280498993</v>
+        <v>28.11957086321052</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>35.99605517074805</v>
+        <v>34.09342195047419</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>4.619390436699074</v>
+        <v>11.32412081092475</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>19.60685314679319</v>
+        <v>23.96476439119936</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>36.49823335866155</v>
+        <v>35.29564771144141</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>6.413687192139573</v>
+        <v>12.17306564532439</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>31.92527453978098</v>
+        <v>34.4668103947019</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>9.087332181473577</v>
+        <v>13.69334222485696</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>13.38481136866131</v>
+        <v>18.50002694315167</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>16.72625795836023</v>
+        <v>21.904478100249</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>4.916058484603145</v>
+        <v>10.84890253010844</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>16.69579098247237</v>
+        <v>23.32731876209389</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>22.65632048242378</v>
+        <v>27.83017226998489</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>6.579047065737921</v>
+        <v>11.75206443717523</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>26.74491760659138</v>
+        <v>31.65774393422974</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>30.63169452879066</v>
+        <v>34.42328003052015</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.89738033970156</v>
+        <v>31.43092719066006</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.1370817962026</v>
+        <v>33.71717642062243</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>32.84741417695481</v>
+        <v>37.00329816161135</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>12.50252857288822</v>
+        <v>16.72504325086625</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>21.51148817296249</v>
+        <v>25.63797571819702</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>24.93807260108722</v>
+        <v>31.11879345214756</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>8.25543328745507</v>
+        <v>14.02944767994092</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>22.74804111819013</v>
+        <v>25.28753436240486</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>33.12216548310325</v>
+        <v>32.30295974804586</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>5.253365754711766</v>
+        <v>11.70367544658806</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>18.46278022559145</v>
+        <v>23.28015780959793</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>35.04432912983429</v>
+        <v>34.12293629814526</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>5.732914131195646</v>
+        <v>11.17223114691309</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.95269494053296</v>
+        <v>31.36320958973632</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>22.8492224893732</v>
+        <v>25.17146748943107</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>21.5394634461901</v>
+        <v>23.5636264465583</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>38.26543757803267</v>
+        <v>35.74779101306704</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>44.30005819324462</v>
+        <v>39.89388898734899</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>8.092416590341312</v>
+        <v>13.57751547294725</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>16.57251866249857</v>
+        <v>20.11615218951631</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>23.94113766635936</v>
+        <v>25.52337488462403</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>14.96547005032535</v>
+        <v>17.95901724252357</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>24.5392897137777</v>
+        <v>25.26495996770333</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>31.49423727774755</v>
+        <v>31.36600055434703</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>4.619750346120597</v>
+        <v>11.00754901879517</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>7.668964013633083</v>
+        <v>14.20864914562644</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>10.78900037220492</v>
+        <v>17.39611951497033</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>6.566981461886396</v>
+        <v>11.7513783968094</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>18.14400234743223</v>
+        <v>21.95299247961582</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>25.93033669936833</v>
+        <v>30.38581988307861</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>22.35762991551196</v>
+        <v>24.62649020933356</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>39.47436638513439</v>
+        <v>38.00546479066478</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>45.03860000047541</v>
+        <v>42.51737629507133</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>8.887923931882007</v>
+        <v>13.94132099925893</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>17.43905978496343</v>
+        <v>21.34112701897509</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>22.56571704406176</v>
+        <v>26.76683955600002</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>56.66392218540128</v>
+        <v>50.25219207996289</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>49.24765296770697</v>
+        <v>45.22292540697666</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>60.81737101535118</v>
+        <v>53.29755201926577</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>63.01297147677111</v>
+        <v>54.58556724263748</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>14.517589592973</v>
+        <v>19.84843134026388</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>57.9727469462387</v>
+        <v>50.35114749269542</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>60.49873933495488</v>
+        <v>52.3724258354794</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>23.74807037908101</v>
+        <v>25.49710657402933</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>38.74799717226255</v>
+        <v>36.4114052668614</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>43.17978158895875</v>
+        <v>39.818425284676</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>6.832957007296478</v>
+        <v>12.96390707880614</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>34.15410657260213</v>
+        <v>35.09850073216627</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>44.00255654645558</v>
+        <v>41.00201876409927</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>12.47878596169424</v>
+        <v>16.100720514147</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>60.34104349074062</v>
+        <v>53.2132271756459</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>64.3687519602793</v>
+        <v>56.47360503011177</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>66.30468850243915</v>
+        <v>58.80039233427101</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>74.86158168032858</v>
+        <v>64.74040459578571</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>78.24642788524405</v>
+        <v>67.27861140318362</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.2084872956323</v>
+        <v>29.09385055107029</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>73.03906221591815</v>
+        <v>62.04283638897313</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>75.16205577961978</v>
+        <v>63.94332529976582</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>58.5796763674244</v>
+        <v>51.85467725372182</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>33.10336318892975</v>
+        <v>34.68977229773556</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>45.37542319840526</v>
+        <v>42.70673400687078</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>62.6636528017899</v>
+        <v>54.05244297024068</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>8.060228940756645</v>
+        <v>14.39369467864874</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>46.65383817146666</v>
+        <v>43.2356027208432</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>57.17045415183105</v>
+        <v>50.01595679294134</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>13.7886431617123</v>
+        <v>18.49394179568384</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>31.92468054675554</v>
+        <v>32.40200598500072</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>41.21982032629339</v>
+        <v>38.78734886919786</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>5.397003036288254</v>
+        <v>11.7742354990804</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>30.89845613405366</v>
+        <v>32.46078466748111</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>43.92105120684113</v>
+        <v>40.92060114564643</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>8.46051359343895</v>
+        <v>13.72242703017557</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>50.15492142173747</v>
+        <v>47.05366471920709</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>66.90351968764313</v>
+        <v>58.82376321621988</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>57.93669542096431</v>
+        <v>53.24520641718807</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>68.21128813348489</v>
+        <v>60.1850220016598</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>78.31800251385857</v>
+        <v>67.94721113304971</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>17.77956480195703</v>
+        <v>20.47904500547975</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>62.95106745045047</v>
+        <v>55.35735307174888</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>72.27261084123532</v>
+        <v>62.2625449952663</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>54.47554833209497</v>
+        <v>48.16237480381562</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>22.61956982173279</v>
+        <v>26.08408241880045</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>31.89629936031493</v>
+        <v>31.81230216890395</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>47.22503244229215</v>
+        <v>42.17640403561481</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>7.963999447982964</v>
+        <v>13.52104707944472</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>36.58499696386645</v>
+        <v>36.41917769447672</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>52.09876366598111</v>
+        <v>46.39772737402757</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>12.08257113080749</v>
+        <v>16.89658528908583</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>31.29762430947032</v>
+        <v>31.25815741631821</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>43.21877326480141</v>
+        <v>39.99866923638925</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>5.954627155279809</v>
+        <v>12.207719151313</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.85853300082718</v>
+        <v>31.09535890037699</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>44.31074573509645</v>
+        <v>41.11072847902282</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>6.874125169200205</v>
+        <v>11.89422695493255</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>46.48697259235296</v>
+        <v>43.80930848689044</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>66.80844008111679</v>
+        <v>58.31550959123855</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>50.07148949369729</v>
+        <v>46.88825153272514</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>62.02977400816324</v>
+        <v>54.95538443844556</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>77.28143436622835</v>
+        <v>66.6813514590101</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>14.11733817641143</v>
+        <v>17.72945458851959</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>58.40129651790803</v>
+        <v>51.79534882594511</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>70.7398707995057</v>
+        <v>61.62763320697946</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>12.29914733143512</v>
+        <v>13.5682337130414</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>17.78079001787452</v>
+        <v>19.31108043723206</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>31.83786752984785</v>
+        <v>30.48497015525096</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>1.4433606383</v>
+        <v>4.396540708679019</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>14.35245676126238</v>
+        <v>15.94980390767082</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>17.81077687661082</v>
+        <v>18.90614299504031</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>3.908292515469363</v>
+        <v>6.73754100020447</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>37.6302829465879</v>
+        <v>35.75748402433427</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>43.85567013604141</v>
+        <v>40.80209647033356</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>21.08972735368565</v>
+        <v>21.27363338935891</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>24.95491694568305</v>
+        <v>25.31563287739909</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>25.78635823935229</v>
+        <v>25.8374522381915</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>11.05673058895409</v>
+        <v>13.25942739979842</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>18.91115053618019</v>
+        <v>19.79978571277692</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>33.47200916954915</v>
+        <v>31.9872484394466</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>12.11499024068779</v>
+        <v>13.58475945573182</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>26.08267508898656</v>
+        <v>26.29844602364179</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>31.7264312782476</v>
+        <v>31.38476474665511</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>1.242122590995621</v>
+        <v>4.186047686372167</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>9.915868386781639</v>
+        <v>12.3689468455209</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>11.95078988774095</v>
+        <v>15.00889973087793</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>2.028300206340081</v>
+        <v>4.732749367999681</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>22.92482304573014</v>
+        <v>23.54621117242771</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>21.07265932514678</v>
+        <v>20.67278417976576</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>33.46068452515418</v>
+        <v>31.48804828102527</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>34.68062657697848</v>
+        <v>32.36276748561561</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>2.42504436451545</v>
+        <v>5.294226694027213</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>36.46145776576637</v>
+        <v>34.01677830693686</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>37.55894620102316</v>
+        <v>35.51549656850266</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>4.940438011561351</v>
+        <v>7.460835539247078</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>54.37245283872504</v>
+        <v>49.64154226667156</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>53.86321906130109</v>
+        <v>49.18566560657339</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>54.64785871135621</v>
+        <v>49.65080645269737</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>58.99196868401586</v>
+        <v>53.42748570505305</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>60.8212843680129</v>
+        <v>55.2823538323494</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>19.95252441642644</v>
+        <v>20.22634404808224</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>57.65691507252043</v>
+        <v>51.50847202250534</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>59.95790967236157</v>
+        <v>54.08924738491405</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>17.86131086390393</v>
+        <v>18.34325011383136</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>35.54927088540738</v>
+        <v>34.58867261170862</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>36.49821421536917</v>
+        <v>35.72699545214905</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>1.323718428408615</v>
+        <v>4.99454711492017</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>34.47000441115018</v>
+        <v>33.58669568667519</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>35.80337438162255</v>
+        <v>35.15064513134155</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>2.376047319783723</v>
+        <v>5.982190652357271</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>55.35934482975499</v>
+        <v>51.4423529159256</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>5.206720270456788</v>
+        <v>8.215790284340738</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>24.19005466889062</v>
+        <v>23.51425047874245</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.48292721636583</v>
+        <v>28.1521639955141</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>1.354551914956254</v>
+        <v>4.517572165471535</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>34.29406942851102</v>
+        <v>32.1994253251558</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>36.41129311046704</v>
+        <v>34.15759918004116</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>5.433720780107624</v>
+        <v>8.336730801457829</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>54.04460269238053</v>
+        <v>48.67001254770317</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>55.92504812665243</v>
+        <v>50.69318210850304</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>60.85844888040873</v>
+        <v>54.92468627379087</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>62.13352648218804</v>
+        <v>56.52949673033274</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>66.26509854987904</v>
+        <v>59.62107618183668</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>5.101510081830913</v>
+        <v>7.995548564132012</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>36.84374537078986</v>
+        <v>34.46799391355681</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>43.19965924472396</v>
+        <v>39.79803773958436</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>10.29224914602064</v>
+        <v>11.69986804180947</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>33.2486842616241</v>
+        <v>31.72456410389764</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>36.684688885498</v>
+        <v>35.32973920396098</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>2.154647843942929</v>
+        <v>5.08817013674847</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>30.00789542027144</v>
+        <v>28.87345954722539</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>39.80195662481565</v>
+        <v>38.07948344249855</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>4.858555453560832</v>
+        <v>7.225960055435724</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>47.24549528076629</v>
+        <v>44.14768654838448</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>3.951590121441985</v>
+        <v>6.792691705775539</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>16.5016401561326</v>
+        <v>18.18064443178333</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.43599407682513</v>
+        <v>27.3415856633999</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>0.8864465142942564</v>
+        <v>3.917636981962168</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>18.24060477474122</v>
+        <v>19.81939772328793</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>39.25271683307739</v>
+        <v>36.72479633600961</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>2.322803734422873</v>
+        <v>5.002376578498534</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>46.81854963501748</v>
+        <v>43.02921811742013</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>55.3408023323326</v>
+        <v>50.29599089986404</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>51.44439784689541</v>
+        <v>46.05200356941531</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>55.49569825132966</v>
+        <v>50.2285100335516</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>61.70184124116671</v>
+        <v>55.7883812003415</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>5.326908389918088</v>
+        <v>8.135842345181821</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>34.23689685024446</v>
+        <v>32.43740719013545</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>45.46100976261826</v>
+        <v>41.81093181738651</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>6.579027974307635</v>
+        <v>8.854084541765292</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>27.67755484396162</v>
+        <v>26.96562350479829</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>33.87226219274002</v>
+        <v>33.26733598128877</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>1.904589489898516</v>
+        <v>4.880424582262279</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>23.11956863567316</v>
+        <v>23.83136805376862</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>37.06381643962533</v>
+        <v>35.07018999568561</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>2.268167052132362</v>
+        <v>4.796717362724511</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>38.37988932234417</v>
+        <v>36.87066898440989</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>23.54235950043234</v>
+        <v>24.89884527129227</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>21.99902422754837</v>
+        <v>23.31086227822189</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>36.38595683742742</v>
+        <v>36.00279394007515</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>41.48774542185826</v>
+        <v>40.36124713097229</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>7.407321909705686</v>
+        <v>8.852617960645823</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>17.4008092176911</v>
+        <v>18.70141474178443</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>24.28535054670915</v>
+        <v>25.00641390539979</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>9.399733012250422</v>
+        <v>12.02868359439102</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>22.14245956614784</v>
+        <v>23.64330240123297</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>33.15173148276313</v>
+        <v>32.98620118713531</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>1.744460679269601</v>
+        <v>4.117272076956514</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>8.011341227458779</v>
+        <v>10.43915795759629</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>13.41072090509022</v>
+        <v>15.69214776760716</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>3.313465505208438</v>
+        <v>5.137624176091432</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>21.38042262105319</v>
+        <v>22.54100097126379</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>39.50101000568814</v>
+        <v>39.09273837563128</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.5576856615508</v>
+        <v>25.9563687857389</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>46.19044290743548</v>
+        <v>44.63119085691474</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>52.490309612158</v>
+        <v>50.04469092898836</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>5.932719503308032</v>
+        <v>8.298192507911519</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>19.41017406297173</v>
+        <v>21.06853548287998</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>32.53816263563483</v>
+        <v>32.47266890253508</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>60.12169951103679</v>
+        <v>56.84096825682705</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>56.91630668885171</v>
+        <v>53.28655904382374</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>66.82413234108266</v>
+        <v>62.52236440422341</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>63.9786041381747</v>
+        <v>60.28235129872976</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>15.56834798453923</v>
+        <v>16.65733453521802</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>60.75581293948074</v>
+        <v>56.50102364690487</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>63.63092770882701</v>
+        <v>59.77506369910843</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>20.56870722099149</v>
+        <v>21.64180068107468</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>39.60471156370708</v>
+        <v>38.29530085849957</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>43.08776147268873</v>
+        <v>42.08998119511254</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>2.469961610607296</v>
+        <v>6.06116664667034</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>42.74494301694375</v>
+        <v>41.43248334216393</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>44.87312266107293</v>
+        <v>43.73149828933828</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>4.664822270767228</v>
+        <v>8.024954880992301</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>65.55927467706849</v>
+        <v>62.14852275387534</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>68.05595696456828</v>
+        <v>64.48413959964931</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>76.08315666052246</v>
+        <v>71.31264828999258</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>81.82646137576549</v>
+        <v>76.72763166886936</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>84.77416397653951</v>
+        <v>79.29837443530397</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>17.06332965460751</v>
+        <v>19.74357492919447</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>76.37961370144953</v>
+        <v>71.45671985322852</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>78.35278519497631</v>
+        <v>73.31621564846702</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>62.55477347561148</v>
+        <v>58.83439684500004</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>48.89248162253136</v>
+        <v>45.23946217323192</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>57.47401049076448</v>
+        <v>52.9766386528928</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>64.02765067735464</v>
+        <v>60.26067009557975</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>8.611539528250834</v>
+        <v>10.51613817679821</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>53.66433287772628</v>
+        <v>50.81032055108307</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>61.02138701274526</v>
+        <v>57.03823301086613</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>10.5004765291032</v>
+        <v>13.23560714100806</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>34.94050378945487</v>
+        <v>34.64215590945395</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>42.70540759172987</v>
+        <v>41.51155240873395</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>2.143045869604407</v>
+        <v>5.28032347883666</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>37.08408710231045</v>
+        <v>36.40773494987383</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>46.23920873147336</v>
+        <v>44.29939794575019</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>5.63295761382993</v>
+        <v>7.829712622602514</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>58.27895572895265</v>
+        <v>55.5872513122216</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>73.01827068949828</v>
+        <v>68.44250311585368</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>69.88303589250393</v>
+        <v>65.38015708302576</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>78.49713632083899</v>
+        <v>73.56072609754094</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>88.2711849636496</v>
+        <v>82.11693106128216</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>9.470650752512363</v>
+        <v>12.42507719400977</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>69.3300798225884</v>
+        <v>65.7305398128058</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>77.80553198699525</v>
+        <v>72.5540800616708</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>57.3603415378974</v>
+        <v>53.47233660213542</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>27.43870088780124</v>
+        <v>28.06227730678313</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>35.89685980963557</v>
+        <v>34.86739986973319</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>46.01313277422454</v>
+        <v>44.41181539897504</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>5.00651577705618</v>
+        <v>7.647832020849222</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>26.588950143021</v>
+        <v>30.87457814474033</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>54.95422542191091</v>
+        <v>52.20719934050216</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>6.370029150182997</v>
+        <v>10.32409299818565</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>31.53555381371154</v>
+        <v>31.55863461027689</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>43.1970020708749</v>
+        <v>42.14044921774698</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>1.320388615863926</v>
+        <v>5.029581393557272</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>30.36518978669955</v>
+        <v>31.0269337556718</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>45.83179219596057</v>
+        <v>43.95457924781575</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>1.472032837946507</v>
+        <v>4.695606947391578</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>47.61642356551477</v>
+        <v>46.86902624035873</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>70.90423341284628</v>
+        <v>66.73349108418968</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>53.06972932247795</v>
+        <v>51.9633937054157</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>65.82349660189433</v>
+        <v>63.56374549388576</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>85.67230002888482</v>
+        <v>79.88193936739458</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>6.49045331664205</v>
+        <v>9.792380777139037</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>60.30582394538122</v>
+        <v>58.5208792969465</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>77.95955083389777</v>
+        <v>73.2924214266891</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test4/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.589</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.922</v>
+        <v>19.614</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.756</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.181</v>
+        <v>16.844</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.998</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.362</v>
+        <v>1.011</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13.85883119720162</v>
+        <v>17.61956015443546</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13.74885278865929</v>
+        <v>17.69271146986537</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24.26659421972513</v>
+        <v>25.81609929000302</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5.411189797120855</v>
+        <v>10.52235020093577</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.49213656744752</v>
+        <v>21.62204689031331</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.61536201921788</v>
+        <v>24.50649490185817</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.550570303682019</v>
+        <v>13.32221257372909</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>33.32303263127483</v>
+        <v>32.93872478439027</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34.01622933346457</v>
+        <v>33.5215799392661</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>14.73499021573425</v>
+        <v>18.35966734109207</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>17.55590633164292</v>
+        <v>20.71891920581114</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>18.28346840611023</v>
+        <v>21.44667954647433</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>22.52295014745359</v>
+        <v>24.59817154230856</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>20.88202721831453</v>
+        <v>23.40134820592104</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>35.0473899313749</v>
+        <v>35.31014988395461</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.71556524349651</v>
+        <v>17.00130568743019</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.4163822241901</v>
+        <v>25.33354222538659</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34.66410396864056</v>
+        <v>33.53108789448401</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8.57822584363684</v>
+        <v>13.3202758326082</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14.54414328807126</v>
+        <v>17.69751598874975</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17.36521080402085</v>
+        <v>19.74972944446158</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.99944551462427</v>
+        <v>10.23719525462024</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.20565117962847</v>
+        <v>21.2534750831575</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>20.75045088379987</v>
+        <v>22.89734608738166</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.56869622172637</v>
+        <v>25.56641803358882</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25.05828100096146</v>
+        <v>26.0869973738548</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5.752195579177705</v>
+        <v>10.81533172994381</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.72962491723941</v>
+        <v>29.88747722830449</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>31.02627318426708</v>
+        <v>31.15100582553099</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>9.083044711934591</v>
+        <v>13.71535917591433</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>38.0374267478597</v>
+        <v>36.69457966735549</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>37.28271309503557</v>
+        <v>36.05451674969734</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>38.87991202452059</v>
+        <v>37.7422461742014</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>42.21807606679795</v>
+        <v>40.66053815430894</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>43.36333253762989</v>
+        <v>41.87506181761577</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>30.11071439470232</v>
+        <v>33.89720699105163</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>40.30359063879102</v>
+        <v>41.12900869870161</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>43.83994967147927</v>
+        <v>42.74547505469413</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>19.60651217832886</v>
+        <v>21.30940492947359</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>32.22880584660084</v>
+        <v>31.32739217201911</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>35.45975094382634</v>
+        <v>34.16173201814924</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>9.185246282830288</v>
+        <v>13.8373654024051</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>33.33523938939872</v>
+        <v>32.39164199924621</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>40.0308412788528</v>
+        <v>38.16106843504373</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>48.1313770397228</v>
+        <v>44.4470120558178</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>9.15938755481217</v>
+        <v>13.89672232088204</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>20.02883871193998</v>
+        <v>22.49315750341864</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>23.80548323879595</v>
+        <v>25.31348659258189</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4.042723563265199</v>
+        <v>9.857225489419619</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.634018604352</v>
+        <v>30.07395998650889</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.07508812763829</v>
+        <v>31.60658648607344</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>8.646509230915562</v>
+        <v>13.60830089868426</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>40.40153174066135</v>
+        <v>39.5767058250692</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>42.94721323329246</v>
+        <v>40.63047366315828</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>43.58775934655541</v>
+        <v>41.45514656557123</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>45.44365884938649</v>
+        <v>42.82219976898642</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>50.52085451648165</v>
+        <v>46.50331542756071</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>17.35773316906631</v>
+        <v>19.29236483648233</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>32.72532866484115</v>
+        <v>33.56265935086417</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>38.27373907614727</v>
+        <v>38.31555008989925</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12.42755258590118</v>
+        <v>15.97244448145443</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.57124790742412</v>
+        <v>29.29776364364349</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.99831567790278</v>
+        <v>33.77562241505551</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>8.766773394070611</v>
+        <v>13.18557801780943</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>26.71981136068864</v>
+        <v>27.04091097134502</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>39.11223971940416</v>
+        <v>37.2484037483191</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6.517800042953294</v>
+        <v>11.44884817587105</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>41.82526435653915</v>
+        <v>38.24502610125435</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>7.090332503029675</v>
+        <v>12.39298201289395</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>14.36052627114542</v>
+        <v>18.45127047321247</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>21.5982042331097</v>
+        <v>23.24357704748137</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4.679714811506514</v>
+        <v>10.19629953836708</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.05052875184289</v>
+        <v>28.48634896099027</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>33.5164737095978</v>
+        <v>32.82918194892243</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>5.197142552435103</v>
+        <v>10.33413103569408</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>39.09490714371703</v>
+        <v>37.25606218290249</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>41.59066783040933</v>
+        <v>39.27952264925033</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>38.80265463897417</v>
+        <v>37.33797640357522</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>40.73613241960466</v>
+        <v>38.70756980022349</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>45.67106284008</v>
+        <v>42.84772306862095</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>16.04249805080369</v>
+        <v>19.17894711444308</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>27.91722413575204</v>
+        <v>29.64905395083165</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>39.94842268149432</v>
+        <v>39.0156471944512</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>9.700234292059072</v>
+        <v>13.74294955063738</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>25.50773694739423</v>
+        <v>26.24104070523853</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>33.27090677028422</v>
+        <v>31.93948383133387</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>9.184077742393267</v>
+        <v>13.65199426306782</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>26.30543707229888</v>
+        <v>26.70099158354521</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>39.09268413306346</v>
+        <v>36.9073739554207</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>4.339036725544066</v>
+        <v>9.547005924384123</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>36.48230205111295</v>
+        <v>34.53553907632786</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>23.58002437911554</v>
+        <v>24.47352039478865</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>20.95332625751917</v>
+        <v>22.76852870914055</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>39.07288377801838</v>
+        <v>37.0673855829474</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>44.56653135148204</v>
+        <v>41.45773539931528</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>8.435046124247702</v>
+        <v>12.88363779665678</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>16.65732698020369</v>
+        <v>18.97627843580499</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>23.57350568680578</v>
+        <v>24.32047689005805</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>12.74163863948107</v>
+        <v>16.5530682757792</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>20.86532802255719</v>
+        <v>22.78716074572114</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>31.4505553342104</v>
+        <v>31.09623353682342</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>8.355108260705876</v>
+        <v>13.31413800167589</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>12.895835876928</v>
+        <v>16.68099968123434</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>17.67334850938988</v>
+        <v>20.02001797491462</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>4.908372693729767</v>
+        <v>10.2264016390129</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>19.05427608314832</v>
+        <v>21.10686001016869</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>32.86396943022773</v>
+        <v>31.42905421933246</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>21.52307243757173</v>
+        <v>23.24964492429666</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>43.57224689873551</v>
+        <v>40.39114681451941</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>49.99166841991564</v>
+        <v>45.88960199617171</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>7.710743641259651</v>
+        <v>12.46830317416298</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>18.37639133599128</v>
+        <v>20.97244837278445</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>27.25502201751976</v>
+        <v>27.50154447926496</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>57.5459702506202</v>
+        <v>51.644727802227</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>50.8552879044915</v>
+        <v>46.25923608825651</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>61.90140417704748</v>
+        <v>55.15609150402254</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>64.70669436857477</v>
+        <v>57.39609598471771</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>19.9887874140379</v>
+        <v>21.65852869523108</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>56.48684049191228</v>
+        <v>50.73944537512645</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>59.17691078713613</v>
+        <v>52.97323378763598</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24.44912322464278</v>
+        <v>25.63629941591895</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>37.49834083894054</v>
+        <v>35.80279615155896</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>42.69150336787654</v>
+        <v>39.75508546409555</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>10.27769331485745</v>
+        <v>14.59104809208883</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>39.32791330189541</v>
+        <v>36.63859960829723</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>46.27993171927845</v>
+        <v>42.73554878359747</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>9.120473035015642</v>
+        <v>13.63014499827085</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>58.82013287651441</v>
+        <v>53.07008213263939</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>67.68387854138963</v>
+        <v>60.04090211030501</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>67.22552557714245</v>
+        <v>60.13980162731528</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>77.41285919429991</v>
+        <v>67.68287407396781</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>82.47518860622655</v>
+        <v>72.24212612604811</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>26.72437473846239</v>
+        <v>27.80318239949895</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>71.40602984892296</v>
+        <v>62.93117240898535</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>73.54366289524951</v>
+        <v>65.04469703456743</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>60.79013233696237</v>
+        <v>54.22391226057097</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>39.22355280387901</v>
+        <v>36.8000546196351</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>47.86224263508417</v>
+        <v>44.00975058536174</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>62.99730876309182</v>
+        <v>56.08725507504877</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>11.97687806293936</v>
+        <v>15.81526115924983</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>49.28723838873346</v>
+        <v>44.68726212547959</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>15.91539976005492</v>
+        <v>19.01588953082035</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>33.43702286753638</v>
+        <v>32.67646183553531</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>42.0159064382383</v>
+        <v>39.52253920056094</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>9.152450597710036</v>
+        <v>13.86257979642111</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>35.99566370285834</v>
+        <v>34.5951878175423</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>45.46326066713181</v>
+        <v>42.54185727744788</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>8.223876929050828</v>
+        <v>12.79251937341957</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>54.32444353702193</v>
+        <v>49.5124920374077</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>71.5520401691771</v>
+        <v>63.04796831857323</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>62.22327458158109</v>
+        <v>55.74318843065253</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>71.5730991154104</v>
+        <v>62.82088049450552</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>83.72536357006045</v>
+        <v>72.82814963657712</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>16.57277640066958</v>
+        <v>19.54992916826555</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>61.41460757719969</v>
+        <v>54.94525581477652</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>70.73383383595501</v>
+        <v>62.61909826006347</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>54.39298826461025</v>
+        <v>49.11698484595772</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>25.39615248678691</v>
+        <v>26.16770991638283</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.73868141748998</v>
+        <v>30.75627149583705</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>45.89835008624972</v>
+        <v>42.25682297982247</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>9.596800628795524</v>
+        <v>13.78368052967444</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>43.29648453759334</v>
+        <v>39.81535615364007</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>51.92932610060095</v>
+        <v>47.04846123097089</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>13.18216437542458</v>
+        <v>16.54284376035538</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>31.46268085185214</v>
+        <v>31.07128285746383</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>44.21171661999261</v>
+        <v>41.19592815214455</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>10.08762455849147</v>
+        <v>14.28783425658757</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>33.57639533967387</v>
+        <v>32.63932656147698</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>48.6025372659871</v>
+        <v>44.67316194500828</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>4.756750747725274</v>
+        <v>10.56389551864736</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>48.54977725146543</v>
+        <v>44.58740734945066</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>70.08718011704873</v>
+        <v>62.008732671902</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>52.51954181103628</v>
+        <v>48.32882969255328</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>63.65370042897661</v>
+        <v>56.66986438121864</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>82.52710431831352</v>
+        <v>71.34605532929848</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>14.13018271030669</v>
+        <v>17.32463965542676</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>57.70130867545973</v>
+        <v>51.73316330690179</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>72.4823527011114</v>
+        <v>63.76595927095178</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>19.12443570694419</v>
+        <v>23.68097167090231</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>24.96394039912017</v>
+        <v>27.08559621191201</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>35.95566721059681</v>
+        <v>32.83430366949214</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>9.666656872160843</v>
+        <v>18.45178922721968</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.03039879938061</v>
+        <v>28.61457350042822</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>33.32236844722351</v>
+        <v>30.81484256643155</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>12.39216646330224</v>
+        <v>20.16962739704353</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>50.93949542757716</v>
+        <v>40.57669919339812</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>53.63585159076948</v>
+        <v>42.43937344951222</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>26.36508219077687</v>
+        <v>27.9326861758189</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.25313177511221</v>
+        <v>29.64529187969713</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>30.45695497593874</v>
+        <v>30.2577835825517</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>20.26566561423314</v>
+        <v>24.46000984730658</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>26.0654560787801</v>
+        <v>27.61635466476228</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>42.8857329434242</v>
+        <v>36.7721664623263</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>19.51837808846588</v>
+        <v>23.87292891959475</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>32.61800756609789</v>
+        <v>31.42903051390774</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>35.54076254240152</v>
+        <v>33.33938539486503</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>8.891159325266283</v>
+        <v>18.41169011719538</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>19.63390730615799</v>
+        <v>23.97376712090518</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>23.17289284034857</v>
+        <v>25.97529079549383</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>10.47193243230141</v>
+        <v>19.02583093206385</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>32.71465978453519</v>
+        <v>31.51708959619238</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>28.0783444359773</v>
+        <v>28.55767337444945</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>38.78794629280751</v>
+        <v>34.27857656582428</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>38.51013191240058</v>
+        <v>34.01806360851201</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>10.48173191784067</v>
+        <v>18.67290119566998</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>39.92709527513726</v>
+        <v>34.8158193592616</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>40.99864193575653</v>
+        <v>35.62948684535603</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>12.68159725692858</v>
+        <v>20.14626005756372</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>57.08056816600181</v>
+        <v>44.54379873174909</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>54.61403870329417</v>
+        <v>42.92647814925482</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>50.02691078792368</v>
+        <v>40.95701071689001</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>55.99189151469641</v>
+        <v>44.36355669503282</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>55.37245251175264</v>
+        <v>44.27991782461761</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>27.63222863255779</v>
+        <v>29.71010109315185</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>47.44464328160201</v>
+        <v>41.20327319227849</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>52.12742678682338</v>
+        <v>42.62848868821043</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>25.23946773240491</v>
+        <v>26.97045841983784</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>38.693409489952</v>
+        <v>34.72599349807199</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>39.11833858565564</v>
+        <v>35.18982264799929</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>9.530847195242533</v>
+        <v>18.37360084439945</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>34.93388417399072</v>
+        <v>33.0763138269168</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>37.63544917203861</v>
+        <v>34.61440531760487</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>11.02982042872091</v>
+        <v>19.10116803074981</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>53.32570682598647</v>
+        <v>43.73873149837339</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>12.41040619888896</v>
+        <v>19.98313981225366</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>27.60508479891243</v>
+        <v>28.44691569396994</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>32.44007529458924</v>
+        <v>31.20772103608492</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>9.457413229430799</v>
+        <v>18.33496082547959</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>38.9627499491261</v>
+        <v>34.29963498199603</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>39.3923330416263</v>
+        <v>34.88775737203166</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>11.83568567883577</v>
+        <v>19.92886870324022</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>54.28437016433157</v>
+        <v>43.1556424517787</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>54.69392121005865</v>
+        <v>43.42938517217503</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>59.89587756321404</v>
+        <v>46.1714272318175</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>66.05726909632517</v>
+        <v>49.60304524889013</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>62.76261055015715</v>
+        <v>47.9432519974078</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>10.98564016772808</v>
+        <v>19.49924794611805</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>31.57792911743687</v>
+        <v>31.36577143054504</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>38.73638938105736</v>
+        <v>35.16645159838308</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>18.52167032608393</v>
+        <v>23.39508616236768</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>35.95202847596764</v>
+        <v>33.28948389906429</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>38.08924227483007</v>
+        <v>34.92285596847006</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>9.342054796600962</v>
+        <v>18.27019472294287</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>32.60775029814876</v>
+        <v>31.29011917496911</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>38.26702880740994</v>
+        <v>34.93451828268122</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>11.10829063952408</v>
+        <v>19.36428304843932</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>49.74378024919474</v>
+        <v>41.23060721967904</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>11.83601957145158</v>
+        <v>19.67505230716414</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>24.65221628702104</v>
+        <v>26.76161007523989</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>33.20371493751088</v>
+        <v>31.39639082822817</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>9.679924165492476</v>
+        <v>18.30709339275567</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>38.94984693631696</v>
+        <v>34.05710157492579</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>44.57851008387998</v>
+        <v>37.45958354002543</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>10.0269265334661</v>
+        <v>18.56019881402002</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>56.01597837730405</v>
+        <v>43.61348953246336</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>57.33492556391059</v>
+        <v>44.74399316699892</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>55.09079550396019</v>
+        <v>43.16864829639091</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>59.70022766860143</v>
+        <v>45.76871812471286</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>62.56300888234576</v>
+        <v>47.4751412584032</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>11.36958280325508</v>
+        <v>19.84656446298425</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>32.03512452158545</v>
+        <v>31.6099683488951</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>42.89980252747429</v>
+        <v>37.40803695615138</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>15.16467221277684</v>
+        <v>21.36639507854906</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>33.39656371536378</v>
+        <v>31.76761899603486</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>37.85433982786447</v>
+        <v>34.42074521393325</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>9.480389046993736</v>
+        <v>18.25993492101049</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.93458037218584</v>
+        <v>30.35022341443165</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>38.32562867838779</v>
+        <v>34.82155522648273</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>10.15899790667651</v>
+        <v>18.45105666433988</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>45.40581145785334</v>
+        <v>38.4945820622607</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>32.99302669147172</v>
+        <v>31.63036858532456</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.48439196455744</v>
+        <v>29.73334310825387</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>41.28492950387111</v>
+        <v>36.91826920672045</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>45.1629621215175</v>
+        <v>39.03667727657916</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>15.92139047283281</v>
+        <v>22.16916476995578</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>28.32622225644119</v>
+        <v>28.83709622201253</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>34.91006575121855</v>
+        <v>32.72403267837402</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>17.71523480827629</v>
+        <v>23.15187638030911</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>30.58457914037366</v>
+        <v>30.55366318021539</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>37.06914809171307</v>
+        <v>34.40578440979353</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>9.018506778490849</v>
+        <v>18.35166312577926</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>17.39983194349769</v>
+        <v>22.58126815693418</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>24.95385471180317</v>
+        <v>26.97102613640908</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>11.22580426199647</v>
+        <v>19.06559182306816</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>32.88049265513319</v>
+        <v>31.41592269843357</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>50.35737195866783</v>
+        <v>41.4298568258051</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>32.35143710814658</v>
+        <v>31.290424138559</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>48.85396341395288</v>
+        <v>41.02066160378931</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>54.13622504212302</v>
+        <v>44.18541700151259</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>14.57581143568879</v>
+        <v>20.98889979592892</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.9250592549812</v>
+        <v>29.80908338174029</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>40.5716297645591</v>
+        <v>35.99637797409455</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>58.40900591544266</v>
+        <v>47.05646111797315</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>54.89276888352727</v>
+        <v>44.64054106481466</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>61.66604824799302</v>
+        <v>48.98364641632669</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>62.1409899783211</v>
+        <v>49.1195125929728</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>24.980940515054</v>
+        <v>26.75126401628701</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>57.75452033253148</v>
+        <v>46.58176119007503</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>59.01539688454065</v>
+        <v>47.42166681761748</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>27.87221518424803</v>
+        <v>28.84378659241811</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>41.07121675206966</v>
+        <v>36.47806711526733</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>42.21519802608413</v>
+        <v>37.49209720785544</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>9.899344168958851</v>
+        <v>18.54105604788366</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>41.49531019383392</v>
+        <v>36.67158377021843</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>42.39299614015614</v>
+        <v>37.78506329350898</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>11.6301282818493</v>
+        <v>19.61320925790894</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>60.94736649875108</v>
+        <v>48.65408179484416</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>62.40537454441936</v>
+        <v>49.3898824266161</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>65.97101816577278</v>
+        <v>51.69071872586493</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>70.42809794494325</v>
+        <v>54.57947570472742</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>71.25547084551798</v>
+        <v>54.98988890716717</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>28.74353469602194</v>
+        <v>29.4813440328084</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>66.89545099524749</v>
+        <v>52.59952327041675</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>68.43334878124307</v>
+        <v>53.50994732605533</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>57.91605718795181</v>
+        <v>46.64478849239313</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>50.01488277127325</v>
+        <v>41.3292450002623</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>57.79150886524616</v>
+        <v>45.94925071776555</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>61.51955380596308</v>
+        <v>48.78118627658959</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>17.36458893096785</v>
+        <v>22.67772983980314</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>54.37019515362839</v>
+        <v>44.15161773967793</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>56.4358969500929</v>
+        <v>45.85989206100004</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>18.82152561781444</v>
+        <v>23.71579991058104</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>37.10237506533852</v>
+        <v>34.5241355575241</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>40.00108578185787</v>
+        <v>36.30702274952728</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>9.22516861525424</v>
+        <v>18.29334412604477</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>40.45619227691239</v>
+        <v>35.91471327718936</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>41.27386862616413</v>
+        <v>37.22891946323263</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>11.2962716267545</v>
+        <v>19.4556648959293</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>59.41480791034911</v>
+        <v>47.38288263650232</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>63.33841152666676</v>
+        <v>50.20180453624204</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>65.9194269496911</v>
+        <v>51.15036483419876</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>70.58713177147635</v>
+        <v>54.19559793809434</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>73.88466358603965</v>
+        <v>56.50549363360595</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>16.80562173468522</v>
+        <v>22.8517411704967</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>65.27524812538182</v>
+        <v>51.22937332074663</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>67.97999267336314</v>
+        <v>52.81586828524225</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>58.02414395079449</v>
+        <v>46.38695347461994</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>35.27213787983968</v>
+        <v>32.61246562746313</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>43.70018567277005</v>
+        <v>37.26309706162568</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>50.95375516174611</v>
+        <v>42.19664451735975</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>14.73958486445058</v>
+        <v>21.10932080892119</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>50.82773654064097</v>
+        <v>41.61398998553159</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>57.19963738580827</v>
+        <v>45.99456051230354</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>15.35532728467967</v>
+        <v>21.71747937105228</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>36.89230812815828</v>
+        <v>34.23844100442786</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>42.40445920323086</v>
+        <v>37.61303105604691</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>9.398064417502976</v>
+        <v>18.26758692195817</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>38.53259394122724</v>
+        <v>35.05377592529406</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>44.73620172197803</v>
+        <v>39.12088905944272</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>9.855234654999617</v>
+        <v>18.59138249031678</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>55.72801539210132</v>
+        <v>45.11081787769017</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>63.90604115638131</v>
+        <v>50.36890428884436</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>60.07364743837394</v>
+        <v>47.58303385556511</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>67.18504216144127</v>
+        <v>52.09173838772445</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>73.55529466733508</v>
+        <v>56.11832655115385</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>14.37545937999271</v>
+        <v>21.27416943982613</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>63.25011233214212</v>
+        <v>49.85327032658907</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>69.52915600740344</v>
+        <v>53.8724394319567</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>14.8536970378623</v>
+        <v>18.94310835233198</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>15.71176008749529</v>
+        <v>19.65374855592218</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>23.73005090669565</v>
+        <v>25.90608094299042</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>5.352630002404588</v>
+        <v>11.76571947074941</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>16.49645285785533</v>
+        <v>20.53796302287788</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>18.56827027493496</v>
+        <v>22.33154226731587</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>9.61096988794527</v>
+        <v>14.98195300338564</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.55955350042051</v>
+        <v>30.58661162025686</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>30.73981974145617</v>
+        <v>31.53559791565898</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>15.73119535968711</v>
+        <v>19.84529268545255</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>19.29704749582059</v>
+        <v>22.41716232252009</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>20.49801607696735</v>
+        <v>23.34137658278318</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>21.88129931307211</v>
+        <v>24.31386619781917</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>21.38137240519688</v>
+        <v>24.21544302762463</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>33.9869223673435</v>
+        <v>34.06446122537965</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>13.07479943467449</v>
+        <v>17.91217319081446</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>24.01138918659563</v>
+        <v>26.0785953958902</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>33.21796826228986</v>
+        <v>32.75766786691246</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>5.653911130706796</v>
+        <v>12.83186810028325</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>10.81030045768349</v>
+        <v>16.4882946378689</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>13.61656322279629</v>
+        <v>18.29037456845928</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>4.8095826066005</v>
+        <v>11.65091879212418</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>17.44419161686877</v>
+        <v>21.73998059839502</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>19.65248694970021</v>
+        <v>22.70916670838665</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>23.72733330233389</v>
+        <v>25.50962714875327</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>23.88663589435922</v>
+        <v>25.8752948413075</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>5.8380959347257</v>
+        <v>12.14867598268359</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>27.000862840842</v>
+        <v>28.07248730093613</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>28.35475529680224</v>
+        <v>29.39675863265</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>9.553875277463959</v>
+        <v>15.02718182869116</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>36.33132532331246</v>
+        <v>35.35656109639672</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>35.93548118963619</v>
+        <v>35.11066171665715</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>38.57902317324096</v>
+        <v>36.99510582926762</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>42.99208173472071</v>
+        <v>40.35252386573328</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>44.40273195924334</v>
+        <v>41.7519130541545</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>28.20107691409638</v>
+        <v>31.07555398714199</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>43.17875594555974</v>
+        <v>40.97980286664963</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>46.21381159661411</v>
+        <v>42.24363083799093</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>17.12804289957434</v>
+        <v>20.98422958829421</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>31.65513854071202</v>
+        <v>31.61679602339706</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>35.93530937276086</v>
+        <v>34.81321484616142</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>6.488647116985064</v>
+        <v>13.16574239695145</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>30.7636859115593</v>
+        <v>31.29955742156955</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>38.89762994205124</v>
+        <v>37.42561057025299</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>6.947440891518184</v>
+        <v>13.04305598126143</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>47.14839752775829</v>
+        <v>44.27169026173792</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>10.15353539531626</v>
+        <v>15.42176950190468</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>19.32355918437533</v>
+        <v>22.59079158540196</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>22.15396172286346</v>
+        <v>24.75179545851306</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>4.181567696962439</v>
+        <v>11.18848676101967</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>27.04139672447956</v>
+        <v>28.45185141307316</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>28.3750217785208</v>
+        <v>29.66758339127053</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>8.906086587026156</v>
+        <v>14.82830736805471</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>38.05731776194537</v>
+        <v>37.6198971821738</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>40.85024534369227</v>
+        <v>38.8510612894498</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>41.99778710560299</v>
+        <v>39.71682098278433</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>43.72644012233595</v>
+        <v>41.08743349193336</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>48.36887012777805</v>
+        <v>44.51870250287763</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>17.0032368131719</v>
+        <v>20.11159499781108</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>32.7862389352039</v>
+        <v>33.09689726590022</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>38.64138055688476</v>
+        <v>37.54648207810708</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>10.55084699381687</v>
+        <v>16.13255839975915</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>27.94596636009491</v>
+        <v>29.14024196473697</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>35.34350004814716</v>
+        <v>34.33054641460169</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>5.861726940047479</v>
+        <v>12.57653517898971</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>22.50643141743454</v>
+        <v>25.30119837671108</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>37.79483232885138</v>
+        <v>36.4207708525449</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>6.021788330549757</v>
+        <v>12.64812396605062</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>36.94011559331273</v>
+        <v>35.92934137139618</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>8.345860977139694</v>
+        <v>14.30286231753764</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>15.32273935530318</v>
+        <v>19.75495812125091</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>20.48679518272154</v>
+        <v>23.35039604428828</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>4.421467428819909</v>
+        <v>11.45128263948049</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>23.8077062206527</v>
+        <v>26.19330546579758</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.79146538373851</v>
+        <v>30.6447301399825</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>5.624609619198967</v>
+        <v>12.05777488567056</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>35.35299015215223</v>
+        <v>34.94157159209341</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>38.76239133729721</v>
+        <v>37.6011783287862</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>35.15620858654731</v>
+        <v>34.83292774349398</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>37.60164900556123</v>
+        <v>36.59619166971558</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>42.30778882460501</v>
+        <v>40.32225546576608</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>16.43614259435657</v>
+        <v>20.194118956943</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.65409890715415</v>
+        <v>30.6328924835849</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>39.46255561577413</v>
+        <v>37.92617050136747</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>8.555947815391136</v>
+        <v>14.46206178885205</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>23.61278700224663</v>
+        <v>26.02378900473558</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>32.87731227054928</v>
+        <v>32.23477718812723</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>6.384907648861205</v>
+        <v>12.97202135285596</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>21.82186793281121</v>
+        <v>24.81178390869576</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>37.19185835101933</v>
+        <v>35.9055737541596</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>4.431551872051038</v>
+        <v>11.19388779052264</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>32.10190006165966</v>
+        <v>32.64841249897699</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>21.59940613816872</v>
+        <v>24.53167264676448</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>20.26867090905197</v>
+        <v>23.34876343847188</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>36.54557539813047</v>
+        <v>35.90991973826412</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>42.51022550002623</v>
+        <v>40.12090971197027</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>7.339520197180633</v>
+        <v>13.90590225997727</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>14.82924808886147</v>
+        <v>19.30448669237138</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>21.72386846871725</v>
+        <v>24.51294456299949</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>13.21475660959938</v>
+        <v>18.03338995301701</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>21.92291217286759</v>
+        <v>24.46958325594398</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>30.75142461187578</v>
+        <v>31.31897755907948</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>5.496874600055307</v>
+        <v>12.77181845155776</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>9.653616668355198</v>
+        <v>15.81997660436991</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>13.84217779796852</v>
+        <v>18.65887492122489</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>5.134018792046245</v>
+        <v>11.78937662192891</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>18.27486163342775</v>
+        <v>21.80683659352955</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>30.23343302976098</v>
+        <v>30.55509205141308</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>21.34789130471933</v>
+        <v>24.28617989952229</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>39.61679895680577</v>
+        <v>37.99071914189584</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>46.03755699760984</v>
+        <v>43.25592720305276</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>7.973650483977465</v>
+        <v>14.01553161659752</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>17.72246826782828</v>
+        <v>21.55028504113223</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>25.57480621095335</v>
+        <v>27.28004968043518</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>57.47802216697326</v>
+        <v>50.89646543515822</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>50.1789008207634</v>
+        <v>46.08717993205636</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>61.14706458719169</v>
+        <v>54.12483047935171</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>63.22787025204518</v>
+        <v>55.45145042201194</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>17.01791523634634</v>
+        <v>20.96782766364232</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>56.73307380144514</v>
+        <v>50.80289517077053</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>60.31803249233779</v>
+        <v>53.40465385290977</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>24.49108433067263</v>
+        <v>26.28159238332354</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>38.24499519440666</v>
+        <v>36.65769713653311</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>42.81954392641684</v>
+        <v>39.61108006425666</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>8.035212050619094</v>
+        <v>14.07718697692379</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>37.29313668281646</v>
+        <v>35.43364689044967</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>45.01800171056335</v>
+        <v>41.45794758349119</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>10.99143261946672</v>
+        <v>15.87366253710769</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>60.11199835962147</v>
+        <v>53.27089021930023</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>66.16375749474342</v>
+        <v>57.54414082286544</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>69.1777415561203</v>
+        <v>60.38069933520408</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>76.82199553752729</v>
+        <v>65.49274022051475</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>81.02046518323672</v>
+        <v>68.90048164322813</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>28.6508719382492</v>
+        <v>29.18948499874304</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>71.87570194058796</v>
+        <v>62.06366868057347</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>75.03125487381433</v>
+        <v>64.39434214873015</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>59.65756869251101</v>
+        <v>52.70330614466712</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>36.15694393636737</v>
+        <v>35.60387495491692</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>46.3118525279153</v>
+        <v>43.32143379325471</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>62.0807682024747</v>
+        <v>54.74568859908314</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>9.330376398459794</v>
+        <v>15.64190346107051</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>47.60356979351796</v>
+        <v>44.04703087630145</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>56.17270347678542</v>
+        <v>50.30249140569558</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>15.57805324026453</v>
+        <v>19.62546523607991</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>33.6228240671668</v>
+        <v>33.19119240761979</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>41.92089962776378</v>
+        <v>39.11839611615508</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>6.497139035195215</v>
+        <v>13.229585516805</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>33.67799270312433</v>
+        <v>33.41185147003573</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>44.41129562080184</v>
+        <v>41.37939861271402</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>8.372267158437868</v>
+        <v>14.1402243486707</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>53.08787275132094</v>
+        <v>48.45270112676876</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>69.48315802621833</v>
+        <v>59.99855586904237</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>61.30777702292532</v>
+        <v>54.41587351692988</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>70.20070784465481</v>
+        <v>60.83383906539765</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>82.16383567209866</v>
+        <v>69.48735387873808</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>17.18625263422988</v>
+        <v>20.71816810991996</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>62.59199537655336</v>
+        <v>55.34002638385081</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>72.51137103612865</v>
+        <v>62.4412744593958</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>54.17829334858411</v>
+        <v>48.91724497223329</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>23.90719041229933</v>
+        <v>26.31188221879911</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>30.33571697698009</v>
+        <v>31.02400986927355</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>45.42710509590053</v>
+        <v>42.3375294920511</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>7.919209324985815</v>
+        <v>14.1331546272855</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>38.93930020834896</v>
+        <v>37.57922579072776</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>51.38975028425386</v>
+        <v>47.04532002858704</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>12.68865537216592</v>
+        <v>17.34657809419126</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>31.53171517490044</v>
+        <v>31.69270898921658</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>43.06446063120528</v>
+        <v>40.16303063548698</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>7.136757787157752</v>
+        <v>13.47692514400526</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>31.17511245280876</v>
+        <v>31.57139890772866</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>45.59577953068447</v>
+        <v>42.39861740494678</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>5.325143909298063</v>
+        <v>12.17036034884844</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>47.3160631081124</v>
+        <v>43.87519721809328</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>67.94132147153184</v>
+        <v>59.06479534051489</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>51.19825186770427</v>
+        <v>47.03530734099871</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>61.63817983972451</v>
+        <v>54.81605057475744</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>79.47856510954523</v>
+        <v>67.4869134045905</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>13.78834876709024</v>
+        <v>18.17828052031911</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>57.16829474199528</v>
+        <v>51.31743236631015</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>71.67549118441133</v>
+        <v>62.03777264349523</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>18.20468884333658</v>
+        <v>23.99743263989024</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>19.61860086715471</v>
+        <v>24.84296156247568</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>24.62909022676472</v>
+        <v>27.85772649349182</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>11.65180771876862</v>
+        <v>20.16007228338066</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>18.57649504243846</v>
+        <v>24.45798559455998</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>19.74823929187921</v>
+        <v>25.2553962007187</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>14.71246191832987</v>
+        <v>21.94232774461695</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>27.72820511045293</v>
+        <v>29.85035924513341</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>28.97281757167114</v>
+        <v>30.60915429590748</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>19.16199372030584</v>
+        <v>24.71051191541137</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>22.04050673805591</v>
+        <v>26.31110073938158</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>23.21534184281252</v>
+        <v>26.90056961275493</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>20.76573924620055</v>
+        <v>25.57878089598647</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>20.84450048097295</v>
+        <v>25.88615357893404</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>27.98017335664776</v>
+        <v>30.32816720498474</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>17.77941486231328</v>
+        <v>23.76086076497312</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>26.28815920053368</v>
+        <v>28.52204837647653</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>32.17940571122269</v>
+        <v>31.69052138085199</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>11.19465831018275</v>
+        <v>20.41760307360675</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>15.49909662588889</v>
+        <v>22.60180183409935</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>17.90350293012859</v>
+        <v>23.83486359701384</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>11.48909330669169</v>
+        <v>20.22824790603251</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>22.29155406242209</v>
+        <v>26.59071723668844</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>21.39475966086216</v>
+        <v>25.89394372300013</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.01252584943935</v>
+        <v>27.82021791418079</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>24.62582059707423</v>
+        <v>27.78006565533622</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>12.11146159745605</v>
+        <v>20.41035011495604</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>26.40130537880714</v>
+        <v>28.73914861738931</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>27.72437316061842</v>
+        <v>29.61590096803633</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>14.52943576868071</v>
+        <v>21.8459314086812</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>33.67824217773224</v>
+        <v>33.04218040740486</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>33.14897441527051</v>
+        <v>32.80151626955294</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>34.91739804512985</v>
+        <v>33.70615193572515</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>38.71858077808172</v>
+        <v>35.77502745074344</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>39.51945237813037</v>
+        <v>36.4298285967843</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>24.60887166163751</v>
+        <v>28.32720378602313</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>35.34463426980339</v>
+        <v>34.45356489598529</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>37.02407881850971</v>
+        <v>35.07863147327075</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>20.22077627984059</v>
+        <v>25.19943280373708</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>31.71199266733215</v>
+        <v>31.44130140877581</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>34.60411384780669</v>
+        <v>33.05471770131932</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>11.88994647853168</v>
+        <v>20.50698541292874</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>30.20217313998551</v>
+        <v>30.85492002889468</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>35.7901874937285</v>
+        <v>33.86904397533946</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>12.53966801398895</v>
+        <v>20.6809640087191</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>43.57503868642277</v>
+        <v>38.72546325840744</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>14.82622209092503</v>
+        <v>22.0452706401197</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>20.82415349223392</v>
+        <v>25.68143602291924</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>22.6030595771475</v>
+        <v>26.73048009725925</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>10.85621515977362</v>
+        <v>19.84214644307426</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>25.7520985135239</v>
+        <v>28.54507986885098</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>26.52593516750643</v>
+        <v>29.13937178969684</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>13.9466243364838</v>
+        <v>21.69201630048009</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>33.47155583031605</v>
+        <v>33.39524995362107</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>35.30340711838896</v>
+        <v>34.07664328222553</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>36.62224898599284</v>
+        <v>34.86461204550601</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>38.61524768625137</v>
+        <v>35.94066793131667</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>41.57702768792604</v>
+        <v>37.60383510991542</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>16.97319257513597</v>
+        <v>23.28594506040373</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>26.83243709401364</v>
+        <v>29.62576593236447</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>30.67932413526611</v>
+        <v>31.86046879333735</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>15.19211173611141</v>
+        <v>22.44970633812786</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.11957086321052</v>
+        <v>29.66283444655884</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>34.09342195047419</v>
+        <v>32.7886902494101</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>11.32412081092475</v>
+        <v>20.23370458744407</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>23.96476439119936</v>
+        <v>27.46627625675335</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>35.29564771144141</v>
+        <v>33.61182110282861</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>12.17306564532439</v>
+        <v>20.6888217208127</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>34.4668103947019</v>
+        <v>33.25805704204848</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>13.69334222485696</v>
+        <v>21.46927731029147</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>18.50002694315167</v>
+        <v>24.33473050098215</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>21.904478100249</v>
+        <v>26.22926621955106</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>10.84890253010844</v>
+        <v>19.93857094814766</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>23.32731876209389</v>
+        <v>27.21002355993198</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>27.83017226998489</v>
+        <v>29.84128174959999</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>11.75206443717523</v>
+        <v>20.29736100273185</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>31.65774393422974</v>
+        <v>32.09204479535142</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>34.42328003052015</v>
+        <v>33.7854694807477</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>31.43092719066006</v>
+        <v>32.00954431045673</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>33.71717642062243</v>
+        <v>33.24509801143061</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>37.00329816161135</v>
+        <v>35.19187445867303</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>16.72504325086625</v>
+        <v>23.29800594443587</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>25.63797571819702</v>
+        <v>28.75743263834764</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>31.11879345214756</v>
+        <v>32.04433662859454</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>14.02944767994092</v>
+        <v>21.65237987724391</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>25.28753436240486</v>
+        <v>28.10147465758087</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>32.30295974804586</v>
+        <v>31.6544300809702</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>11.70367544658806</v>
+        <v>20.40487082169204</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>23.28015780959793</v>
+        <v>27.07393415909059</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>34.12293629814526</v>
+        <v>32.96686279338648</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>11.17223114691309</v>
+        <v>19.9227956167659</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>31.36320958973632</v>
+        <v>31.65216851466336</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>25.17146748943107</v>
+        <v>27.94008382513199</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>23.5636264465583</v>
+        <v>27.03858070426775</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>35.74779101306704</v>
+        <v>33.97895993434729</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>39.89388898734899</v>
+        <v>36.21972227204031</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>13.57751547294725</v>
+        <v>21.63674799255971</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>20.11615218951631</v>
+        <v>25.00020861645536</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>25.52337488462403</v>
+        <v>28.0907965247205</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>17.95901724252357</v>
+        <v>23.87213060502051</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>25.26495996770333</v>
+        <v>27.98161841884475</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>31.36600055434703</v>
+        <v>31.47890774243376</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>11.00754901879517</v>
+        <v>20.30923625024489</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>14.20864914562644</v>
+        <v>22.08074371385099</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>17.39611951497033</v>
+        <v>23.7025166994405</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>11.7513783968094</v>
+        <v>20.25347307895047</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>21.95299247961582</v>
+        <v>26.17169188979759</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>30.38581988307861</v>
+        <v>30.9686329083249</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>24.62649020933356</v>
+        <v>27.74394766064392</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>38.00546479066478</v>
+        <v>35.32682091706381</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>42.51737629507133</v>
+        <v>38.14027484336537</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>13.94132099925893</v>
+        <v>21.63671244440763</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>21.34112701897509</v>
+        <v>25.86976444569695</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>26.76683955600002</v>
+        <v>29.03521082891248</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>50.25219207996289</v>
+        <v>41.90933471161148</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>45.22292540697666</v>
+        <v>39.42922908983829</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>53.29755201926577</v>
+        <v>43.89701933025684</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>54.58556724263748</v>
+        <v>44.48488124292231</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>19.84843134026388</v>
+        <v>25.03601443450127</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>50.35114749269542</v>
+        <v>42.16729901541473</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>52.3724258354794</v>
+        <v>43.33625632564462</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>25.49710657402933</v>
+        <v>28.08357123203006</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>36.4114052668614</v>
+        <v>34.16333253103056</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>39.818425284676</v>
+        <v>35.84806877895762</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>12.96390707880614</v>
+        <v>21.01968361878572</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>35.09850073216627</v>
+        <v>33.335526929207</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>41.00201876409927</v>
+        <v>36.57673892865207</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>16.100720514147</v>
+        <v>22.54909669567629</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>53.2132271756459</v>
+        <v>43.81296439301275</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>56.47360503011177</v>
+        <v>45.57859656870421</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>58.80039233427101</v>
+        <v>47.08417566938563</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>64.74040459578571</v>
+        <v>50.09632495745877</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>67.27861140318362</v>
+        <v>51.73670047031859</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.09385055107029</v>
+        <v>29.95638624297027</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>62.04283638897313</v>
+        <v>48.7450524598317</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>63.94332529976582</v>
+        <v>49.78903831891941</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>51.85467725372182</v>
+        <v>42.90147600552955</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>34.68977229773556</v>
+        <v>33.5525395003837</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>42.70673400687078</v>
+        <v>38.0247396454496</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>54.05244297024068</v>
+        <v>44.18097595215308</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>14.39369467864874</v>
+        <v>22.19409346075409</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>43.2356027208432</v>
+        <v>38.21858994186343</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>50.01595679294134</v>
+        <v>41.92107148470257</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>18.49394179568384</v>
+        <v>24.15657053080277</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>32.40200598500072</v>
+        <v>32.05092378393244</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>38.78734886919786</v>
+        <v>35.39499152113054</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>11.7742354990804</v>
+        <v>20.56677622079598</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>32.46078466748111</v>
+        <v>32.13111997345998</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>40.92060114564643</v>
+        <v>36.78247392889955</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>13.72242703017557</v>
+        <v>21.47311842530938</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>47.05366471920709</v>
+        <v>40.59567729595546</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>58.82376321621988</v>
+        <v>46.89765885110762</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>53.24520641718807</v>
+        <v>44.02896341918169</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>60.1850220016598</v>
+        <v>47.82620187190047</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>67.94721113304971</v>
+        <v>52.06826796414191</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>20.47904500547975</v>
+        <v>25.12266789498111</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>55.35735307174888</v>
+        <v>45.09730655434684</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>62.2625449952663</v>
+        <v>48.70222267314539</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>48.16237480381562</v>
+        <v>40.98272018186789</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>26.08408241880045</v>
+        <v>28.57779660690526</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>31.81230216890395</v>
+        <v>31.64031105638833</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>42.17640403561481</v>
+        <v>37.47760191408474</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>13.52104707944472</v>
+        <v>21.43495238474026</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>36.41917769447672</v>
+        <v>34.18703253938976</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>46.39772737402757</v>
+        <v>40.02423966472131</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>16.89658528908583</v>
+        <v>23.12335492270358</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>31.25815741631821</v>
+        <v>31.37011335768623</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>39.99866923638925</v>
+        <v>36.15059704041684</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>12.207719151313</v>
+        <v>20.63547796557611</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>31.09535890037699</v>
+        <v>31.29316281801642</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>41.11072847902282</v>
+        <v>37.01622141068611</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>11.89422695493255</v>
+        <v>20.40686242296821</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>43.80930848689044</v>
+        <v>38.57178544287201</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>58.31550959123855</v>
+        <v>46.64793878381349</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>46.88825153272514</v>
+        <v>40.41351838490749</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>54.95538443844556</v>
+        <v>44.96301603711224</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>66.6813514590101</v>
+        <v>51.36203228485952</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>17.72945458851959</v>
+        <v>23.57719301327322</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>51.79534882594511</v>
+        <v>43.07811696238427</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>61.62763320697946</v>
+        <v>48.58184102594858</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>13.5682337130414</v>
+        <v>18.38010917240126</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>19.31108043723206</v>
+        <v>22.78945007351212</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>30.48497015525096</v>
+        <v>30.52924931779736</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>4.396540708679019</v>
+        <v>12.07501633402394</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>15.94980390767082</v>
+        <v>20.51935371258114</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>18.90614299504031</v>
+        <v>22.27020918542026</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>6.73754100020447</v>
+        <v>14.00903537480239</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>35.75748402433427</v>
+        <v>34.24533765405834</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>40.80209647033356</v>
+        <v>37.98577175820785</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>21.27363338935891</v>
+        <v>24.16276206682295</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>25.31563287739909</v>
+        <v>27.20165899475574</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>25.8374522381915</v>
+        <v>27.55432304502084</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>13.25942739979842</v>
+        <v>18.63009702486924</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>19.79978571277692</v>
+        <v>23.14811962332687</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>31.9872484394466</v>
+        <v>31.82996666232929</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>13.58475945573182</v>
+        <v>18.85573067399783</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>26.29844602364179</v>
+        <v>27.62743348729122</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>31.38476474665511</v>
+        <v>31.14502718665058</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>4.186047686372167</v>
+        <v>12.43623752430106</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>12.3689468455209</v>
+        <v>17.5781256412347</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>15.00889973087793</v>
+        <v>19.54284541748624</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>4.732749367999681</v>
+        <v>12.44002222827132</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>23.54621117242771</v>
+        <v>25.83565249918528</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>20.67278417976576</v>
+        <v>23.40695133033201</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>31.48804828102527</v>
+        <v>31.12545663913067</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>32.36276748561561</v>
+        <v>31.53336567803667</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>5.294226694027213</v>
+        <v>12.43569264410474</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>34.01677830693686</v>
+        <v>32.91530866268809</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>35.51549656850266</v>
+        <v>34.13987573713487</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>7.460835539247078</v>
+        <v>14.09443936744442</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>49.64154226667156</v>
+        <v>44.25770403213933</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>49.18566560657339</v>
+        <v>43.92158265759673</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>49.65080645269737</v>
+        <v>44.34776399563701</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>53.42748570505305</v>
+        <v>46.82148938698211</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>55.2823538323494</v>
+        <v>48.55862700280035</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>20.22634404808224</v>
+        <v>23.87978444970731</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>51.50847202250534</v>
+        <v>46.38403345607544</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>54.08924738491405</v>
+        <v>47.60009263578688</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>18.34325011383136</v>
+        <v>21.64222528976646</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>34.58867261170862</v>
+        <v>33.12790539392021</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>35.72699545214905</v>
+        <v>34.20291947764701</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>4.99454711492017</v>
+        <v>12.48211898153977</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>33.58669568667519</v>
+        <v>32.82403739808704</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>35.15064513134155</v>
+        <v>33.89778277997953</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>5.982190652357271</v>
+        <v>12.86887838146494</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>51.4423529159256</v>
+        <v>45.7798651179128</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>8.215790284340738</v>
+        <v>14.50197643588876</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>23.51425047874245</v>
+        <v>25.77906336750902</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.1521639955141</v>
+        <v>28.830284590004</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>4.517572165471535</v>
+        <v>12.01242906253287</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.1994253251558</v>
+        <v>31.64145120225343</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>34.15759918004116</v>
+        <v>33.22228413035576</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>8.336730801457829</v>
+        <v>14.96600309102592</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>48.67001254770317</v>
+        <v>43.81459032448157</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>50.69318210850304</v>
+        <v>44.58829298667443</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>54.92468627379087</v>
+        <v>48.07548428448712</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>56.52949673033274</v>
+        <v>49.30453799638781</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>59.62107618183668</v>
+        <v>51.3211272077148</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>7.995548564132012</v>
+        <v>14.79759107182133</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>34.46799391355681</v>
+        <v>33.7349747272247</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>39.79803773958436</v>
+        <v>37.4950621008372</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>11.69986804180947</v>
+        <v>17.06914781749915</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>31.72456410389764</v>
+        <v>31.34947611764724</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>35.32973920396098</v>
+        <v>33.83828575231041</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>5.08817013674847</v>
+        <v>12.32974393801289</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.87345954722539</v>
+        <v>29.36241552820169</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>38.07948344249855</v>
+        <v>35.88131966296158</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>7.225960055435724</v>
+        <v>13.88688370390878</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>44.14768654838448</v>
+        <v>40.4168549074744</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>6.792691705775539</v>
+        <v>13.85907099835322</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>18.18064443178333</v>
+        <v>21.80151417304312</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>27.3415856633999</v>
+        <v>28.0219679866412</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>3.917636981962168</v>
+        <v>12.02133713992828</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>19.81939772328793</v>
+        <v>22.79666681245886</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>36.72479633600961</v>
+        <v>34.88133289884998</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>5.002376578498534</v>
+        <v>12.24710277451254</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>43.02921811742013</v>
+        <v>39.40708302864262</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>50.29599089986404</v>
+        <v>44.83611622452906</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>46.05200356941531</v>
+        <v>41.62532056496548</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>50.2285100335516</v>
+        <v>44.63762785342337</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>55.7883812003415</v>
+        <v>48.68505822694686</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>8.135842345181821</v>
+        <v>14.7522516712452</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>32.43740719013545</v>
+        <v>32.14526954373156</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>41.81093181738651</v>
+        <v>38.7111143242301</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>8.854084541765292</v>
+        <v>14.99439015922802</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>26.96562350479829</v>
+        <v>28.07353758800198</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>33.26733598128877</v>
+        <v>32.44274102006189</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>4.880424582262279</v>
+        <v>12.39449471779297</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>23.83136805376862</v>
+        <v>25.94028723935454</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>35.07018999568561</v>
+        <v>33.79132628533013</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>4.796717362724511</v>
+        <v>12.13561395888878</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>36.87066898440989</v>
+        <v>35.1011542906348</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>24.89884527129227</v>
+        <v>26.63433246825195</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>23.31086227822189</v>
+        <v>25.57805555001386</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>36.00279394007515</v>
+        <v>34.78055888464801</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>40.36124713097229</v>
+        <v>38.0495785393905</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>8.852617960645823</v>
+        <v>15.70540262567063</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>18.70141474178443</v>
+        <v>22.16658495227444</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>25.00641390539979</v>
+        <v>26.72250901124644</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>12.02868359439102</v>
+        <v>17.84402588899079</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>23.64330240123297</v>
+        <v>25.99577794658003</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>32.98620118713531</v>
+        <v>32.63778861836148</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>4.117272076956514</v>
+        <v>12.37945664282758</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>10.43915795759629</v>
+        <v>16.27750634720309</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>15.69214776760716</v>
+        <v>20.05795909380783</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>5.137624176091432</v>
+        <v>12.46688586401307</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>22.54100097126379</v>
+        <v>25.08149213610845</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>39.09273837563128</v>
+        <v>37.16982578486</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.9563687857389</v>
+        <v>27.5445031059953</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>44.63119085691474</v>
+        <v>41.08165037027453</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>50.04469092898836</v>
+        <v>45.32518184962551</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>8.298192507911519</v>
+        <v>14.64425191965968</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>21.06853548287998</v>
+        <v>24.02285218776036</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>32.47266890253508</v>
+        <v>32.36401656862732</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>56.84096825682705</v>
+        <v>49.69743850892351</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>53.28655904382374</v>
+        <v>47.13214730844193</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>62.52236440422341</v>
+        <v>53.88912062968554</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>60.28235129872976</v>
+        <v>52.06705496769979</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>16.65733453521802</v>
+        <v>20.40434199613324</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>56.50102364690487</v>
+        <v>49.49163413810752</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>59.77506369910843</v>
+        <v>51.85917627801344</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>21.64180068107468</v>
+        <v>24.20251986250982</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>38.29530085849957</v>
+        <v>36.28126579904072</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>42.08998119511254</v>
+        <v>38.87678728357005</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>6.06116664667034</v>
+        <v>12.92678573726045</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>41.43248334216393</v>
+        <v>38.24209892598296</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>43.73149828933828</v>
+        <v>39.69401119099639</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>8.024954880992301</v>
+        <v>14.30555107463213</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>62.14852275387534</v>
+        <v>53.7177167073492</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>64.48413959964931</v>
+        <v>55.23041953941889</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>71.31264828999258</v>
+        <v>60.28928792143691</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>76.72763166886936</v>
+        <v>63.82924967091441</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>79.29837443530397</v>
+        <v>65.92868039726523</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>19.74357492919447</v>
+        <v>22.9001907057524</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>71.45671985322852</v>
+        <v>60.23435217449439</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>73.31621564846702</v>
+        <v>61.43002897907969</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>58.83439684500004</v>
+        <v>50.55983420472236</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>45.23946217323192</v>
+        <v>41.11231100153613</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>52.9766386528928</v>
+        <v>46.96955251244587</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>60.26067009557975</v>
+        <v>51.71105821832691</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>10.51613817679821</v>
+        <v>16.24881626932889</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>50.81032055108307</v>
+        <v>45.24506452339993</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>57.03823301086613</v>
+        <v>49.89844365968693</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>13.23560714100806</v>
+        <v>18.15291777217667</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>34.64215590945395</v>
+        <v>33.76112140491169</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>41.51155240873395</v>
+        <v>38.11728124457562</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>5.28032347883666</v>
+        <v>12.5141507484274</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>36.40773494987383</v>
+        <v>34.82259770670736</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>44.29939794575019</v>
+        <v>40.60024952252869</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>7.829712622602514</v>
+        <v>14.80770724425825</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>55.5872513122216</v>
+        <v>49.10129842488899</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>68.44250311585368</v>
+        <v>58.06313108770814</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>65.38015708302576</v>
+        <v>55.73729049188503</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>73.56072609754094</v>
+        <v>62.08300629393644</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>82.11693106128216</v>
+        <v>67.56145452984703</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>12.42507719400977</v>
+        <v>17.80815982499139</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>65.7305398128058</v>
+        <v>56.56276373382605</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>72.5540800616708</v>
+        <v>61.10378908365406</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>53.47233660213542</v>
+        <v>47.26382446115603</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.06227730678313</v>
+        <v>28.8449297675193</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>34.86739986973319</v>
+        <v>33.62518344452208</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>44.41181539897504</v>
+        <v>40.79885780607743</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>7.647832020849222</v>
+        <v>14.6676972537542</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>30.87457814474033</v>
+        <v>29.65798234006347</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>52.20719934050216</v>
+        <v>46.41890513484998</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>10.32409299818565</v>
+        <v>16.00957748333322</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>31.55863461027689</v>
+        <v>31.69107395746497</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>42.14044921774698</v>
+        <v>38.60379070528134</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>5.029581393557272</v>
+        <v>12.55673565420571</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>31.0269337556718</v>
+        <v>31.13675581923428</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>43.95457924781575</v>
+        <v>40.42369039645336</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>4.695606947391578</v>
+        <v>12.54019789369116</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>46.86902624035873</v>
+        <v>42.79045542019682</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>66.73349108418968</v>
+        <v>56.82474794418049</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>51.9633937054157</v>
+        <v>46.54770274878563</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>63.56374549388576</v>
+        <v>54.93355975433103</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>79.88193936739458</v>
+        <v>66.28976681160751</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>9.792380777139037</v>
+        <v>15.71308528675955</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>58.5208792969465</v>
+        <v>51.35747379154284</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>73.2924214266891</v>
+        <v>61.87214361542125</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.451</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.614</v>
+        <v>15.875</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.602</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.844</v>
+        <v>12.032</v>
       </c>
     </row>
   </sheetData>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.011</v>
+        <v>0.949</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17.61956015443546</v>
+        <v>12.58333935450339</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17.69271146986537</v>
+        <v>12.21552302667904</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25.81609929000302</v>
+        <v>23.52187918933573</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10.52235020093577</v>
+        <v>3.663032490761641</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21.62204689031331</v>
+        <v>18.54803276929316</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24.50649490185817</v>
+        <v>22.08460088913382</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13.32221257372909</v>
+        <v>7.14711367900281</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32.93872478439027</v>
+        <v>33.19388424316489</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>33.5215799392661</v>
+        <v>33.89802553202607</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>18.35966734109207</v>
+        <v>13.40026134593839</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>20.71891920581114</v>
+        <v>16.27018859146411</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>21.44667954647433</v>
+        <v>17.03848725216118</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>24.59817154230856</v>
+        <v>22.2518462180076</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>23.40134820592104</v>
+        <v>19.85328782251341</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>35.31014988395461</v>
+        <v>34.8606870431672</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17.00130568743019</v>
+        <v>12.84517189913671</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.33354222538659</v>
+        <v>24.33937902360257</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.53108789448401</v>
+        <v>35.3951729208336</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>13.3202758326082</v>
+        <v>7.363283864774115</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>17.69751598874975</v>
+        <v>13.88754163530065</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>19.74972944446158</v>
+        <v>16.92066785818007</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10.23719525462024</v>
+        <v>3.557556613622666</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>21.2534750831575</v>
+        <v>19.25562996401072</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>22.89734608738166</v>
+        <v>19.90537421159772</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25.56641803358882</v>
+        <v>24.1424747870734</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>26.0869973738548</v>
+        <v>24.79359428737843</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>10.81533172994381</v>
+        <v>3.685308531450257</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.88747722830449</v>
+        <v>29.68913922561352</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>31.15100582553099</v>
+        <v>30.74566819978949</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>13.71535917591433</v>
+        <v>7.498822502167808</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>36.69457966735549</v>
+        <v>37.89301286919778</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>36.05451674969734</v>
+        <v>37.54798141000875</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>37.7422461742014</v>
+        <v>39.07027379602444</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>40.66053815430894</v>
+        <v>42.90041037000255</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>41.87506181761577</v>
+        <v>44.31887831742925</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>33.89720699105163</v>
+        <v>35.50754741439768</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>41.12900869870161</v>
+        <v>42.17896987638488</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42.74547505469413</v>
+        <v>42.76261229049982</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>21.30940492947359</v>
+        <v>19.40236479152015</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31.32739217201911</v>
+        <v>32.5079596221647</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.16173201814924</v>
+        <v>36.43892736621562</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>13.8373654024051</v>
+        <v>7.820551484185298</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>32.39164199924621</v>
+        <v>33.8896409911188</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>38.16106843504373</v>
+        <v>41.60802990155964</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>44.4470120558178</v>
+        <v>50.78204164550898</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>13.89672232088204</v>
+        <v>7.677808367515635</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>22.49315750341864</v>
+        <v>19.05806593069819</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>25.31348659258189</v>
+        <v>23.27771463051519</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>9.857225489419619</v>
+        <v>2.358761777316566</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>30.07395998650889</v>
+        <v>29.55877776000163</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.60658648607344</v>
+        <v>30.81609542406043</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>13.60830089868426</v>
+        <v>7.414617798537375</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>39.5767058250692</v>
+        <v>41.58926632704145</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>40.63047366315828</v>
+        <v>43.61749578499945</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>41.45514656557123</v>
+        <v>44.02692752245434</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>42.82219976898642</v>
+        <v>45.99463089346148</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>46.50331542756071</v>
+        <v>51.9349657651959</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>19.29236483648233</v>
+        <v>15.41423689846153</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>33.56265935086417</v>
+        <v>32.18040405578869</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>38.31555008989925</v>
+        <v>38.04672638603353</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>15.97244448145443</v>
+        <v>11.56538828389079</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.29776364364349</v>
+        <v>30.42434300608337</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>33.77562241505551</v>
+        <v>35.7521792671987</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>13.18557801780943</v>
+        <v>7.978711223143875</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>27.04091097134502</v>
+        <v>27.1401024550513</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>37.2484037483191</v>
+        <v>40.24917046586225</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>11.44884817587105</v>
+        <v>5.19132625368621</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>38.24502610125435</v>
+        <v>43.44604348268329</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>12.39298201289395</v>
+        <v>5.439758639949876</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>18.45127047321247</v>
+        <v>12.62027885389396</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>23.24357704748137</v>
+        <v>20.89682064735232</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>10.19629953836708</v>
+        <v>3.006476612591328</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.48634896099027</v>
+        <v>27.50712963155175</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>32.82918194892243</v>
+        <v>33.48894695520882</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>10.33413103569408</v>
+        <v>3.677137140266058</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>37.25606218290249</v>
+        <v>39.56606028808913</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>39.27952264925033</v>
+        <v>42.30834774075062</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>37.33797640357522</v>
+        <v>39.54580559296529</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>38.70756980022349</v>
+        <v>41.2934289036322</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>42.84772306862095</v>
+        <v>47.23541742548542</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>19.17894711444308</v>
+        <v>14.98882371042539</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.64905395083165</v>
+        <v>26.8207475332947</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>39.0156471944512</v>
+        <v>39.77194990592311</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>13.74294955063738</v>
+        <v>8.549183429297731</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>26.24104070523853</v>
+        <v>25.841961676924</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>31.93948383133387</v>
+        <v>33.92625593783328</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>13.65199426306782</v>
+        <v>7.968474487510729</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>26.70099158354521</v>
+        <v>26.50954314506148</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>36.9073739554207</v>
+        <v>40.52356913129508</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>9.547005924384123</v>
+        <v>2.914176917948783</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>34.53553907632786</v>
+        <v>37.8804508006106</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.47352039478865</v>
+        <v>23.82284866833703</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>22.76852870914055</v>
+        <v>20.91377338537183</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>37.0673855829474</v>
+        <v>40.44658696026345</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>41.45773539931528</v>
+        <v>46.00775961876902</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>12.88363779665678</v>
+        <v>7.242269481908917</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>18.97627843580499</v>
+        <v>16.09531534698977</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>24.32047689005805</v>
+        <v>24.12978621550517</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>16.5530682757792</v>
+        <v>11.90688698467103</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>22.78716074572114</v>
+        <v>20.66345509362656</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>31.09623353682342</v>
+        <v>32.49062208587842</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>13.31413800167589</v>
+        <v>7.292789155227204</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>16.68099968123434</v>
+        <v>12.23469426747895</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>20.02001797491462</v>
+        <v>16.92924400605209</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>10.2264016390129</v>
+        <v>3.45351534274981</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>21.10686001016869</v>
+        <v>18.34964456986983</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.42905421933246</v>
+        <v>32.190800619451</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>23.24964492429666</v>
+        <v>21.1844619840075</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>40.39114681451941</v>
+        <v>44.95866595208544</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>45.88960199617171</v>
+        <v>51.84487060541978</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>12.46830317416298</v>
+        <v>6.250045500344623</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>20.97244837278445</v>
+        <v>17.86293794759277</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>27.50154447926496</v>
+        <v>26.81522512852613</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>51.644727802227</v>
+        <v>59.64095076176383</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>46.25923608825651</v>
+        <v>53.03645029530715</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>55.15609150402254</v>
+        <v>64.53587499991001</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>57.39609598471771</v>
+        <v>67.7561728040686</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>21.65852869523108</v>
+        <v>19.5318111035316</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>50.73944537512645</v>
+        <v>58.99410949357468</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>52.97323378763598</v>
+        <v>61.90358218680809</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>25.63629941591895</v>
+        <v>24.3215988718282</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.80279615155896</v>
+        <v>38.26281721525378</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>39.75508546409555</v>
+        <v>44.13231185546386</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>14.59104809208883</v>
+        <v>8.914289522197748</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>36.63859960829723</v>
+        <v>39.41970403819969</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.73554878359747</v>
+        <v>47.73880023547781</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>13.63014499827085</v>
+        <v>7.55421172819721</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>53.07008213263939</v>
+        <v>60.98284888699607</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>60.04090211030501</v>
+        <v>70.53736916636403</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>60.13980162731528</v>
+        <v>70.11268947280762</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>67.68287407396781</v>
+        <v>80.54822748590955</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>72.24212612604811</v>
+        <v>86.44896135103751</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>27.80318239949895</v>
+        <v>26.33942688731419</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>62.93117240898535</v>
+        <v>74.9957556600471</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>65.04469703456743</v>
+        <v>77.08953246512914</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>54.22391226057097</v>
+        <v>63.44183491143498</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>36.8000546196351</v>
+        <v>40.50405380123856</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>44.00975058536174</v>
+        <v>49.86766698832285</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>56.08725507504877</v>
+        <v>65.96126988333008</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>15.81526115924983</v>
+        <v>11.46206022647529</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>44.68726212547959</v>
+        <v>51.39677360656991</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>19.01588953082035</v>
+        <v>15.03695485651861</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>32.67646183553531</v>
+        <v>33.5448213882493</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>39.52253920056094</v>
+        <v>43.17745674060967</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>13.86257979642111</v>
+        <v>7.910306262016615</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>34.5951878175423</v>
+        <v>36.9190966043066</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>42.54185727744788</v>
+        <v>46.87953809102964</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>12.79251937341957</v>
+        <v>6.756876598966631</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>49.5124920374077</v>
+        <v>56.76754992002124</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>63.04796831857323</v>
+        <v>74.45732847428765</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>55.74318843065253</v>
+        <v>65.09632598842137</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>62.82088049450552</v>
+        <v>74.63592084495139</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>72.82814963657712</v>
+        <v>87.65332852940479</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>19.54992916826555</v>
+        <v>15.63521939362041</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>54.94525581477652</v>
+        <v>64.18835079276363</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>62.61909826006347</v>
+        <v>74.08723273043765</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>49.11698484595772</v>
+        <v>56.9054935403899</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>26.16770991638283</v>
+        <v>25.57709486804876</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>30.75627149583705</v>
+        <v>32.70566671556404</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>42.25682297982247</v>
+        <v>47.69882449137334</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>13.78368052967444</v>
+        <v>8.654696213182685</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>39.81535615364007</v>
+        <v>44.98053034758789</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>47.04846123097089</v>
+        <v>54.14304330392856</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>16.54284376035538</v>
+        <v>12.16681818545529</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>31.07128285746383</v>
+        <v>31.85834603465781</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>41.19592815214455</v>
+        <v>45.5145377093808</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>14.28783425658757</v>
+        <v>8.747815666856933</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>32.63932656147698</v>
+        <v>34.57005189897404</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>44.67316194500828</v>
+        <v>50.2935686489047</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>10.56389551864736</v>
+        <v>3.210960064880027</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>44.58740734945066</v>
+        <v>50.35988950554558</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>62.008732671902</v>
+        <v>73.39644438765401</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>48.32882969255328</v>
+        <v>55.23133704588209</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>56.66986438121864</v>
+        <v>66.73440604396983</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>71.34605532929848</v>
+        <v>86.79849991786196</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>17.32463965542676</v>
+        <v>12.61156798375004</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>51.73316330690179</v>
+        <v>60.5064978318957</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>63.76595927095178</v>
+        <v>75.87990465868086</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>23.68097167090231</v>
+        <v>18.11799454065405</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>27.08559621191201</v>
+        <v>24.859287032965</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>32.83430366949214</v>
+        <v>39.3336648223782</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>18.45178922721968</v>
+        <v>5.843269046705686</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.61457350042822</v>
+        <v>30.91333736128326</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>30.81484256643155</v>
+        <v>36.68876770435413</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>20.16962739704353</v>
+        <v>9.2786776482194</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>40.57669919339812</v>
+        <v>58.75323005784459</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>42.43937344951222</v>
+        <v>62.04835778332006</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>27.9326861758189</v>
+        <v>26.90001447826382</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.64529187969713</v>
+        <v>30.19248302441861</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>30.2577835825517</v>
+        <v>31.54750620480842</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>24.46000984730658</v>
+        <v>19.40725385364802</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>27.61635466476228</v>
+        <v>26.46318703572926</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>36.7721664623263</v>
+        <v>48.89464543876615</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>23.87292891959475</v>
+        <v>17.88127904849973</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>31.42903051390774</v>
+        <v>34.36698154013079</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>33.33938539486503</v>
+        <v>37.35990266186516</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>18.41169011719538</v>
+        <v>4.663444037026231</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>23.97376712090518</v>
+        <v>17.99558157523461</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>25.97529079549383</v>
+        <v>22.41314308887815</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>19.02583093206385</v>
+        <v>7.036002938319015</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>31.51708959619238</v>
+        <v>34.37559902472476</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>28.55767337444945</v>
+        <v>29.95365615552132</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>34.27857656582428</v>
+        <v>42.85314339885172</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>34.01806360851201</v>
+        <v>42.4306826539016</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>18.67290119566998</v>
+        <v>6.560153841240229</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>34.8158193592616</v>
+        <v>44.48126472065695</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>35.62948684535603</v>
+        <v>45.29089483984212</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>20.14626005756372</v>
+        <v>9.458829405597029</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>44.54379873174909</v>
+        <v>65.8287663278126</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>42.92647814925482</v>
+        <v>62.82500714161819</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>40.95701071689001</v>
+        <v>56.2483105105682</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>44.36355669503282</v>
+        <v>63.74290304413003</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>44.27991782461761</v>
+        <v>62.65111221437721</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>29.71010109315185</v>
+        <v>32.62327887604636</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>41.20327319227849</v>
+        <v>55.37888139085447</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>42.62848868821043</v>
+        <v>58.9408637785705</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>26.97045841983784</v>
+        <v>25.72757775962256</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>34.72599349807199</v>
+        <v>41.25340311939139</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>35.18982264799929</v>
+        <v>41.52658771403159</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>18.37360084439945</v>
+        <v>5.154623042151165</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>33.0763138269168</v>
+        <v>35.98827831837185</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>34.61440531760487</v>
+        <v>39.59018484857512</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>19.10116803074981</v>
+        <v>7.288464333805731</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>43.73873149837339</v>
+        <v>58.33286229125207</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>19.98313981225366</v>
+        <v>9.08772054376421</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>28.44691569396994</v>
+        <v>28.27610811301365</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>31.20772103608492</v>
+        <v>34.31194323063271</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>18.33496082547959</v>
+        <v>5.166785263146974</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>34.29963498199603</v>
+        <v>43.33895553414939</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>34.88775737203166</v>
+        <v>43.4444510324421</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>19.92886870324022</v>
+        <v>7.679863369011109</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>43.1556424517787</v>
+        <v>62.54771081226745</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>43.42938517217503</v>
+        <v>62.70437404129513</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>46.1714272318175</v>
+        <v>69.79340398194813</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>49.60304524889013</v>
+        <v>77.4606997145803</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>47.9432519974078</v>
+        <v>72.40208502358601</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>19.49924794611805</v>
+        <v>6.875100244219063</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>31.36577143054504</v>
+        <v>32.61200288546952</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>35.16645159838308</v>
+        <v>41.849879044537</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>23.39508616236768</v>
+        <v>17.0427840748724</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>33.28948389906429</v>
+        <v>38.58637845863635</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>34.92285596847006</v>
+        <v>40.23821755343095</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>18.27019472294287</v>
+        <v>5.195371937282669</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>31.29011917496911</v>
+        <v>34.27737210525996</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>34.93451828268122</v>
+        <v>40.42586004871308</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>19.36428304843932</v>
+        <v>7.572620430726314</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>41.23060721967904</v>
+        <v>55.72917931696641</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>19.67505230716414</v>
+        <v>7.841238683738968</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>26.76161007523989</v>
+        <v>24.15648540974064</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>31.39639082822817</v>
+        <v>35.39060862130691</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>18.30709339275567</v>
+        <v>5.955040668674705</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>34.05710157492579</v>
+        <v>43.57728744886308</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>37.45958354002543</v>
+        <v>49.92547222203963</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>18.56019881402002</v>
+        <v>6.124431158008402</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>43.61348953246336</v>
+        <v>65.28944861279831</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>44.74399316699892</v>
+        <v>66.91737825418092</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>43.16864829639091</v>
+        <v>63.887473034899</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>45.76871812471286</v>
+        <v>69.67739590498749</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>47.4751412584032</v>
+        <v>72.68120891539753</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>19.84656446298425</v>
+        <v>7.539571281078093</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>31.6099683488951</v>
+        <v>33.11874516158372</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>37.40803695615138</v>
+        <v>47.12969374219684</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>21.36639507854906</v>
+        <v>12.45009723963807</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>31.76761899603486</v>
+        <v>35.43866743545378</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>34.42074521393325</v>
+        <v>40.42166551133024</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>18.25993492101049</v>
+        <v>5.452339405644498</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.35022341443165</v>
+        <v>32.56778274834993</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>34.82155522648273</v>
+        <v>41.36117587683371</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>18.45105666433988</v>
+        <v>6.595513473425257</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>38.4945820622607</v>
+        <v>50.28599241817412</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>31.63036858532456</v>
+        <v>34.21779941231989</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.73334310825387</v>
+        <v>30.16521979323623</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>36.91826920672045</v>
+        <v>43.92709455100993</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>39.03667727657916</v>
+        <v>49.41788266034212</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>22.16916476995578</v>
+        <v>13.62947364439759</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>28.83709622201253</v>
+        <v>29.28325133035622</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>32.72403267837402</v>
+        <v>37.26556912086303</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>23.15187638030911</v>
+        <v>15.14863475136249</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>30.55366318021539</v>
+        <v>31.28167517303827</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>34.40578440979353</v>
+        <v>39.19510083274209</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>18.35166312577926</v>
+        <v>5.482713613556321</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>22.58126815693418</v>
+        <v>15.32134595257545</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>26.97102613640908</v>
+        <v>24.75803488072826</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>19.06559182306816</v>
+        <v>7.979929147123794</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>31.41592269843357</v>
+        <v>34.72382585477848</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>41.4298568258051</v>
+        <v>56.16919730696421</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>31.290424138559</v>
+        <v>33.83555136677896</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>41.02066160378931</v>
+        <v>53.54299006236907</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>44.18541700151259</v>
+        <v>59.96751145732887</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>20.98889979592892</v>
+        <v>12.00879553648928</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.80908338174029</v>
+        <v>30.79421593302589</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>35.99637797409455</v>
+        <v>44.03325193664593</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>47.05646111797315</v>
+        <v>64.7045892143561</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>44.64054106481466</v>
+        <v>60.58561277131228</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>48.98364641632669</v>
+        <v>68.62550697581295</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>49.1195125929728</v>
+        <v>69.42448470220236</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>26.75126401628701</v>
+        <v>25.02468385859191</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>46.58176119007503</v>
+        <v>64.21773188308096</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>47.42166681761748</v>
+        <v>65.32599325454356</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>28.84378659241811</v>
+        <v>28.04066598576669</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>36.47806711526733</v>
+        <v>43.76822203455214</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>37.49209720785544</v>
+        <v>44.75043268334331</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>18.54105604788366</v>
+        <v>5.815421916307002</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>36.67158377021843</v>
+        <v>44.09688222146357</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>37.78506329350898</v>
+        <v>44.56036392440423</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>19.61320925790894</v>
+        <v>7.542790428854953</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>48.65408179484416</v>
+        <v>67.16587750283961</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>49.3898824266161</v>
+        <v>69.1541013503352</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>51.69071872586493</v>
+        <v>72.78077744166896</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>54.57947570472742</v>
+        <v>78.07693745160233</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>54.98988890716717</v>
+        <v>78.73984076184927</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.4813440328084</v>
+        <v>28.73671738226706</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>52.59952327041675</v>
+        <v>74.56695960742042</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>53.50994732605533</v>
+        <v>76.00455800156996</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>46.64478849239313</v>
+        <v>63.83982409198202</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>41.3292450002623</v>
+        <v>55.5943399351323</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>45.94925071776555</v>
+        <v>64.96219714042684</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>48.78118627658959</v>
+        <v>68.30574849050306</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>22.67772983980314</v>
+        <v>15.15092402157337</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>44.15161773967793</v>
+        <v>60.53678821553914</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>45.85989206100004</v>
+        <v>62.24964495665795</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>23.71579991058104</v>
+        <v>16.82592936514991</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>34.5241355575241</v>
+        <v>38.87112225069291</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>36.30702274952728</v>
+        <v>41.73080396969841</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>18.29334412604477</v>
+        <v>4.963784562347783</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>35.91471327718936</v>
+        <v>43.62498841711103</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>37.22891946323263</v>
+        <v>43.42512693524551</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>19.4556648959293</v>
+        <v>7.577758273899654</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>47.38288263650232</v>
+        <v>66.02931609764335</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>50.20180453624204</v>
+        <v>70.02820220179224</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>51.15036483419876</v>
+        <v>74.17849074578761</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>54.19559793809434</v>
+        <v>79.82861737557521</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>56.50549363360595</v>
+        <v>82.6148982744426</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>22.8517411704967</v>
+        <v>13.35482363132576</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>51.22937332074663</v>
+        <v>72.76252757593502</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>52.81586828524225</v>
+        <v>75.20368824620869</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>46.38695347461994</v>
+        <v>64.71067433363378</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>32.61246562746313</v>
+        <v>37.33377726702591</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>37.26309706162568</v>
+        <v>47.95085341490424</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>42.19664451735975</v>
+        <v>56.0885040544261</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>21.10932080892119</v>
+        <v>12.18010579493419</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>41.61398998553159</v>
+        <v>56.70560842640806</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>45.99456051230354</v>
+        <v>64.0336773315683</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>21.71747937105228</v>
+        <v>11.88437146800124</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>34.23844100442786</v>
+        <v>38.90187457545156</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>37.61303105604691</v>
+        <v>44.49936945960212</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>18.26758692195817</v>
+        <v>5.159230907432484</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>35.05377592529406</v>
+        <v>40.90635072435282</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>39.12088905944272</v>
+        <v>47.59774571203432</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>18.59138249031678</v>
+        <v>5.367376809564625</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>45.11081787769017</v>
+        <v>61.7902200529429</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>50.36890428884436</v>
+        <v>71.06671246236773</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>47.58303385556511</v>
+        <v>66.81350668641802</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>52.09173838772445</v>
+        <v>75.2133728320803</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>56.11832655115385</v>
+        <v>82.23172942571047</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>21.27416943982613</v>
+        <v>10.69755184751436</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>49.85327032658907</v>
+        <v>70.28495687280562</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>53.8724394319567</v>
+        <v>77.2962744694124</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>18.94310835233198</v>
+        <v>13.8364247801881</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>19.65374855592218</v>
+        <v>14.44906455270361</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>25.90608094299042</v>
+        <v>22.78692023851317</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>11.76571947074941</v>
+        <v>3.397970971964558</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.53796302287788</v>
+        <v>14.88561549471424</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>22.33154226731587</v>
+        <v>17.04226625001343</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>14.98195300338564</v>
+        <v>8.328322358429915</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>30.58661162025686</v>
+        <v>28.80708046071217</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>31.53559791565898</v>
+        <v>29.99228465493922</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>19.84529268545255</v>
+        <v>14.52524190240771</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>22.41716232252009</v>
+        <v>18.34994023671223</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>23.34137658278318</v>
+        <v>19.66317270559843</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>24.31386619781917</v>
+        <v>21.59533693384578</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>24.21544302762463</v>
+        <v>20.50222880826855</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>34.06446122537965</v>
+        <v>34.04843672299756</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>17.91217319081446</v>
+        <v>11.54844234482163</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>26.0785953958902</v>
+        <v>23.11644259621192</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>32.75766786691246</v>
+        <v>33.23594632975315</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>12.83186810028325</v>
+        <v>3.82637803681892</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>16.4882946378689</v>
+        <v>8.853583544828698</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>18.29037456845928</v>
+        <v>11.24173947655879</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>11.65091879212418</v>
+        <v>3.134181947391554</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>21.73998059839502</v>
+        <v>15.84891645272497</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>22.70916670838665</v>
+        <v>18.66410352745574</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>25.50962714875327</v>
+        <v>23.11460825507026</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>25.8752948413075</v>
+        <v>23.24407944222187</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>12.14867598268359</v>
+        <v>3.274215681093203</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.07248730093613</v>
+        <v>26.30195527997711</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.39675863265</v>
+        <v>27.70783128359787</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>15.02718182869116</v>
+        <v>7.619338343423991</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>35.35656109639672</v>
+        <v>35.9326016536351</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>35.11066171665715</v>
+        <v>36.0524144812203</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>36.99510582926762</v>
+        <v>38.95316360565788</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>40.35252386573328</v>
+        <v>44.42118898600003</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>41.7519130541545</v>
+        <v>46.05563904789443</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>31.07555398714199</v>
+        <v>30.95032824410917</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>40.97980286664963</v>
+        <v>44.71938646951799</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>42.24363083799093</v>
+        <v>45.86031856081624</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>20.98422958829421</v>
+        <v>15.63158340612256</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>31.61679602339706</v>
+        <v>30.82941891399422</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>34.81321484616142</v>
+        <v>36.38945565767455</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>13.16574239695145</v>
+        <v>4.348030501471747</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>31.29955742156955</v>
+        <v>30.21279819223341</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>37.42561057025299</v>
+        <v>40.07771895945872</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>13.04305598126143</v>
+        <v>4.853844656619387</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>44.27169026173792</v>
+        <v>48.86558779894769</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>15.42176950190468</v>
+        <v>8.72721537852328</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>22.59079158540196</v>
+        <v>18.31668860756458</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>24.75179545851306</v>
+        <v>21.17699120756447</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>11.18848676101967</v>
+        <v>2.05179777523168</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>28.45185141307316</v>
+        <v>26.50293297299664</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.66758339127053</v>
+        <v>27.90321029204009</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>14.82830736805471</v>
+        <v>7.191293740669011</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>37.6198971821738</v>
+        <v>38.93569989418273</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>38.8510612894498</v>
+        <v>41.38886403034063</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>39.71682098278433</v>
+        <v>42.50043564458694</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>41.08743349193336</v>
+        <v>44.29488435212589</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>44.51870250287763</v>
+        <v>49.46093244778147</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>20.11159499781108</v>
+        <v>15.81870871486976</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>33.09689726590022</v>
+        <v>32.97179422253155</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>37.54648207810708</v>
+        <v>39.63251697038866</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>16.13255839975915</v>
+        <v>8.653999418974067</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.14024196473697</v>
+        <v>27.49266251901419</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>34.33054641460169</v>
+        <v>35.61909543792095</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>12.57653517898971</v>
+        <v>3.997722422678667</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>25.30119837671108</v>
+        <v>21.23857013834581</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>36.4207708525449</v>
+        <v>38.40115344260256</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>12.64812396605062</v>
+        <v>4.041899500006277</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>35.92934137139618</v>
+        <v>36.06446958447142</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>14.30286231753764</v>
+        <v>6.679423252874813</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>19.75495812125091</v>
+        <v>13.38570446296858</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>23.35039604428828</v>
+        <v>19.19020948179924</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>11.45128263948049</v>
+        <v>2.273375837154692</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>26.19330546579758</v>
+        <v>22.23041974704181</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>30.6447301399825</v>
+        <v>28.94135403116364</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>12.05777488567056</v>
+        <v>3.777671543988294</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>34.94157159209341</v>
+        <v>34.90537574522972</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>37.6011783287862</v>
+        <v>38.86437019684485</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>34.83292774349398</v>
+        <v>35.14814777080102</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>36.59619166971558</v>
+        <v>37.53643874705315</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>40.32225546576608</v>
+        <v>42.75298655806569</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>20.194118956943</v>
+        <v>15.54905590131453</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>30.6328924835849</v>
+        <v>29.41074573662151</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>37.92617050136747</v>
+        <v>39.94040118938189</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>14.46206178885205</v>
+        <v>6.487908354139286</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>26.02378900473558</v>
+        <v>22.58657032792859</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>32.23477718812723</v>
+        <v>32.73430284139067</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>12.97202135285596</v>
+        <v>4.344943616508971</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>24.81178390869576</v>
+        <v>20.24353537679648</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>35.9055737541596</v>
+        <v>37.62152508730215</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>11.19388779052264</v>
+        <v>2.500013595689882</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>32.64841249897699</v>
+        <v>31.2197378013726</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>24.53167264676448</v>
+        <v>19.90289659722269</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>23.34876343847188</v>
+        <v>19.17084259065479</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>35.90991973826412</v>
+        <v>36.55996516830883</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>40.12090971197027</v>
+        <v>43.14188081234064</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>13.90590225997727</v>
+        <v>5.326619239605382</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>19.30448669237138</v>
+        <v>13.0352832547114</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>24.51294456299949</v>
+        <v>20.58422514432459</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>18.03338995301701</v>
+        <v>11.7831596807479</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>24.46958325594398</v>
+        <v>21.12317650299411</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>31.31897755907948</v>
+        <v>30.58252415375495</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>12.77181845155776</v>
+        <v>3.69869196774243</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>15.81997660436991</v>
+        <v>7.870630845802399</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>18.65887492122489</v>
+        <v>11.99201756515116</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>11.78937662192891</v>
+        <v>3.351697005621403</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>21.80683659352955</v>
+        <v>16.74755289276493</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>30.55509205141308</v>
+        <v>28.15462350527286</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>24.28617989952229</v>
+        <v>20.1832581826634</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>37.99071914189584</v>
+        <v>39.67677340181708</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>43.25592720305276</v>
+        <v>46.59932282573983</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>14.01553161659752</v>
+        <v>6.069143811269313</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>21.55028504113223</v>
+        <v>16.32224802276588</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>27.28004968043518</v>
+        <v>24.18691491505161</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>50.89646543515822</v>
+        <v>59.24335520415937</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>46.08717993205636</v>
+        <v>51.05441849857571</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>54.12483047935171</v>
+        <v>63.16870531563934</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>55.45145042201194</v>
+        <v>65.59382903332211</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>20.96782766364232</v>
+        <v>15.32699174468276</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>50.80289517077053</v>
+        <v>58.58713155481747</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>53.40465385290977</v>
+        <v>62.51671779978632</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>26.28159238332354</v>
+        <v>24.09997909673209</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>36.65769713653311</v>
+        <v>38.46504756035118</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>39.61108006425666</v>
+        <v>43.99818939141213</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>14.07718697692379</v>
+        <v>6.046912982575908</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>35.43364689044967</v>
+        <v>36.3239285500693</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>41.45794758349119</v>
+        <v>45.9784673491429</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>15.87366253710769</v>
+        <v>9.578830576679199</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>53.27089021930023</v>
+        <v>61.86161200386837</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>57.54414082286544</v>
+        <v>68.80746344582232</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>60.38069933520408</v>
+        <v>71.96029790858741</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>65.49274022051475</v>
+        <v>79.86653796271132</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>68.90048164322813</v>
+        <v>85.06262887154043</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.18948499874304</v>
+        <v>28.57979366769478</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>62.06366868057347</v>
+        <v>75.40859138751587</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>64.39434214873015</v>
+        <v>78.7116572678357</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>52.70330614466712</v>
+        <v>61.70406400020519</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>35.60387495491692</v>
+        <v>35.49627708177457</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>43.32143379325471</v>
+        <v>46.93562462811963</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>54.74568859908314</v>
+        <v>64.24034163284722</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>15.64190346107051</v>
+        <v>7.535763644172413</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>44.04703087630145</v>
+        <v>48.10607520877875</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>50.30249140569558</v>
+        <v>57.63915151098725</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>19.62546523607991</v>
+        <v>14.27568467973746</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>33.19119240761979</v>
+        <v>33.23580867705081</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>39.11839611615508</v>
+        <v>42.9552032007369</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>13.229585516805</v>
+        <v>4.488606034553381</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>33.41185147003573</v>
+        <v>33.52162913275301</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>41.37939861271402</v>
+        <v>45.40685728431923</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>14.1402243486707</v>
+        <v>6.685767263126838</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>48.45270112676876</v>
+        <v>54.52367452367817</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>59.99855586904237</v>
+        <v>72.35917802039545</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>54.41587351692988</v>
+        <v>63.2624393911869</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>60.83383906539765</v>
+        <v>72.59411259414577</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>69.48735387873808</v>
+        <v>86.23326435086609</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>20.71816810991996</v>
+        <v>16.13484983347708</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>55.34002638385081</v>
+        <v>64.54120185347686</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>62.4412744593958</v>
+        <v>75.62529115057986</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>48.91724497223329</v>
+        <v>55.98030554129625</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>26.31188221879911</v>
+        <v>22.25654880747658</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>31.02400986927355</v>
+        <v>29.63819156890753</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>42.3375294920511</v>
+        <v>45.95439979864955</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>14.1331546272855</v>
+        <v>5.927620179451853</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>37.57922579072776</v>
+        <v>38.14405077772988</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>47.04532002858704</v>
+        <v>52.49523941577696</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>17.34657809419126</v>
+        <v>10.96289852046366</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>31.69270898921658</v>
+        <v>31.37367818637994</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>40.16303063548698</v>
+        <v>43.84802029357827</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>13.47692514400526</v>
+        <v>4.991718354352379</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>31.57139890772866</v>
+        <v>30.9483481243889</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>42.39861740494678</v>
+        <v>46.63988966674781</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>12.17036034884844</v>
+        <v>3.266947757875709</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>43.87519721809328</v>
+        <v>47.96355026586085</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>59.06479534051489</v>
+        <v>70.78024002076161</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>47.03530734099871</v>
+        <v>52.18679434732397</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>54.81605057475744</v>
+        <v>63.21829192258166</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>67.4869134045905</v>
+        <v>83.12955689676842</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>18.17828052031911</v>
+        <v>11.88040254201634</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>51.31743236631015</v>
+        <v>58.67335957197984</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>62.03777264349523</v>
+        <v>74.35371522546723</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>23.99743263989024</v>
+        <v>15.48627293726585</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>24.84296156247568</v>
+        <v>17.01471973040439</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>27.85772649349182</v>
+        <v>22.67063514846017</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>20.16007228338066</v>
+        <v>7.606611070024886</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>24.45798559455998</v>
+        <v>15.29666008657542</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>25.2553962007187</v>
+        <v>16.55098655263254</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>21.94232774461695</v>
+        <v>11.56240800035394</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.85035924513341</v>
+        <v>25.94438214832752</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>30.60915429590748</v>
+        <v>27.42471624216667</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>24.71051191541137</v>
+        <v>16.41427789988666</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>26.31110073938158</v>
+        <v>19.8674434233735</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>26.90056961275493</v>
+        <v>21.37703159412618</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.57878089598647</v>
+        <v>18.19069460486643</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>25.88615357893404</v>
+        <v>18.19168784630985</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>30.32816720498474</v>
+        <v>26.03367495004459</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>23.76086076497312</v>
+        <v>14.93022820636775</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.52204837647653</v>
+        <v>25.37787036381897</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>31.69052138085199</v>
+        <v>32.62994637614082</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>20.41760307360675</v>
+        <v>7.090624113181516</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>22.60180183409935</v>
+        <v>11.88002238597275</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>23.83486359701384</v>
+        <v>14.47781317057186</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>20.22824790603251</v>
+        <v>7.639523644812424</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>26.59071723668844</v>
+        <v>20.32029169806891</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>25.89394372300013</v>
+        <v>19.02937920019553</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>27.82021791418079</v>
+        <v>23.52489761669667</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>27.78006565533622</v>
+        <v>22.83413400364675</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>20.41035011495604</v>
+        <v>7.550426836945313</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.73914861738931</v>
+        <v>24.66568876710893</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.61590096803633</v>
+        <v>26.44418005484562</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>21.8459314086812</v>
+        <v>10.65889585267295</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>33.04218040740486</v>
+        <v>33.25995893513311</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>32.80151626955294</v>
+        <v>32.85138196232304</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>33.70615193572515</v>
+        <v>35.22436590075102</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>35.77502745074344</v>
+        <v>40.36261807486864</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>36.4298285967843</v>
+        <v>41.3076351364761</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>28.32720378602313</v>
+        <v>23.07020978935114</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>34.45356489598529</v>
+        <v>35.21098882487167</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>35.07863147327075</v>
+        <v>36.1778718028313</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>25.19943280373708</v>
+        <v>17.62014605020393</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>31.44130140877581</v>
+        <v>31.53657148608726</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>33.05471770131932</v>
+        <v>35.62156121998672</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>20.50698541292874</v>
+        <v>7.714402923734198</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>30.85492002889468</v>
+        <v>29.86341690851633</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>33.86904397533946</v>
+        <v>37.51235856723845</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>20.6809640087191</v>
+        <v>8.549085409841201</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>38.72546325840744</v>
+        <v>47.38563376813632</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>22.0452706401197</v>
+        <v>11.4803067303475</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>25.68143602291924</v>
+        <v>18.32523853357811</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.73048009725925</v>
+        <v>20.27168918003015</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>19.84214644307426</v>
+        <v>6.470216966873028</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.54507986885098</v>
+        <v>23.92245430230513</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.13937178969684</v>
+        <v>24.88331524463965</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>21.69201630048009</v>
+        <v>10.21064014405609</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>33.39524995362107</v>
+        <v>33.4569391694489</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>34.07664328222553</v>
+        <v>35.45176423914488</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>34.86461204550601</v>
+        <v>36.98266983924482</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>35.94066793131667</v>
+        <v>39.44736812976306</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>37.60383510991542</v>
+        <v>43.10330371866306</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>23.28594506040373</v>
+        <v>13.84750789871082</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.62576593236447</v>
+        <v>25.23441806924212</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>31.86046879333735</v>
+        <v>29.84575337163597</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>22.44970633812786</v>
+        <v>11.56253344869903</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.66283444655884</v>
+        <v>27.32364850933267</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>32.7886902494101</v>
+        <v>35.04774016492457</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>20.23370458744407</v>
+        <v>7.079445492399351</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>27.46627625675335</v>
+        <v>22.00822922487137</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>33.61182110282861</v>
+        <v>36.45292139500374</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>20.6888217208127</v>
+        <v>8.092902196751357</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>33.25805704204848</v>
+        <v>34.04203372477768</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>21.46927731029147</v>
+        <v>9.92618882799281</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>24.33473050098215</v>
+        <v>14.94044205336814</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>26.22926621955106</v>
+        <v>19.39760654170104</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>19.93857094814766</v>
+        <v>6.52256980961009</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>27.21002355993198</v>
+        <v>20.61464949203571</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.84128174959999</v>
+        <v>26.13622783086394</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>20.29736100273185</v>
+        <v>7.731081567490886</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>32.09204479535142</v>
+        <v>30.69761284034036</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>33.7854694807477</v>
+        <v>34.33564141677806</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>32.00954431045673</v>
+        <v>30.57600075426454</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>33.24509801143061</v>
+        <v>33.2952943292341</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>35.19187445867303</v>
+        <v>37.25345362080489</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>23.29800594443587</v>
+        <v>13.66102293104407</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.75743263834764</v>
+        <v>23.84223367411558</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>32.04433662859454</v>
+        <v>30.05109978953856</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>21.65237987724391</v>
+        <v>10.1853306582625</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.10147465758087</v>
+        <v>23.87002378225348</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>31.6544300809702</v>
+        <v>32.70263950941766</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>20.40487082169204</v>
+        <v>7.480935160576674</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>27.07393415909059</v>
+        <v>21.07541039187929</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>32.96686279338648</v>
+        <v>35.07731529255871</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>19.9227956167659</v>
+        <v>7.056876563742691</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>31.65216851466336</v>
+        <v>30.84068517221819</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>27.94008382513199</v>
+        <v>23.49894934816535</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>27.03858070426775</v>
+        <v>22.01161023816789</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>33.97895993434729</v>
+        <v>36.91106683248678</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>36.21972227204031</v>
+        <v>42.23022591444591</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>21.63674799255971</v>
+        <v>9.751774682633069</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>25.00020861645536</v>
+        <v>17.66208880373408</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>28.0907965247205</v>
+        <v>24.31756674275467</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>23.87213060502051</v>
+        <v>15.26522541636932</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>27.98161841884475</v>
+        <v>24.19364831523401</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>31.47890774243376</v>
+        <v>31.4622198014709</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>20.30923625024489</v>
+        <v>6.834617849581594</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>22.08074371385099</v>
+        <v>10.40680759276917</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>23.7025166994405</v>
+        <v>13.90448047384089</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>20.25347307895047</v>
+        <v>7.824496309299551</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>26.17169188979759</v>
+        <v>19.68731354334867</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>30.9686329083249</v>
+        <v>28.71110181682768</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>27.74394766064392</v>
+        <v>23.04679964937208</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>35.32682091706381</v>
+        <v>39.32755401986171</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>38.14027484336537</v>
+        <v>44.73701531337072</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>21.63671244440763</v>
+        <v>10.28672451177077</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>25.86976444569695</v>
+        <v>18.91467033589671</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.03521082891248</v>
+        <v>25.06343861914381</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>41.90933471161148</v>
+        <v>54.55100722780907</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>39.42922908983829</v>
+        <v>48.18473826569431</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>43.89701933025684</v>
+        <v>58.29816846615376</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>44.48488124292231</v>
+        <v>59.97773274629823</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>25.03601443450127</v>
+        <v>16.97742236714543</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>42.16729901541473</v>
+        <v>55.02807095323339</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>43.33625632564462</v>
+        <v>57.37678508830859</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>28.08357123203006</v>
+        <v>24.46611485003538</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>34.16333253103056</v>
+        <v>37.67989454925392</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>35.84806877895762</v>
+        <v>42.09584308976349</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>21.01968361878572</v>
+        <v>9.013490383689721</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>33.335526929207</v>
+        <v>35.10986360964359</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>36.57673892865207</v>
+        <v>43.3149999363519</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>22.54909669567629</v>
+        <v>13.07402282198111</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>43.81296439301275</v>
+        <v>57.99313176825417</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>45.57859656870421</v>
+        <v>62.10257175210235</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>47.08417566938563</v>
+        <v>64.74645995671473</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>50.09632495745877</v>
+        <v>72.13592416772512</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>51.73670047031859</v>
+        <v>75.34026417871029</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.95638624297027</v>
+        <v>28.81460362981468</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>48.7450524598317</v>
+        <v>69.49039809845459</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>49.78903831891941</v>
+        <v>71.74564720817125</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>42.90147600552955</v>
+        <v>56.61041684764474</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>33.5525395003837</v>
+        <v>34.79494321829272</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>38.0247396454496</v>
+        <v>45.09195295311722</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>44.18097595215308</v>
+        <v>59.3117799570906</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>22.19409346075409</v>
+        <v>10.73485344571306</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>38.21858994186343</v>
+        <v>45.74356215540627</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>41.92107148470257</v>
+        <v>54.31380224998813</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>24.15657053080277</v>
+        <v>15.6586775033886</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>32.05092378393244</v>
+        <v>32.30480654375108</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>35.39499152113054</v>
+        <v>40.76042667795418</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>20.56677622079598</v>
+        <v>7.456386762037898</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>32.13111997345998</v>
+        <v>32.47887747149251</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>36.78247392889955</v>
+        <v>43.2104344927633</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>21.47311842530938</v>
+        <v>10.09552886816134</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>40.59567729595546</v>
+        <v>50.35769980955738</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>46.89765885110762</v>
+        <v>64.97297666417835</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>44.02896341918169</v>
+        <v>57.82338486339108</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>47.82620187190047</v>
+        <v>66.32299201823476</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>52.06826796414191</v>
+        <v>76.09087875053567</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>25.12266789498111</v>
+        <v>18.39078687982541</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>45.09730655434684</v>
+        <v>60.64631760045937</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>48.70222267314539</v>
+        <v>69.38364101149098</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>40.98272018186789</v>
+        <v>52.36763747991331</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>28.57779660690526</v>
+        <v>24.19086916047606</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>31.64031105638833</v>
+        <v>31.90619487183744</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>37.47760191408474</v>
+        <v>44.77565950546158</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>21.43495238474026</v>
+        <v>9.701700196659218</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>34.18703253938976</v>
+        <v>36.94606991855436</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>40.02423966472131</v>
+        <v>50.04741308735665</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>23.12335492270358</v>
+        <v>13.55439555757591</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>31.37011335768623</v>
+        <v>31.32881387533152</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>36.15059704041684</v>
+        <v>42.1451093401507</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>20.63547796557611</v>
+        <v>8.026901622187047</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>31.29316281801642</v>
+        <v>31.09239202315835</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>37.01622141068611</v>
+        <v>43.57759868526639</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>20.40686242296821</v>
+        <v>7.863370747214141</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>38.57178544287201</v>
+        <v>46.37825311987454</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>46.64793878381349</v>
+        <v>64.52941603689679</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>40.41351838490749</v>
+        <v>50.0305106950347</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>44.96301603711224</v>
+        <v>59.97417737777478</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>51.36203228485952</v>
+        <v>74.71207889408824</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>23.57719301327322</v>
+        <v>14.75998769735076</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>43.07811696238427</v>
+        <v>56.27206557185379</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>48.58184102594858</v>
+        <v>68.30154427535436</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>18.38010917240126</v>
+        <v>12.36346489601594</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>22.78945007351212</v>
+        <v>17.83607481527283</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>30.52924931779736</v>
+        <v>30.86087307448733</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>12.07501633402394</v>
+        <v>2.136455524497499</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>20.51935371258114</v>
+        <v>14.6717620256526</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>22.27020918542026</v>
+        <v>17.96167466587085</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>14.00903537480239</v>
+        <v>4.676652588010263</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>34.24533765405834</v>
+        <v>36.55610296208043</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>37.98577175820785</v>
+        <v>42.1191076205256</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>24.16276206682295</v>
+        <v>20.69394616373751</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>27.20165899475574</v>
+        <v>24.45452087231404</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>27.55432304502084</v>
+        <v>25.46419601570091</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>18.63009702486924</v>
+        <v>11.76714143487171</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>23.14811962332687</v>
+        <v>18.83859033177156</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>31.82996666232929</v>
+        <v>32.47595054201042</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>18.85573067399783</v>
+        <v>12.25049700988468</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>27.62743348729122</v>
+        <v>26.04401987174115</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>31.14502718665058</v>
+        <v>31.65057212828377</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>12.43623752430106</v>
+        <v>1.879988172638601</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>17.5781256412347</v>
+        <v>10.63374188908355</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>19.54284541748624</v>
+        <v>12.75896108942903</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>12.44002222827132</v>
+        <v>2.588493785940226</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>25.83565249918528</v>
+        <v>22.98203610003793</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>23.40695133033201</v>
+        <v>20.34708518002686</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>31.12545663913067</v>
+        <v>32.01841802642866</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>31.53336567803667</v>
+        <v>33.38263941476222</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>12.43569264410474</v>
+        <v>2.986785804937963</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>32.91530866268809</v>
+        <v>34.87584330420957</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>34.13987573713487</v>
+        <v>36.36745757025481</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>14.09443936744442</v>
+        <v>5.388807342514045</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>44.25770403213933</v>
+        <v>51.94369307512494</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>43.92158265759673</v>
+        <v>51.5910286969947</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>44.34776399563701</v>
+        <v>52.11431926695786</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>46.82148938698211</v>
+        <v>56.81004632686633</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>48.55862700280035</v>
+        <v>58.45105251344643</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>23.87978444970731</v>
+        <v>20.95342988060237</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>46.38403345607544</v>
+        <v>54.97978095009922</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>47.60009263578688</v>
+        <v>56.7632278616496</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>21.64222528976646</v>
+        <v>17.65976551869485</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>33.12790539392021</v>
+        <v>34.91288463942313</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>34.20291947764701</v>
+        <v>36.30620229997903</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>12.48211898153977</v>
+        <v>2.36372001777589</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>32.82403739808704</v>
+        <v>34.03042319526203</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>33.89778277997953</v>
+        <v>35.90882620616921</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>12.86887838146494</v>
+        <v>3.406612483910873</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>45.7798651179128</v>
+        <v>54.38523312230737</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>14.50197643588876</v>
+        <v>6.127835117532875</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.77906336750902</v>
+        <v>23.16383415447716</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.830284590004</v>
+        <v>28.42893354491885</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>12.01242906253287</v>
+        <v>2.283525327353903</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>31.64145120225343</v>
+        <v>32.92752879934628</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>33.22228413035576</v>
+        <v>35.04740073566875</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>14.96600309102592</v>
+        <v>6.065499442399748</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>43.81459032448157</v>
+        <v>51.37074111045241</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>44.58829298667443</v>
+        <v>53.45027401802331</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>48.07548428448712</v>
+        <v>58.0300196011009</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>49.30453799638781</v>
+        <v>59.74660109514808</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>51.3211272077148</v>
+        <v>63.39485235374771</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>14.79759107182133</v>
+        <v>5.751832733720814</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>33.7349747272247</v>
+        <v>35.38990552074736</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>37.4950621008372</v>
+        <v>41.37615843001797</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>17.06914781749915</v>
+        <v>10.28329215610882</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>31.34947611764724</v>
+        <v>32.29645766758114</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>33.83828575231041</v>
+        <v>36.04895431258593</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>12.32974393801289</v>
+        <v>2.991758178844574</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.36241552820169</v>
+        <v>29.16167885366347</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>35.88131966296158</v>
+        <v>39.20985857283289</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>13.88688370390878</v>
+        <v>5.237928317124268</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>40.4168549074744</v>
+        <v>46.23961347643417</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>13.85907099835322</v>
+        <v>4.318945852325363</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>21.80151417304312</v>
+        <v>16.51726168967588</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.0219679866412</v>
+        <v>27.49687509418022</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>12.02133713992828</v>
+        <v>1.624463386132678</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>22.79666681245886</v>
+        <v>18.71661782464768</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>34.88133289884998</v>
+        <v>37.83263816809462</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>12.24710277451254</v>
+        <v>2.820897350764032</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>39.40708302864262</v>
+        <v>44.86373740029732</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>44.83611622452906</v>
+        <v>53.18186498860016</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>41.62532056496548</v>
+        <v>48.82276918541982</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>44.63762785342337</v>
+        <v>52.83970620412119</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>48.68505822694686</v>
+        <v>58.94770636355999</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>14.7522516712452</v>
+        <v>6.037263504512485</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>32.14526954373156</v>
+        <v>32.96835989302178</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>38.7111143242301</v>
+        <v>43.93641236109485</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>14.99439015922802</v>
+        <v>6.969222490892353</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>28.07353758800198</v>
+        <v>26.96864858753557</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>32.44274102006189</v>
+        <v>33.68142665834449</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>12.39449471779297</v>
+        <v>2.494428631367825</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>25.94028723935454</v>
+        <v>23.04431676365456</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>33.79132628533013</v>
+        <v>36.04675641319078</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>12.13561395888878</v>
+        <v>2.521366928077352</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>35.1011542906348</v>
+        <v>37.63707172467618</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>26.63433246825195</v>
+        <v>23.74564177211343</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>25.57805555001386</v>
+        <v>22.64896265363268</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>34.78055888464801</v>
+        <v>36.45349604017727</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>38.0495785393905</v>
+        <v>41.31476889333118</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>15.70540262567063</v>
+        <v>7.048187773319501</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>22.16658495227444</v>
+        <v>17.5904524982755</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.72250901124644</v>
+        <v>24.52039376085436</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>17.84402588899079</v>
+        <v>10.10110503075367</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.99577794658003</v>
+        <v>22.8826746640843</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>32.63778861836148</v>
+        <v>33.21376415581426</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>12.37945664282758</v>
+        <v>2.41747778441221</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>16.27750634720309</v>
+        <v>8.708987827112669</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>20.05795909380783</v>
+        <v>14.09706481504528</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>12.46688586401307</v>
+        <v>3.496319496106967</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>25.08149213610845</v>
+        <v>21.68419864491392</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>37.16982578486</v>
+        <v>39.08773459738654</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>27.5445031059953</v>
+        <v>25.58987186454957</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>41.08165037027453</v>
+        <v>45.78684390222607</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>45.32518184962551</v>
+        <v>51.76875602162719</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>14.64425191965968</v>
+        <v>6.373186826275983</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>24.02285218776036</v>
+        <v>19.88060858712484</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>32.36401656862732</v>
+        <v>32.39210906131433</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>49.69743850892351</v>
+        <v>59.30234692644981</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>47.13214730844193</v>
+        <v>55.63974031230021</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>53.88912062968554</v>
+        <v>65.62514789449506</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>52.06705496769979</v>
+        <v>63.04287218226688</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>20.40434199613324</v>
+        <v>15.52425388961182</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>49.49163413810752</v>
+        <v>59.80118267531422</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>51.85917627801344</v>
+        <v>62.70160891874993</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>24.20251986250982</v>
+        <v>20.88112157811221</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>36.28126579904072</v>
+        <v>39.13021779584865</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>38.87678728357005</v>
+        <v>43.08724899495144</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>12.92678573726045</v>
+        <v>3.747711302118891</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>38.24209892598296</v>
+        <v>42.24735795465766</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>39.69401119099639</v>
+        <v>44.91391697862616</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>14.30555107463213</v>
+        <v>5.752359926306742</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>53.7177167073492</v>
+        <v>64.85670716692782</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>55.23041953941889</v>
+        <v>67.48352617005105</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>60.28928792143691</v>
+        <v>75.02405627646446</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>63.82924967091441</v>
+        <v>80.78557127156161</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>65.92868039726523</v>
+        <v>83.59648779153136</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>22.9001907057524</v>
+        <v>18.35619559044048</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>60.23435217449439</v>
+        <v>75.67206940267482</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>61.43002897907969</v>
+        <v>77.43766131515972</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>50.55983420472236</v>
+        <v>61.59596251431508</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>41.11231100153613</v>
+        <v>47.13564111728301</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>46.96955251244587</v>
+        <v>55.93871432397484</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>51.71105821832691</v>
+        <v>63.00888434012113</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>16.24881626932889</v>
+        <v>8.869718334842563</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>45.24506452339993</v>
+        <v>52.90645530833028</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>49.89844365968693</v>
+        <v>59.6854867670973</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>18.15291777217667</v>
+        <v>11.65107546555337</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>33.76112140491169</v>
+        <v>34.93996388277713</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>38.11728124457562</v>
+        <v>42.71740772896497</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>12.5141507484274</v>
+        <v>2.973914074474568</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>34.82259770670736</v>
+        <v>37.11209719946761</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>40.60024952252869</v>
+        <v>45.77847079636433</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>14.80770724425825</v>
+        <v>6.093482403644014</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>49.10129842488899</v>
+        <v>57.80881199260668</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>58.06313108770814</v>
+        <v>71.99942166843071</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>55.73729049188503</v>
+        <v>68.858328906708</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>62.08300629393644</v>
+        <v>77.39160662910176</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>67.56145452984703</v>
+        <v>86.95685022398327</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>17.80815982499139</v>
+        <v>10.50698843326943</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>56.56276373382605</v>
+        <v>68.79091003341217</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>61.10378908365406</v>
+        <v>76.47345900431024</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>47.26382446115603</v>
+        <v>56.0187996984706</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.8449297675193</v>
+        <v>27.18607082059594</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>33.62518344452208</v>
+        <v>35.37833339632392</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>40.79885780607743</v>
+        <v>45.65865963380447</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>14.6676972537542</v>
+        <v>5.70777069274407</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.65798234006347</v>
+        <v>28.05724451117784</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>46.41890513484998</v>
+        <v>54.3077614598914</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>16.00957748333322</v>
+        <v>7.61418203597588</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>31.69107395746497</v>
+        <v>31.61067750983682</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>38.60379070528134</v>
+        <v>43.1341096217022</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>12.55673565420571</v>
+        <v>2.495256755621558</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>31.13675581923428</v>
+        <v>30.98386960891977</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>40.42369039645336</v>
+        <v>45.35966989192126</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>12.54019789369116</v>
+        <v>2.207189916092222</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>42.79045542019682</v>
+        <v>47.94985283308446</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>56.82474794418049</v>
+        <v>70.17484451409697</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>46.54770274878563</v>
+        <v>53.4996152511725</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>54.93355975433103</v>
+        <v>66.04848871325549</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>66.28976681160751</v>
+        <v>84.44958837467577</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>15.71308528675955</v>
+        <v>7.043667117770696</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>51.35747379154284</v>
+        <v>60.58932426822847</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>61.87214361542125</v>
+        <v>77.07272325232491</v>
       </c>
     </row>
   </sheetData>
